--- a/service-system/target/classes/static/路面弯沉17规范贝克曼梁法.xlsx
+++ b/service-system/target/classes/static/路面弯沉17规范贝克曼梁法.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12910\Desktop\static\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97507F72-E642-4C7A-8CAA-043D8A48CE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D92D5EB-43BB-4B69-AF9C-59EABE6689EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="870" windowWidth="14017" windowHeight="11910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="评定单元" sheetId="9" r:id="rId1"/>
@@ -3340,22 +3340,22 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" style="45" customWidth="1"/>
-    <col min="2" max="2" width="8.59765625" style="45" customWidth="1"/>
-    <col min="3" max="5" width="6.59765625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="12.59765625" style="45" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="46" customWidth="1"/>
-    <col min="8" max="9" width="8.59765625" style="45" customWidth="1"/>
+    <col min="1" max="1" width="6.625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="45" customWidth="1"/>
+    <col min="3" max="5" width="6.625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="45" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="46" customWidth="1"/>
+    <col min="8" max="9" width="8.625" style="45" customWidth="1"/>
     <col min="10" max="16384" width="9" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="43" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="43" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
@@ -3368,7 +3368,7 @@
       <c r="H1" s="68"/>
       <c r="I1" s="68"/>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="69" t="s">
         <v>1</v>
       </c>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="I2" s="70"/>
     </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="71" t="s">
         <v>5</v>
       </c>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="I3" s="72"/>
     </row>
-    <row r="4" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="65" t="s">
         <v>9</v>
       </c>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="I4" s="65"/>
     </row>
-    <row r="5" spans="1:9" s="44" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="44" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="65"/>
       <c r="B5" s="66"/>
       <c r="C5" s="66"/>
@@ -3440,7 +3440,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="49"/>
       <c r="B6" s="50"/>
       <c r="C6" s="51"/>
@@ -3451,7 +3451,7 @@
       <c r="H6" s="55"/>
       <c r="I6" s="62"/>
     </row>
-    <row r="7" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="49"/>
       <c r="B7" s="50"/>
       <c r="C7" s="51"/>
@@ -3462,7 +3462,7 @@
       <c r="H7" s="55"/>
       <c r="I7" s="62"/>
     </row>
-    <row r="8" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="49"/>
       <c r="B8" s="50"/>
       <c r="C8" s="51"/>
@@ -3473,7 +3473,7 @@
       <c r="H8" s="55"/>
       <c r="I8" s="62"/>
     </row>
-    <row r="9" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="49"/>
       <c r="B9" s="50"/>
       <c r="C9" s="51"/>
@@ -3484,7 +3484,7 @@
       <c r="H9" s="55"/>
       <c r="I9" s="62"/>
     </row>
-    <row r="10" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="49"/>
       <c r="B10" s="50"/>
       <c r="C10" s="51"/>
@@ -3495,7 +3495,7 @@
       <c r="H10" s="55"/>
       <c r="I10" s="62"/>
     </row>
-    <row r="11" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="49"/>
       <c r="B11" s="50"/>
       <c r="C11" s="51"/>
@@ -3506,7 +3506,7 @@
       <c r="H11" s="55"/>
       <c r="I11" s="62"/>
     </row>
-    <row r="12" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="49"/>
       <c r="B12" s="50"/>
       <c r="C12" s="51"/>
@@ -3517,7 +3517,7 @@
       <c r="H12" s="55"/>
       <c r="I12" s="62"/>
     </row>
-    <row r="13" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="49"/>
       <c r="B13" s="50"/>
       <c r="C13" s="51"/>
@@ -3528,7 +3528,7 @@
       <c r="H13" s="55"/>
       <c r="I13" s="62"/>
     </row>
-    <row r="14" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="49"/>
       <c r="B14" s="50"/>
       <c r="C14" s="51"/>
@@ -3539,7 +3539,7 @@
       <c r="H14" s="55"/>
       <c r="I14" s="62"/>
     </row>
-    <row r="15" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="49"/>
       <c r="B15" s="50"/>
       <c r="C15" s="51"/>
@@ -3550,7 +3550,7 @@
       <c r="H15" s="55"/>
       <c r="I15" s="62"/>
     </row>
-    <row r="16" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="49"/>
       <c r="B16" s="50"/>
       <c r="C16" s="51"/>
@@ -3561,7 +3561,7 @@
       <c r="H16" s="55"/>
       <c r="I16" s="62"/>
     </row>
-    <row r="17" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="49"/>
       <c r="B17" s="50"/>
       <c r="C17" s="51"/>
@@ -3572,7 +3572,7 @@
       <c r="H17" s="55"/>
       <c r="I17" s="62"/>
     </row>
-    <row r="18" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="49"/>
       <c r="B18" s="50"/>
       <c r="C18" s="51"/>
@@ -3583,7 +3583,7 @@
       <c r="H18" s="55"/>
       <c r="I18" s="62"/>
     </row>
-    <row r="19" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="49"/>
       <c r="B19" s="50"/>
       <c r="C19" s="51"/>
@@ -3594,7 +3594,7 @@
       <c r="H19" s="55"/>
       <c r="I19" s="62"/>
     </row>
-    <row r="20" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="49"/>
       <c r="B20" s="50"/>
       <c r="C20" s="51"/>
@@ -3605,7 +3605,7 @@
       <c r="H20" s="55"/>
       <c r="I20" s="62"/>
     </row>
-    <row r="21" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="49"/>
       <c r="B21" s="50"/>
       <c r="C21" s="51"/>
@@ -3616,7 +3616,7 @@
       <c r="H21" s="55"/>
       <c r="I21" s="62"/>
     </row>
-    <row r="22" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="49"/>
       <c r="B22" s="50"/>
       <c r="C22" s="51"/>
@@ -3627,7 +3627,7 @@
       <c r="H22" s="55"/>
       <c r="I22" s="62"/>
     </row>
-    <row r="23" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="49"/>
       <c r="B23" s="50"/>
       <c r="C23" s="51"/>
@@ -3638,7 +3638,7 @@
       <c r="H23" s="55"/>
       <c r="I23" s="62"/>
     </row>
-    <row r="24" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="49"/>
       <c r="B24" s="50"/>
       <c r="C24" s="51"/>
@@ -3649,7 +3649,7 @@
       <c r="H24" s="55"/>
       <c r="I24" s="62"/>
     </row>
-    <row r="25" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="49"/>
       <c r="B25" s="50"/>
       <c r="C25" s="51"/>
@@ -3660,7 +3660,7 @@
       <c r="H25" s="55"/>
       <c r="I25" s="62"/>
     </row>
-    <row r="26" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="49"/>
       <c r="B26" s="50"/>
       <c r="C26" s="51"/>
@@ -3671,7 +3671,7 @@
       <c r="H26" s="55"/>
       <c r="I26" s="62"/>
     </row>
-    <row r="27" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="49"/>
       <c r="B27" s="50"/>
       <c r="C27" s="51"/>
@@ -3682,7 +3682,7 @@
       <c r="H27" s="55"/>
       <c r="I27" s="62"/>
     </row>
-    <row r="28" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="56"/>
       <c r="B28" s="57"/>
       <c r="C28" s="58"/>
@@ -3710,12 +3710,11 @@
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.98425196850393704" header="0.39370078740157499" footer="0.59055118110236204"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C
-陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                      复核：</oddFooter>
+  <pageMargins left="0.86614173228346403" right="0.59055118110236204" top="0.78740157480314998" bottom="0.82677165354330695" header="0.35433070866141703" footer="0.59055118110236204"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R
+第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -3724,725 +3723,725 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="22875" topLeftCell="X1"/>
-      <selection activeCell="C3" sqref="C3:H3"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="24630" topLeftCell="X1"/>
+      <selection activeCell="L7" sqref="L7:N8"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="5.46484375" style="13" customWidth="1"/>
-    <col min="3" max="5" width="6.1328125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="6.53125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="5.46484375" style="13" customWidth="1"/>
-    <col min="8" max="8" width="9.265625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="5.46484375" style="13" customWidth="1"/>
-    <col min="10" max="13" width="5.73046875" style="13" customWidth="1"/>
-    <col min="14" max="14" width="5.46484375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="13" customWidth="1"/>
+    <col min="3" max="5" width="6.125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="6.5" style="13" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="13" customWidth="1"/>
+    <col min="8" max="8" width="9.25" style="13" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="13" customWidth="1"/>
+    <col min="10" max="13" width="5.75" style="13" customWidth="1"/>
+    <col min="14" max="14" width="5.5" style="13" customWidth="1"/>
     <col min="15" max="15" width="9" style="14"/>
-    <col min="16" max="16" width="12.46484375" style="14" customWidth="1"/>
-    <col min="17" max="17" width="11.46484375" style="15" customWidth="1"/>
+    <col min="16" max="16" width="12.5" style="14" customWidth="1"/>
+    <col min="17" max="17" width="11.5" style="15" customWidth="1"/>
     <col min="18" max="18" width="9" style="14"/>
     <col min="19" max="22" width="9" style="16"/>
     <col min="23" max="256" width="9" style="14"/>
-    <col min="257" max="257" width="9.1328125" style="14" customWidth="1"/>
-    <col min="258" max="258" width="5.46484375" style="14" customWidth="1"/>
-    <col min="259" max="262" width="6.265625" style="14" customWidth="1"/>
-    <col min="263" max="263" width="5.46484375" style="14" customWidth="1"/>
-    <col min="264" max="264" width="9.265625" style="14" customWidth="1"/>
-    <col min="265" max="265" width="5.46484375" style="14" customWidth="1"/>
-    <col min="266" max="269" width="6.265625" style="14" customWidth="1"/>
-    <col min="270" max="270" width="5.46484375" style="14" customWidth="1"/>
+    <col min="257" max="257" width="9.125" style="14" customWidth="1"/>
+    <col min="258" max="258" width="5.5" style="14" customWidth="1"/>
+    <col min="259" max="262" width="6.25" style="14" customWidth="1"/>
+    <col min="263" max="263" width="5.5" style="14" customWidth="1"/>
+    <col min="264" max="264" width="9.25" style="14" customWidth="1"/>
+    <col min="265" max="265" width="5.5" style="14" customWidth="1"/>
+    <col min="266" max="269" width="6.25" style="14" customWidth="1"/>
+    <col min="270" max="270" width="5.5" style="14" customWidth="1"/>
     <col min="271" max="271" width="9" style="14"/>
-    <col min="272" max="272" width="13.86328125" style="14" customWidth="1"/>
+    <col min="272" max="272" width="13.875" style="14" customWidth="1"/>
     <col min="273" max="512" width="9" style="14"/>
-    <col min="513" max="513" width="9.1328125" style="14" customWidth="1"/>
-    <col min="514" max="514" width="5.46484375" style="14" customWidth="1"/>
-    <col min="515" max="518" width="6.265625" style="14" customWidth="1"/>
-    <col min="519" max="519" width="5.46484375" style="14" customWidth="1"/>
-    <col min="520" max="520" width="9.265625" style="14" customWidth="1"/>
-    <col min="521" max="521" width="5.46484375" style="14" customWidth="1"/>
-    <col min="522" max="525" width="6.265625" style="14" customWidth="1"/>
-    <col min="526" max="526" width="5.46484375" style="14" customWidth="1"/>
+    <col min="513" max="513" width="9.125" style="14" customWidth="1"/>
+    <col min="514" max="514" width="5.5" style="14" customWidth="1"/>
+    <col min="515" max="518" width="6.25" style="14" customWidth="1"/>
+    <col min="519" max="519" width="5.5" style="14" customWidth="1"/>
+    <col min="520" max="520" width="9.25" style="14" customWidth="1"/>
+    <col min="521" max="521" width="5.5" style="14" customWidth="1"/>
+    <col min="522" max="525" width="6.25" style="14" customWidth="1"/>
+    <col min="526" max="526" width="5.5" style="14" customWidth="1"/>
     <col min="527" max="527" width="9" style="14"/>
-    <col min="528" max="528" width="13.86328125" style="14" customWidth="1"/>
+    <col min="528" max="528" width="13.875" style="14" customWidth="1"/>
     <col min="529" max="768" width="9" style="14"/>
-    <col min="769" max="769" width="9.1328125" style="14" customWidth="1"/>
-    <col min="770" max="770" width="5.46484375" style="14" customWidth="1"/>
-    <col min="771" max="774" width="6.265625" style="14" customWidth="1"/>
-    <col min="775" max="775" width="5.46484375" style="14" customWidth="1"/>
-    <col min="776" max="776" width="9.265625" style="14" customWidth="1"/>
-    <col min="777" max="777" width="5.46484375" style="14" customWidth="1"/>
-    <col min="778" max="781" width="6.265625" style="14" customWidth="1"/>
-    <col min="782" max="782" width="5.46484375" style="14" customWidth="1"/>
+    <col min="769" max="769" width="9.125" style="14" customWidth="1"/>
+    <col min="770" max="770" width="5.5" style="14" customWidth="1"/>
+    <col min="771" max="774" width="6.25" style="14" customWidth="1"/>
+    <col min="775" max="775" width="5.5" style="14" customWidth="1"/>
+    <col min="776" max="776" width="9.25" style="14" customWidth="1"/>
+    <col min="777" max="777" width="5.5" style="14" customWidth="1"/>
+    <col min="778" max="781" width="6.25" style="14" customWidth="1"/>
+    <col min="782" max="782" width="5.5" style="14" customWidth="1"/>
     <col min="783" max="783" width="9" style="14"/>
-    <col min="784" max="784" width="13.86328125" style="14" customWidth="1"/>
+    <col min="784" max="784" width="13.875" style="14" customWidth="1"/>
     <col min="785" max="1024" width="9" style="14"/>
-    <col min="1025" max="1025" width="9.1328125" style="14" customWidth="1"/>
-    <col min="1026" max="1026" width="5.46484375" style="14" customWidth="1"/>
-    <col min="1027" max="1030" width="6.265625" style="14" customWidth="1"/>
-    <col min="1031" max="1031" width="5.46484375" style="14" customWidth="1"/>
-    <col min="1032" max="1032" width="9.265625" style="14" customWidth="1"/>
-    <col min="1033" max="1033" width="5.46484375" style="14" customWidth="1"/>
-    <col min="1034" max="1037" width="6.265625" style="14" customWidth="1"/>
-    <col min="1038" max="1038" width="5.46484375" style="14" customWidth="1"/>
+    <col min="1025" max="1025" width="9.125" style="14" customWidth="1"/>
+    <col min="1026" max="1026" width="5.5" style="14" customWidth="1"/>
+    <col min="1027" max="1030" width="6.25" style="14" customWidth="1"/>
+    <col min="1031" max="1031" width="5.5" style="14" customWidth="1"/>
+    <col min="1032" max="1032" width="9.25" style="14" customWidth="1"/>
+    <col min="1033" max="1033" width="5.5" style="14" customWidth="1"/>
+    <col min="1034" max="1037" width="6.25" style="14" customWidth="1"/>
+    <col min="1038" max="1038" width="5.5" style="14" customWidth="1"/>
     <col min="1039" max="1039" width="9" style="14"/>
-    <col min="1040" max="1040" width="13.86328125" style="14" customWidth="1"/>
+    <col min="1040" max="1040" width="13.875" style="14" customWidth="1"/>
     <col min="1041" max="1280" width="9" style="14"/>
-    <col min="1281" max="1281" width="9.1328125" style="14" customWidth="1"/>
-    <col min="1282" max="1282" width="5.46484375" style="14" customWidth="1"/>
-    <col min="1283" max="1286" width="6.265625" style="14" customWidth="1"/>
-    <col min="1287" max="1287" width="5.46484375" style="14" customWidth="1"/>
-    <col min="1288" max="1288" width="9.265625" style="14" customWidth="1"/>
-    <col min="1289" max="1289" width="5.46484375" style="14" customWidth="1"/>
-    <col min="1290" max="1293" width="6.265625" style="14" customWidth="1"/>
-    <col min="1294" max="1294" width="5.46484375" style="14" customWidth="1"/>
+    <col min="1281" max="1281" width="9.125" style="14" customWidth="1"/>
+    <col min="1282" max="1282" width="5.5" style="14" customWidth="1"/>
+    <col min="1283" max="1286" width="6.25" style="14" customWidth="1"/>
+    <col min="1287" max="1287" width="5.5" style="14" customWidth="1"/>
+    <col min="1288" max="1288" width="9.25" style="14" customWidth="1"/>
+    <col min="1289" max="1289" width="5.5" style="14" customWidth="1"/>
+    <col min="1290" max="1293" width="6.25" style="14" customWidth="1"/>
+    <col min="1294" max="1294" width="5.5" style="14" customWidth="1"/>
     <col min="1295" max="1295" width="9" style="14"/>
-    <col min="1296" max="1296" width="13.86328125" style="14" customWidth="1"/>
+    <col min="1296" max="1296" width="13.875" style="14" customWidth="1"/>
     <col min="1297" max="1536" width="9" style="14"/>
-    <col min="1537" max="1537" width="9.1328125" style="14" customWidth="1"/>
-    <col min="1538" max="1538" width="5.46484375" style="14" customWidth="1"/>
-    <col min="1539" max="1542" width="6.265625" style="14" customWidth="1"/>
-    <col min="1543" max="1543" width="5.46484375" style="14" customWidth="1"/>
-    <col min="1544" max="1544" width="9.265625" style="14" customWidth="1"/>
-    <col min="1545" max="1545" width="5.46484375" style="14" customWidth="1"/>
-    <col min="1546" max="1549" width="6.265625" style="14" customWidth="1"/>
-    <col min="1550" max="1550" width="5.46484375" style="14" customWidth="1"/>
+    <col min="1537" max="1537" width="9.125" style="14" customWidth="1"/>
+    <col min="1538" max="1538" width="5.5" style="14" customWidth="1"/>
+    <col min="1539" max="1542" width="6.25" style="14" customWidth="1"/>
+    <col min="1543" max="1543" width="5.5" style="14" customWidth="1"/>
+    <col min="1544" max="1544" width="9.25" style="14" customWidth="1"/>
+    <col min="1545" max="1545" width="5.5" style="14" customWidth="1"/>
+    <col min="1546" max="1549" width="6.25" style="14" customWidth="1"/>
+    <col min="1550" max="1550" width="5.5" style="14" customWidth="1"/>
     <col min="1551" max="1551" width="9" style="14"/>
-    <col min="1552" max="1552" width="13.86328125" style="14" customWidth="1"/>
+    <col min="1552" max="1552" width="13.875" style="14" customWidth="1"/>
     <col min="1553" max="1792" width="9" style="14"/>
-    <col min="1793" max="1793" width="9.1328125" style="14" customWidth="1"/>
-    <col min="1794" max="1794" width="5.46484375" style="14" customWidth="1"/>
-    <col min="1795" max="1798" width="6.265625" style="14" customWidth="1"/>
-    <col min="1799" max="1799" width="5.46484375" style="14" customWidth="1"/>
-    <col min="1800" max="1800" width="9.265625" style="14" customWidth="1"/>
-    <col min="1801" max="1801" width="5.46484375" style="14" customWidth="1"/>
-    <col min="1802" max="1805" width="6.265625" style="14" customWidth="1"/>
-    <col min="1806" max="1806" width="5.46484375" style="14" customWidth="1"/>
+    <col min="1793" max="1793" width="9.125" style="14" customWidth="1"/>
+    <col min="1794" max="1794" width="5.5" style="14" customWidth="1"/>
+    <col min="1795" max="1798" width="6.25" style="14" customWidth="1"/>
+    <col min="1799" max="1799" width="5.5" style="14" customWidth="1"/>
+    <col min="1800" max="1800" width="9.25" style="14" customWidth="1"/>
+    <col min="1801" max="1801" width="5.5" style="14" customWidth="1"/>
+    <col min="1802" max="1805" width="6.25" style="14" customWidth="1"/>
+    <col min="1806" max="1806" width="5.5" style="14" customWidth="1"/>
     <col min="1807" max="1807" width="9" style="14"/>
-    <col min="1808" max="1808" width="13.86328125" style="14" customWidth="1"/>
+    <col min="1808" max="1808" width="13.875" style="14" customWidth="1"/>
     <col min="1809" max="2048" width="9" style="14"/>
-    <col min="2049" max="2049" width="9.1328125" style="14" customWidth="1"/>
-    <col min="2050" max="2050" width="5.46484375" style="14" customWidth="1"/>
-    <col min="2051" max="2054" width="6.265625" style="14" customWidth="1"/>
-    <col min="2055" max="2055" width="5.46484375" style="14" customWidth="1"/>
-    <col min="2056" max="2056" width="9.265625" style="14" customWidth="1"/>
-    <col min="2057" max="2057" width="5.46484375" style="14" customWidth="1"/>
-    <col min="2058" max="2061" width="6.265625" style="14" customWidth="1"/>
-    <col min="2062" max="2062" width="5.46484375" style="14" customWidth="1"/>
+    <col min="2049" max="2049" width="9.125" style="14" customWidth="1"/>
+    <col min="2050" max="2050" width="5.5" style="14" customWidth="1"/>
+    <col min="2051" max="2054" width="6.25" style="14" customWidth="1"/>
+    <col min="2055" max="2055" width="5.5" style="14" customWidth="1"/>
+    <col min="2056" max="2056" width="9.25" style="14" customWidth="1"/>
+    <col min="2057" max="2057" width="5.5" style="14" customWidth="1"/>
+    <col min="2058" max="2061" width="6.25" style="14" customWidth="1"/>
+    <col min="2062" max="2062" width="5.5" style="14" customWidth="1"/>
     <col min="2063" max="2063" width="9" style="14"/>
-    <col min="2064" max="2064" width="13.86328125" style="14" customWidth="1"/>
+    <col min="2064" max="2064" width="13.875" style="14" customWidth="1"/>
     <col min="2065" max="2304" width="9" style="14"/>
-    <col min="2305" max="2305" width="9.1328125" style="14" customWidth="1"/>
-    <col min="2306" max="2306" width="5.46484375" style="14" customWidth="1"/>
-    <col min="2307" max="2310" width="6.265625" style="14" customWidth="1"/>
-    <col min="2311" max="2311" width="5.46484375" style="14" customWidth="1"/>
-    <col min="2312" max="2312" width="9.265625" style="14" customWidth="1"/>
-    <col min="2313" max="2313" width="5.46484375" style="14" customWidth="1"/>
-    <col min="2314" max="2317" width="6.265625" style="14" customWidth="1"/>
-    <col min="2318" max="2318" width="5.46484375" style="14" customWidth="1"/>
+    <col min="2305" max="2305" width="9.125" style="14" customWidth="1"/>
+    <col min="2306" max="2306" width="5.5" style="14" customWidth="1"/>
+    <col min="2307" max="2310" width="6.25" style="14" customWidth="1"/>
+    <col min="2311" max="2311" width="5.5" style="14" customWidth="1"/>
+    <col min="2312" max="2312" width="9.25" style="14" customWidth="1"/>
+    <col min="2313" max="2313" width="5.5" style="14" customWidth="1"/>
+    <col min="2314" max="2317" width="6.25" style="14" customWidth="1"/>
+    <col min="2318" max="2318" width="5.5" style="14" customWidth="1"/>
     <col min="2319" max="2319" width="9" style="14"/>
-    <col min="2320" max="2320" width="13.86328125" style="14" customWidth="1"/>
+    <col min="2320" max="2320" width="13.875" style="14" customWidth="1"/>
     <col min="2321" max="2560" width="9" style="14"/>
-    <col min="2561" max="2561" width="9.1328125" style="14" customWidth="1"/>
-    <col min="2562" max="2562" width="5.46484375" style="14" customWidth="1"/>
-    <col min="2563" max="2566" width="6.265625" style="14" customWidth="1"/>
-    <col min="2567" max="2567" width="5.46484375" style="14" customWidth="1"/>
-    <col min="2568" max="2568" width="9.265625" style="14" customWidth="1"/>
-    <col min="2569" max="2569" width="5.46484375" style="14" customWidth="1"/>
-    <col min="2570" max="2573" width="6.265625" style="14" customWidth="1"/>
-    <col min="2574" max="2574" width="5.46484375" style="14" customWidth="1"/>
+    <col min="2561" max="2561" width="9.125" style="14" customWidth="1"/>
+    <col min="2562" max="2562" width="5.5" style="14" customWidth="1"/>
+    <col min="2563" max="2566" width="6.25" style="14" customWidth="1"/>
+    <col min="2567" max="2567" width="5.5" style="14" customWidth="1"/>
+    <col min="2568" max="2568" width="9.25" style="14" customWidth="1"/>
+    <col min="2569" max="2569" width="5.5" style="14" customWidth="1"/>
+    <col min="2570" max="2573" width="6.25" style="14" customWidth="1"/>
+    <col min="2574" max="2574" width="5.5" style="14" customWidth="1"/>
     <col min="2575" max="2575" width="9" style="14"/>
-    <col min="2576" max="2576" width="13.86328125" style="14" customWidth="1"/>
+    <col min="2576" max="2576" width="13.875" style="14" customWidth="1"/>
     <col min="2577" max="2816" width="9" style="14"/>
-    <col min="2817" max="2817" width="9.1328125" style="14" customWidth="1"/>
-    <col min="2818" max="2818" width="5.46484375" style="14" customWidth="1"/>
-    <col min="2819" max="2822" width="6.265625" style="14" customWidth="1"/>
-    <col min="2823" max="2823" width="5.46484375" style="14" customWidth="1"/>
-    <col min="2824" max="2824" width="9.265625" style="14" customWidth="1"/>
-    <col min="2825" max="2825" width="5.46484375" style="14" customWidth="1"/>
-    <col min="2826" max="2829" width="6.265625" style="14" customWidth="1"/>
-    <col min="2830" max="2830" width="5.46484375" style="14" customWidth="1"/>
+    <col min="2817" max="2817" width="9.125" style="14" customWidth="1"/>
+    <col min="2818" max="2818" width="5.5" style="14" customWidth="1"/>
+    <col min="2819" max="2822" width="6.25" style="14" customWidth="1"/>
+    <col min="2823" max="2823" width="5.5" style="14" customWidth="1"/>
+    <col min="2824" max="2824" width="9.25" style="14" customWidth="1"/>
+    <col min="2825" max="2825" width="5.5" style="14" customWidth="1"/>
+    <col min="2826" max="2829" width="6.25" style="14" customWidth="1"/>
+    <col min="2830" max="2830" width="5.5" style="14" customWidth="1"/>
     <col min="2831" max="2831" width="9" style="14"/>
-    <col min="2832" max="2832" width="13.86328125" style="14" customWidth="1"/>
+    <col min="2832" max="2832" width="13.875" style="14" customWidth="1"/>
     <col min="2833" max="3072" width="9" style="14"/>
-    <col min="3073" max="3073" width="9.1328125" style="14" customWidth="1"/>
-    <col min="3074" max="3074" width="5.46484375" style="14" customWidth="1"/>
-    <col min="3075" max="3078" width="6.265625" style="14" customWidth="1"/>
-    <col min="3079" max="3079" width="5.46484375" style="14" customWidth="1"/>
-    <col min="3080" max="3080" width="9.265625" style="14" customWidth="1"/>
-    <col min="3081" max="3081" width="5.46484375" style="14" customWidth="1"/>
-    <col min="3082" max="3085" width="6.265625" style="14" customWidth="1"/>
-    <col min="3086" max="3086" width="5.46484375" style="14" customWidth="1"/>
+    <col min="3073" max="3073" width="9.125" style="14" customWidth="1"/>
+    <col min="3074" max="3074" width="5.5" style="14" customWidth="1"/>
+    <col min="3075" max="3078" width="6.25" style="14" customWidth="1"/>
+    <col min="3079" max="3079" width="5.5" style="14" customWidth="1"/>
+    <col min="3080" max="3080" width="9.25" style="14" customWidth="1"/>
+    <col min="3081" max="3081" width="5.5" style="14" customWidth="1"/>
+    <col min="3082" max="3085" width="6.25" style="14" customWidth="1"/>
+    <col min="3086" max="3086" width="5.5" style="14" customWidth="1"/>
     <col min="3087" max="3087" width="9" style="14"/>
-    <col min="3088" max="3088" width="13.86328125" style="14" customWidth="1"/>
+    <col min="3088" max="3088" width="13.875" style="14" customWidth="1"/>
     <col min="3089" max="3328" width="9" style="14"/>
-    <col min="3329" max="3329" width="9.1328125" style="14" customWidth="1"/>
-    <col min="3330" max="3330" width="5.46484375" style="14" customWidth="1"/>
-    <col min="3331" max="3334" width="6.265625" style="14" customWidth="1"/>
-    <col min="3335" max="3335" width="5.46484375" style="14" customWidth="1"/>
-    <col min="3336" max="3336" width="9.265625" style="14" customWidth="1"/>
-    <col min="3337" max="3337" width="5.46484375" style="14" customWidth="1"/>
-    <col min="3338" max="3341" width="6.265625" style="14" customWidth="1"/>
-    <col min="3342" max="3342" width="5.46484375" style="14" customWidth="1"/>
+    <col min="3329" max="3329" width="9.125" style="14" customWidth="1"/>
+    <col min="3330" max="3330" width="5.5" style="14" customWidth="1"/>
+    <col min="3331" max="3334" width="6.25" style="14" customWidth="1"/>
+    <col min="3335" max="3335" width="5.5" style="14" customWidth="1"/>
+    <col min="3336" max="3336" width="9.25" style="14" customWidth="1"/>
+    <col min="3337" max="3337" width="5.5" style="14" customWidth="1"/>
+    <col min="3338" max="3341" width="6.25" style="14" customWidth="1"/>
+    <col min="3342" max="3342" width="5.5" style="14" customWidth="1"/>
     <col min="3343" max="3343" width="9" style="14"/>
-    <col min="3344" max="3344" width="13.86328125" style="14" customWidth="1"/>
+    <col min="3344" max="3344" width="13.875" style="14" customWidth="1"/>
     <col min="3345" max="3584" width="9" style="14"/>
-    <col min="3585" max="3585" width="9.1328125" style="14" customWidth="1"/>
-    <col min="3586" max="3586" width="5.46484375" style="14" customWidth="1"/>
-    <col min="3587" max="3590" width="6.265625" style="14" customWidth="1"/>
-    <col min="3591" max="3591" width="5.46484375" style="14" customWidth="1"/>
-    <col min="3592" max="3592" width="9.265625" style="14" customWidth="1"/>
-    <col min="3593" max="3593" width="5.46484375" style="14" customWidth="1"/>
-    <col min="3594" max="3597" width="6.265625" style="14" customWidth="1"/>
-    <col min="3598" max="3598" width="5.46484375" style="14" customWidth="1"/>
+    <col min="3585" max="3585" width="9.125" style="14" customWidth="1"/>
+    <col min="3586" max="3586" width="5.5" style="14" customWidth="1"/>
+    <col min="3587" max="3590" width="6.25" style="14" customWidth="1"/>
+    <col min="3591" max="3591" width="5.5" style="14" customWidth="1"/>
+    <col min="3592" max="3592" width="9.25" style="14" customWidth="1"/>
+    <col min="3593" max="3593" width="5.5" style="14" customWidth="1"/>
+    <col min="3594" max="3597" width="6.25" style="14" customWidth="1"/>
+    <col min="3598" max="3598" width="5.5" style="14" customWidth="1"/>
     <col min="3599" max="3599" width="9" style="14"/>
-    <col min="3600" max="3600" width="13.86328125" style="14" customWidth="1"/>
+    <col min="3600" max="3600" width="13.875" style="14" customWidth="1"/>
     <col min="3601" max="3840" width="9" style="14"/>
-    <col min="3841" max="3841" width="9.1328125" style="14" customWidth="1"/>
-    <col min="3842" max="3842" width="5.46484375" style="14" customWidth="1"/>
-    <col min="3843" max="3846" width="6.265625" style="14" customWidth="1"/>
-    <col min="3847" max="3847" width="5.46484375" style="14" customWidth="1"/>
-    <col min="3848" max="3848" width="9.265625" style="14" customWidth="1"/>
-    <col min="3849" max="3849" width="5.46484375" style="14" customWidth="1"/>
-    <col min="3850" max="3853" width="6.265625" style="14" customWidth="1"/>
-    <col min="3854" max="3854" width="5.46484375" style="14" customWidth="1"/>
+    <col min="3841" max="3841" width="9.125" style="14" customWidth="1"/>
+    <col min="3842" max="3842" width="5.5" style="14" customWidth="1"/>
+    <col min="3843" max="3846" width="6.25" style="14" customWidth="1"/>
+    <col min="3847" max="3847" width="5.5" style="14" customWidth="1"/>
+    <col min="3848" max="3848" width="9.25" style="14" customWidth="1"/>
+    <col min="3849" max="3849" width="5.5" style="14" customWidth="1"/>
+    <col min="3850" max="3853" width="6.25" style="14" customWidth="1"/>
+    <col min="3854" max="3854" width="5.5" style="14" customWidth="1"/>
     <col min="3855" max="3855" width="9" style="14"/>
-    <col min="3856" max="3856" width="13.86328125" style="14" customWidth="1"/>
+    <col min="3856" max="3856" width="13.875" style="14" customWidth="1"/>
     <col min="3857" max="4096" width="9" style="14"/>
-    <col min="4097" max="4097" width="9.1328125" style="14" customWidth="1"/>
-    <col min="4098" max="4098" width="5.46484375" style="14" customWidth="1"/>
-    <col min="4099" max="4102" width="6.265625" style="14" customWidth="1"/>
-    <col min="4103" max="4103" width="5.46484375" style="14" customWidth="1"/>
-    <col min="4104" max="4104" width="9.265625" style="14" customWidth="1"/>
-    <col min="4105" max="4105" width="5.46484375" style="14" customWidth="1"/>
-    <col min="4106" max="4109" width="6.265625" style="14" customWidth="1"/>
-    <col min="4110" max="4110" width="5.46484375" style="14" customWidth="1"/>
+    <col min="4097" max="4097" width="9.125" style="14" customWidth="1"/>
+    <col min="4098" max="4098" width="5.5" style="14" customWidth="1"/>
+    <col min="4099" max="4102" width="6.25" style="14" customWidth="1"/>
+    <col min="4103" max="4103" width="5.5" style="14" customWidth="1"/>
+    <col min="4104" max="4104" width="9.25" style="14" customWidth="1"/>
+    <col min="4105" max="4105" width="5.5" style="14" customWidth="1"/>
+    <col min="4106" max="4109" width="6.25" style="14" customWidth="1"/>
+    <col min="4110" max="4110" width="5.5" style="14" customWidth="1"/>
     <col min="4111" max="4111" width="9" style="14"/>
-    <col min="4112" max="4112" width="13.86328125" style="14" customWidth="1"/>
+    <col min="4112" max="4112" width="13.875" style="14" customWidth="1"/>
     <col min="4113" max="4352" width="9" style="14"/>
-    <col min="4353" max="4353" width="9.1328125" style="14" customWidth="1"/>
-    <col min="4354" max="4354" width="5.46484375" style="14" customWidth="1"/>
-    <col min="4355" max="4358" width="6.265625" style="14" customWidth="1"/>
-    <col min="4359" max="4359" width="5.46484375" style="14" customWidth="1"/>
-    <col min="4360" max="4360" width="9.265625" style="14" customWidth="1"/>
-    <col min="4361" max="4361" width="5.46484375" style="14" customWidth="1"/>
-    <col min="4362" max="4365" width="6.265625" style="14" customWidth="1"/>
-    <col min="4366" max="4366" width="5.46484375" style="14" customWidth="1"/>
+    <col min="4353" max="4353" width="9.125" style="14" customWidth="1"/>
+    <col min="4354" max="4354" width="5.5" style="14" customWidth="1"/>
+    <col min="4355" max="4358" width="6.25" style="14" customWidth="1"/>
+    <col min="4359" max="4359" width="5.5" style="14" customWidth="1"/>
+    <col min="4360" max="4360" width="9.25" style="14" customWidth="1"/>
+    <col min="4361" max="4361" width="5.5" style="14" customWidth="1"/>
+    <col min="4362" max="4365" width="6.25" style="14" customWidth="1"/>
+    <col min="4366" max="4366" width="5.5" style="14" customWidth="1"/>
     <col min="4367" max="4367" width="9" style="14"/>
-    <col min="4368" max="4368" width="13.86328125" style="14" customWidth="1"/>
+    <col min="4368" max="4368" width="13.875" style="14" customWidth="1"/>
     <col min="4369" max="4608" width="9" style="14"/>
-    <col min="4609" max="4609" width="9.1328125" style="14" customWidth="1"/>
-    <col min="4610" max="4610" width="5.46484375" style="14" customWidth="1"/>
-    <col min="4611" max="4614" width="6.265625" style="14" customWidth="1"/>
-    <col min="4615" max="4615" width="5.46484375" style="14" customWidth="1"/>
-    <col min="4616" max="4616" width="9.265625" style="14" customWidth="1"/>
-    <col min="4617" max="4617" width="5.46484375" style="14" customWidth="1"/>
-    <col min="4618" max="4621" width="6.265625" style="14" customWidth="1"/>
-    <col min="4622" max="4622" width="5.46484375" style="14" customWidth="1"/>
+    <col min="4609" max="4609" width="9.125" style="14" customWidth="1"/>
+    <col min="4610" max="4610" width="5.5" style="14" customWidth="1"/>
+    <col min="4611" max="4614" width="6.25" style="14" customWidth="1"/>
+    <col min="4615" max="4615" width="5.5" style="14" customWidth="1"/>
+    <col min="4616" max="4616" width="9.25" style="14" customWidth="1"/>
+    <col min="4617" max="4617" width="5.5" style="14" customWidth="1"/>
+    <col min="4618" max="4621" width="6.25" style="14" customWidth="1"/>
+    <col min="4622" max="4622" width="5.5" style="14" customWidth="1"/>
     <col min="4623" max="4623" width="9" style="14"/>
-    <col min="4624" max="4624" width="13.86328125" style="14" customWidth="1"/>
+    <col min="4624" max="4624" width="13.875" style="14" customWidth="1"/>
     <col min="4625" max="4864" width="9" style="14"/>
-    <col min="4865" max="4865" width="9.1328125" style="14" customWidth="1"/>
-    <col min="4866" max="4866" width="5.46484375" style="14" customWidth="1"/>
-    <col min="4867" max="4870" width="6.265625" style="14" customWidth="1"/>
-    <col min="4871" max="4871" width="5.46484375" style="14" customWidth="1"/>
-    <col min="4872" max="4872" width="9.265625" style="14" customWidth="1"/>
-    <col min="4873" max="4873" width="5.46484375" style="14" customWidth="1"/>
-    <col min="4874" max="4877" width="6.265625" style="14" customWidth="1"/>
-    <col min="4878" max="4878" width="5.46484375" style="14" customWidth="1"/>
+    <col min="4865" max="4865" width="9.125" style="14" customWidth="1"/>
+    <col min="4866" max="4866" width="5.5" style="14" customWidth="1"/>
+    <col min="4867" max="4870" width="6.25" style="14" customWidth="1"/>
+    <col min="4871" max="4871" width="5.5" style="14" customWidth="1"/>
+    <col min="4872" max="4872" width="9.25" style="14" customWidth="1"/>
+    <col min="4873" max="4873" width="5.5" style="14" customWidth="1"/>
+    <col min="4874" max="4877" width="6.25" style="14" customWidth="1"/>
+    <col min="4878" max="4878" width="5.5" style="14" customWidth="1"/>
     <col min="4879" max="4879" width="9" style="14"/>
-    <col min="4880" max="4880" width="13.86328125" style="14" customWidth="1"/>
+    <col min="4880" max="4880" width="13.875" style="14" customWidth="1"/>
     <col min="4881" max="5120" width="9" style="14"/>
-    <col min="5121" max="5121" width="9.1328125" style="14" customWidth="1"/>
-    <col min="5122" max="5122" width="5.46484375" style="14" customWidth="1"/>
-    <col min="5123" max="5126" width="6.265625" style="14" customWidth="1"/>
-    <col min="5127" max="5127" width="5.46484375" style="14" customWidth="1"/>
-    <col min="5128" max="5128" width="9.265625" style="14" customWidth="1"/>
-    <col min="5129" max="5129" width="5.46484375" style="14" customWidth="1"/>
-    <col min="5130" max="5133" width="6.265625" style="14" customWidth="1"/>
-    <col min="5134" max="5134" width="5.46484375" style="14" customWidth="1"/>
+    <col min="5121" max="5121" width="9.125" style="14" customWidth="1"/>
+    <col min="5122" max="5122" width="5.5" style="14" customWidth="1"/>
+    <col min="5123" max="5126" width="6.25" style="14" customWidth="1"/>
+    <col min="5127" max="5127" width="5.5" style="14" customWidth="1"/>
+    <col min="5128" max="5128" width="9.25" style="14" customWidth="1"/>
+    <col min="5129" max="5129" width="5.5" style="14" customWidth="1"/>
+    <col min="5130" max="5133" width="6.25" style="14" customWidth="1"/>
+    <col min="5134" max="5134" width="5.5" style="14" customWidth="1"/>
     <col min="5135" max="5135" width="9" style="14"/>
-    <col min="5136" max="5136" width="13.86328125" style="14" customWidth="1"/>
+    <col min="5136" max="5136" width="13.875" style="14" customWidth="1"/>
     <col min="5137" max="5376" width="9" style="14"/>
-    <col min="5377" max="5377" width="9.1328125" style="14" customWidth="1"/>
-    <col min="5378" max="5378" width="5.46484375" style="14" customWidth="1"/>
-    <col min="5379" max="5382" width="6.265625" style="14" customWidth="1"/>
-    <col min="5383" max="5383" width="5.46484375" style="14" customWidth="1"/>
-    <col min="5384" max="5384" width="9.265625" style="14" customWidth="1"/>
-    <col min="5385" max="5385" width="5.46484375" style="14" customWidth="1"/>
-    <col min="5386" max="5389" width="6.265625" style="14" customWidth="1"/>
-    <col min="5390" max="5390" width="5.46484375" style="14" customWidth="1"/>
+    <col min="5377" max="5377" width="9.125" style="14" customWidth="1"/>
+    <col min="5378" max="5378" width="5.5" style="14" customWidth="1"/>
+    <col min="5379" max="5382" width="6.25" style="14" customWidth="1"/>
+    <col min="5383" max="5383" width="5.5" style="14" customWidth="1"/>
+    <col min="5384" max="5384" width="9.25" style="14" customWidth="1"/>
+    <col min="5385" max="5385" width="5.5" style="14" customWidth="1"/>
+    <col min="5386" max="5389" width="6.25" style="14" customWidth="1"/>
+    <col min="5390" max="5390" width="5.5" style="14" customWidth="1"/>
     <col min="5391" max="5391" width="9" style="14"/>
-    <col min="5392" max="5392" width="13.86328125" style="14" customWidth="1"/>
+    <col min="5392" max="5392" width="13.875" style="14" customWidth="1"/>
     <col min="5393" max="5632" width="9" style="14"/>
-    <col min="5633" max="5633" width="9.1328125" style="14" customWidth="1"/>
-    <col min="5634" max="5634" width="5.46484375" style="14" customWidth="1"/>
-    <col min="5635" max="5638" width="6.265625" style="14" customWidth="1"/>
-    <col min="5639" max="5639" width="5.46484375" style="14" customWidth="1"/>
-    <col min="5640" max="5640" width="9.265625" style="14" customWidth="1"/>
-    <col min="5641" max="5641" width="5.46484375" style="14" customWidth="1"/>
-    <col min="5642" max="5645" width="6.265625" style="14" customWidth="1"/>
-    <col min="5646" max="5646" width="5.46484375" style="14" customWidth="1"/>
+    <col min="5633" max="5633" width="9.125" style="14" customWidth="1"/>
+    <col min="5634" max="5634" width="5.5" style="14" customWidth="1"/>
+    <col min="5635" max="5638" width="6.25" style="14" customWidth="1"/>
+    <col min="5639" max="5639" width="5.5" style="14" customWidth="1"/>
+    <col min="5640" max="5640" width="9.25" style="14" customWidth="1"/>
+    <col min="5641" max="5641" width="5.5" style="14" customWidth="1"/>
+    <col min="5642" max="5645" width="6.25" style="14" customWidth="1"/>
+    <col min="5646" max="5646" width="5.5" style="14" customWidth="1"/>
     <col min="5647" max="5647" width="9" style="14"/>
-    <col min="5648" max="5648" width="13.86328125" style="14" customWidth="1"/>
+    <col min="5648" max="5648" width="13.875" style="14" customWidth="1"/>
     <col min="5649" max="5888" width="9" style="14"/>
-    <col min="5889" max="5889" width="9.1328125" style="14" customWidth="1"/>
-    <col min="5890" max="5890" width="5.46484375" style="14" customWidth="1"/>
-    <col min="5891" max="5894" width="6.265625" style="14" customWidth="1"/>
-    <col min="5895" max="5895" width="5.46484375" style="14" customWidth="1"/>
-    <col min="5896" max="5896" width="9.265625" style="14" customWidth="1"/>
-    <col min="5897" max="5897" width="5.46484375" style="14" customWidth="1"/>
-    <col min="5898" max="5901" width="6.265625" style="14" customWidth="1"/>
-    <col min="5902" max="5902" width="5.46484375" style="14" customWidth="1"/>
+    <col min="5889" max="5889" width="9.125" style="14" customWidth="1"/>
+    <col min="5890" max="5890" width="5.5" style="14" customWidth="1"/>
+    <col min="5891" max="5894" width="6.25" style="14" customWidth="1"/>
+    <col min="5895" max="5895" width="5.5" style="14" customWidth="1"/>
+    <col min="5896" max="5896" width="9.25" style="14" customWidth="1"/>
+    <col min="5897" max="5897" width="5.5" style="14" customWidth="1"/>
+    <col min="5898" max="5901" width="6.25" style="14" customWidth="1"/>
+    <col min="5902" max="5902" width="5.5" style="14" customWidth="1"/>
     <col min="5903" max="5903" width="9" style="14"/>
-    <col min="5904" max="5904" width="13.86328125" style="14" customWidth="1"/>
+    <col min="5904" max="5904" width="13.875" style="14" customWidth="1"/>
     <col min="5905" max="6144" width="9" style="14"/>
-    <col min="6145" max="6145" width="9.1328125" style="14" customWidth="1"/>
-    <col min="6146" max="6146" width="5.46484375" style="14" customWidth="1"/>
-    <col min="6147" max="6150" width="6.265625" style="14" customWidth="1"/>
-    <col min="6151" max="6151" width="5.46484375" style="14" customWidth="1"/>
-    <col min="6152" max="6152" width="9.265625" style="14" customWidth="1"/>
-    <col min="6153" max="6153" width="5.46484375" style="14" customWidth="1"/>
-    <col min="6154" max="6157" width="6.265625" style="14" customWidth="1"/>
-    <col min="6158" max="6158" width="5.46484375" style="14" customWidth="1"/>
+    <col min="6145" max="6145" width="9.125" style="14" customWidth="1"/>
+    <col min="6146" max="6146" width="5.5" style="14" customWidth="1"/>
+    <col min="6147" max="6150" width="6.25" style="14" customWidth="1"/>
+    <col min="6151" max="6151" width="5.5" style="14" customWidth="1"/>
+    <col min="6152" max="6152" width="9.25" style="14" customWidth="1"/>
+    <col min="6153" max="6153" width="5.5" style="14" customWidth="1"/>
+    <col min="6154" max="6157" width="6.25" style="14" customWidth="1"/>
+    <col min="6158" max="6158" width="5.5" style="14" customWidth="1"/>
     <col min="6159" max="6159" width="9" style="14"/>
-    <col min="6160" max="6160" width="13.86328125" style="14" customWidth="1"/>
+    <col min="6160" max="6160" width="13.875" style="14" customWidth="1"/>
     <col min="6161" max="6400" width="9" style="14"/>
-    <col min="6401" max="6401" width="9.1328125" style="14" customWidth="1"/>
-    <col min="6402" max="6402" width="5.46484375" style="14" customWidth="1"/>
-    <col min="6403" max="6406" width="6.265625" style="14" customWidth="1"/>
-    <col min="6407" max="6407" width="5.46484375" style="14" customWidth="1"/>
-    <col min="6408" max="6408" width="9.265625" style="14" customWidth="1"/>
-    <col min="6409" max="6409" width="5.46484375" style="14" customWidth="1"/>
-    <col min="6410" max="6413" width="6.265625" style="14" customWidth="1"/>
-    <col min="6414" max="6414" width="5.46484375" style="14" customWidth="1"/>
+    <col min="6401" max="6401" width="9.125" style="14" customWidth="1"/>
+    <col min="6402" max="6402" width="5.5" style="14" customWidth="1"/>
+    <col min="6403" max="6406" width="6.25" style="14" customWidth="1"/>
+    <col min="6407" max="6407" width="5.5" style="14" customWidth="1"/>
+    <col min="6408" max="6408" width="9.25" style="14" customWidth="1"/>
+    <col min="6409" max="6409" width="5.5" style="14" customWidth="1"/>
+    <col min="6410" max="6413" width="6.25" style="14" customWidth="1"/>
+    <col min="6414" max="6414" width="5.5" style="14" customWidth="1"/>
     <col min="6415" max="6415" width="9" style="14"/>
-    <col min="6416" max="6416" width="13.86328125" style="14" customWidth="1"/>
+    <col min="6416" max="6416" width="13.875" style="14" customWidth="1"/>
     <col min="6417" max="6656" width="9" style="14"/>
-    <col min="6657" max="6657" width="9.1328125" style="14" customWidth="1"/>
-    <col min="6658" max="6658" width="5.46484375" style="14" customWidth="1"/>
-    <col min="6659" max="6662" width="6.265625" style="14" customWidth="1"/>
-    <col min="6663" max="6663" width="5.46484375" style="14" customWidth="1"/>
-    <col min="6664" max="6664" width="9.265625" style="14" customWidth="1"/>
-    <col min="6665" max="6665" width="5.46484375" style="14" customWidth="1"/>
-    <col min="6666" max="6669" width="6.265625" style="14" customWidth="1"/>
-    <col min="6670" max="6670" width="5.46484375" style="14" customWidth="1"/>
+    <col min="6657" max="6657" width="9.125" style="14" customWidth="1"/>
+    <col min="6658" max="6658" width="5.5" style="14" customWidth="1"/>
+    <col min="6659" max="6662" width="6.25" style="14" customWidth="1"/>
+    <col min="6663" max="6663" width="5.5" style="14" customWidth="1"/>
+    <col min="6664" max="6664" width="9.25" style="14" customWidth="1"/>
+    <col min="6665" max="6665" width="5.5" style="14" customWidth="1"/>
+    <col min="6666" max="6669" width="6.25" style="14" customWidth="1"/>
+    <col min="6670" max="6670" width="5.5" style="14" customWidth="1"/>
     <col min="6671" max="6671" width="9" style="14"/>
-    <col min="6672" max="6672" width="13.86328125" style="14" customWidth="1"/>
+    <col min="6672" max="6672" width="13.875" style="14" customWidth="1"/>
     <col min="6673" max="6912" width="9" style="14"/>
-    <col min="6913" max="6913" width="9.1328125" style="14" customWidth="1"/>
-    <col min="6914" max="6914" width="5.46484375" style="14" customWidth="1"/>
-    <col min="6915" max="6918" width="6.265625" style="14" customWidth="1"/>
-    <col min="6919" max="6919" width="5.46484375" style="14" customWidth="1"/>
-    <col min="6920" max="6920" width="9.265625" style="14" customWidth="1"/>
-    <col min="6921" max="6921" width="5.46484375" style="14" customWidth="1"/>
-    <col min="6922" max="6925" width="6.265625" style="14" customWidth="1"/>
-    <col min="6926" max="6926" width="5.46484375" style="14" customWidth="1"/>
+    <col min="6913" max="6913" width="9.125" style="14" customWidth="1"/>
+    <col min="6914" max="6914" width="5.5" style="14" customWidth="1"/>
+    <col min="6915" max="6918" width="6.25" style="14" customWidth="1"/>
+    <col min="6919" max="6919" width="5.5" style="14" customWidth="1"/>
+    <col min="6920" max="6920" width="9.25" style="14" customWidth="1"/>
+    <col min="6921" max="6921" width="5.5" style="14" customWidth="1"/>
+    <col min="6922" max="6925" width="6.25" style="14" customWidth="1"/>
+    <col min="6926" max="6926" width="5.5" style="14" customWidth="1"/>
     <col min="6927" max="6927" width="9" style="14"/>
-    <col min="6928" max="6928" width="13.86328125" style="14" customWidth="1"/>
+    <col min="6928" max="6928" width="13.875" style="14" customWidth="1"/>
     <col min="6929" max="7168" width="9" style="14"/>
-    <col min="7169" max="7169" width="9.1328125" style="14" customWidth="1"/>
-    <col min="7170" max="7170" width="5.46484375" style="14" customWidth="1"/>
-    <col min="7171" max="7174" width="6.265625" style="14" customWidth="1"/>
-    <col min="7175" max="7175" width="5.46484375" style="14" customWidth="1"/>
-    <col min="7176" max="7176" width="9.265625" style="14" customWidth="1"/>
-    <col min="7177" max="7177" width="5.46484375" style="14" customWidth="1"/>
-    <col min="7178" max="7181" width="6.265625" style="14" customWidth="1"/>
-    <col min="7182" max="7182" width="5.46484375" style="14" customWidth="1"/>
+    <col min="7169" max="7169" width="9.125" style="14" customWidth="1"/>
+    <col min="7170" max="7170" width="5.5" style="14" customWidth="1"/>
+    <col min="7171" max="7174" width="6.25" style="14" customWidth="1"/>
+    <col min="7175" max="7175" width="5.5" style="14" customWidth="1"/>
+    <col min="7176" max="7176" width="9.25" style="14" customWidth="1"/>
+    <col min="7177" max="7177" width="5.5" style="14" customWidth="1"/>
+    <col min="7178" max="7181" width="6.25" style="14" customWidth="1"/>
+    <col min="7182" max="7182" width="5.5" style="14" customWidth="1"/>
     <col min="7183" max="7183" width="9" style="14"/>
-    <col min="7184" max="7184" width="13.86328125" style="14" customWidth="1"/>
+    <col min="7184" max="7184" width="13.875" style="14" customWidth="1"/>
     <col min="7185" max="7424" width="9" style="14"/>
-    <col min="7425" max="7425" width="9.1328125" style="14" customWidth="1"/>
-    <col min="7426" max="7426" width="5.46484375" style="14" customWidth="1"/>
-    <col min="7427" max="7430" width="6.265625" style="14" customWidth="1"/>
-    <col min="7431" max="7431" width="5.46484375" style="14" customWidth="1"/>
-    <col min="7432" max="7432" width="9.265625" style="14" customWidth="1"/>
-    <col min="7433" max="7433" width="5.46484375" style="14" customWidth="1"/>
-    <col min="7434" max="7437" width="6.265625" style="14" customWidth="1"/>
-    <col min="7438" max="7438" width="5.46484375" style="14" customWidth="1"/>
+    <col min="7425" max="7425" width="9.125" style="14" customWidth="1"/>
+    <col min="7426" max="7426" width="5.5" style="14" customWidth="1"/>
+    <col min="7427" max="7430" width="6.25" style="14" customWidth="1"/>
+    <col min="7431" max="7431" width="5.5" style="14" customWidth="1"/>
+    <col min="7432" max="7432" width="9.25" style="14" customWidth="1"/>
+    <col min="7433" max="7433" width="5.5" style="14" customWidth="1"/>
+    <col min="7434" max="7437" width="6.25" style="14" customWidth="1"/>
+    <col min="7438" max="7438" width="5.5" style="14" customWidth="1"/>
     <col min="7439" max="7439" width="9" style="14"/>
-    <col min="7440" max="7440" width="13.86328125" style="14" customWidth="1"/>
+    <col min="7440" max="7440" width="13.875" style="14" customWidth="1"/>
     <col min="7441" max="7680" width="9" style="14"/>
-    <col min="7681" max="7681" width="9.1328125" style="14" customWidth="1"/>
-    <col min="7682" max="7682" width="5.46484375" style="14" customWidth="1"/>
-    <col min="7683" max="7686" width="6.265625" style="14" customWidth="1"/>
-    <col min="7687" max="7687" width="5.46484375" style="14" customWidth="1"/>
-    <col min="7688" max="7688" width="9.265625" style="14" customWidth="1"/>
-    <col min="7689" max="7689" width="5.46484375" style="14" customWidth="1"/>
-    <col min="7690" max="7693" width="6.265625" style="14" customWidth="1"/>
-    <col min="7694" max="7694" width="5.46484375" style="14" customWidth="1"/>
+    <col min="7681" max="7681" width="9.125" style="14" customWidth="1"/>
+    <col min="7682" max="7682" width="5.5" style="14" customWidth="1"/>
+    <col min="7683" max="7686" width="6.25" style="14" customWidth="1"/>
+    <col min="7687" max="7687" width="5.5" style="14" customWidth="1"/>
+    <col min="7688" max="7688" width="9.25" style="14" customWidth="1"/>
+    <col min="7689" max="7689" width="5.5" style="14" customWidth="1"/>
+    <col min="7690" max="7693" width="6.25" style="14" customWidth="1"/>
+    <col min="7694" max="7694" width="5.5" style="14" customWidth="1"/>
     <col min="7695" max="7695" width="9" style="14"/>
-    <col min="7696" max="7696" width="13.86328125" style="14" customWidth="1"/>
+    <col min="7696" max="7696" width="13.875" style="14" customWidth="1"/>
     <col min="7697" max="7936" width="9" style="14"/>
-    <col min="7937" max="7937" width="9.1328125" style="14" customWidth="1"/>
-    <col min="7938" max="7938" width="5.46484375" style="14" customWidth="1"/>
-    <col min="7939" max="7942" width="6.265625" style="14" customWidth="1"/>
-    <col min="7943" max="7943" width="5.46484375" style="14" customWidth="1"/>
-    <col min="7944" max="7944" width="9.265625" style="14" customWidth="1"/>
-    <col min="7945" max="7945" width="5.46484375" style="14" customWidth="1"/>
-    <col min="7946" max="7949" width="6.265625" style="14" customWidth="1"/>
-    <col min="7950" max="7950" width="5.46484375" style="14" customWidth="1"/>
+    <col min="7937" max="7937" width="9.125" style="14" customWidth="1"/>
+    <col min="7938" max="7938" width="5.5" style="14" customWidth="1"/>
+    <col min="7939" max="7942" width="6.25" style="14" customWidth="1"/>
+    <col min="7943" max="7943" width="5.5" style="14" customWidth="1"/>
+    <col min="7944" max="7944" width="9.25" style="14" customWidth="1"/>
+    <col min="7945" max="7945" width="5.5" style="14" customWidth="1"/>
+    <col min="7946" max="7949" width="6.25" style="14" customWidth="1"/>
+    <col min="7950" max="7950" width="5.5" style="14" customWidth="1"/>
     <col min="7951" max="7951" width="9" style="14"/>
-    <col min="7952" max="7952" width="13.86328125" style="14" customWidth="1"/>
+    <col min="7952" max="7952" width="13.875" style="14" customWidth="1"/>
     <col min="7953" max="8192" width="9" style="14"/>
-    <col min="8193" max="8193" width="9.1328125" style="14" customWidth="1"/>
-    <col min="8194" max="8194" width="5.46484375" style="14" customWidth="1"/>
-    <col min="8195" max="8198" width="6.265625" style="14" customWidth="1"/>
-    <col min="8199" max="8199" width="5.46484375" style="14" customWidth="1"/>
-    <col min="8200" max="8200" width="9.265625" style="14" customWidth="1"/>
-    <col min="8201" max="8201" width="5.46484375" style="14" customWidth="1"/>
-    <col min="8202" max="8205" width="6.265625" style="14" customWidth="1"/>
-    <col min="8206" max="8206" width="5.46484375" style="14" customWidth="1"/>
+    <col min="8193" max="8193" width="9.125" style="14" customWidth="1"/>
+    <col min="8194" max="8194" width="5.5" style="14" customWidth="1"/>
+    <col min="8195" max="8198" width="6.25" style="14" customWidth="1"/>
+    <col min="8199" max="8199" width="5.5" style="14" customWidth="1"/>
+    <col min="8200" max="8200" width="9.25" style="14" customWidth="1"/>
+    <col min="8201" max="8201" width="5.5" style="14" customWidth="1"/>
+    <col min="8202" max="8205" width="6.25" style="14" customWidth="1"/>
+    <col min="8206" max="8206" width="5.5" style="14" customWidth="1"/>
     <col min="8207" max="8207" width="9" style="14"/>
-    <col min="8208" max="8208" width="13.86328125" style="14" customWidth="1"/>
+    <col min="8208" max="8208" width="13.875" style="14" customWidth="1"/>
     <col min="8209" max="8448" width="9" style="14"/>
-    <col min="8449" max="8449" width="9.1328125" style="14" customWidth="1"/>
-    <col min="8450" max="8450" width="5.46484375" style="14" customWidth="1"/>
-    <col min="8451" max="8454" width="6.265625" style="14" customWidth="1"/>
-    <col min="8455" max="8455" width="5.46484375" style="14" customWidth="1"/>
-    <col min="8456" max="8456" width="9.265625" style="14" customWidth="1"/>
-    <col min="8457" max="8457" width="5.46484375" style="14" customWidth="1"/>
-    <col min="8458" max="8461" width="6.265625" style="14" customWidth="1"/>
-    <col min="8462" max="8462" width="5.46484375" style="14" customWidth="1"/>
+    <col min="8449" max="8449" width="9.125" style="14" customWidth="1"/>
+    <col min="8450" max="8450" width="5.5" style="14" customWidth="1"/>
+    <col min="8451" max="8454" width="6.25" style="14" customWidth="1"/>
+    <col min="8455" max="8455" width="5.5" style="14" customWidth="1"/>
+    <col min="8456" max="8456" width="9.25" style="14" customWidth="1"/>
+    <col min="8457" max="8457" width="5.5" style="14" customWidth="1"/>
+    <col min="8458" max="8461" width="6.25" style="14" customWidth="1"/>
+    <col min="8462" max="8462" width="5.5" style="14" customWidth="1"/>
     <col min="8463" max="8463" width="9" style="14"/>
-    <col min="8464" max="8464" width="13.86328125" style="14" customWidth="1"/>
+    <col min="8464" max="8464" width="13.875" style="14" customWidth="1"/>
     <col min="8465" max="8704" width="9" style="14"/>
-    <col min="8705" max="8705" width="9.1328125" style="14" customWidth="1"/>
-    <col min="8706" max="8706" width="5.46484375" style="14" customWidth="1"/>
-    <col min="8707" max="8710" width="6.265625" style="14" customWidth="1"/>
-    <col min="8711" max="8711" width="5.46484375" style="14" customWidth="1"/>
-    <col min="8712" max="8712" width="9.265625" style="14" customWidth="1"/>
-    <col min="8713" max="8713" width="5.46484375" style="14" customWidth="1"/>
-    <col min="8714" max="8717" width="6.265625" style="14" customWidth="1"/>
-    <col min="8718" max="8718" width="5.46484375" style="14" customWidth="1"/>
+    <col min="8705" max="8705" width="9.125" style="14" customWidth="1"/>
+    <col min="8706" max="8706" width="5.5" style="14" customWidth="1"/>
+    <col min="8707" max="8710" width="6.25" style="14" customWidth="1"/>
+    <col min="8711" max="8711" width="5.5" style="14" customWidth="1"/>
+    <col min="8712" max="8712" width="9.25" style="14" customWidth="1"/>
+    <col min="8713" max="8713" width="5.5" style="14" customWidth="1"/>
+    <col min="8714" max="8717" width="6.25" style="14" customWidth="1"/>
+    <col min="8718" max="8718" width="5.5" style="14" customWidth="1"/>
     <col min="8719" max="8719" width="9" style="14"/>
-    <col min="8720" max="8720" width="13.86328125" style="14" customWidth="1"/>
+    <col min="8720" max="8720" width="13.875" style="14" customWidth="1"/>
     <col min="8721" max="8960" width="9" style="14"/>
-    <col min="8961" max="8961" width="9.1328125" style="14" customWidth="1"/>
-    <col min="8962" max="8962" width="5.46484375" style="14" customWidth="1"/>
-    <col min="8963" max="8966" width="6.265625" style="14" customWidth="1"/>
-    <col min="8967" max="8967" width="5.46484375" style="14" customWidth="1"/>
-    <col min="8968" max="8968" width="9.265625" style="14" customWidth="1"/>
-    <col min="8969" max="8969" width="5.46484375" style="14" customWidth="1"/>
-    <col min="8970" max="8973" width="6.265625" style="14" customWidth="1"/>
-    <col min="8974" max="8974" width="5.46484375" style="14" customWidth="1"/>
+    <col min="8961" max="8961" width="9.125" style="14" customWidth="1"/>
+    <col min="8962" max="8962" width="5.5" style="14" customWidth="1"/>
+    <col min="8963" max="8966" width="6.25" style="14" customWidth="1"/>
+    <col min="8967" max="8967" width="5.5" style="14" customWidth="1"/>
+    <col min="8968" max="8968" width="9.25" style="14" customWidth="1"/>
+    <col min="8969" max="8969" width="5.5" style="14" customWidth="1"/>
+    <col min="8970" max="8973" width="6.25" style="14" customWidth="1"/>
+    <col min="8974" max="8974" width="5.5" style="14" customWidth="1"/>
     <col min="8975" max="8975" width="9" style="14"/>
-    <col min="8976" max="8976" width="13.86328125" style="14" customWidth="1"/>
+    <col min="8976" max="8976" width="13.875" style="14" customWidth="1"/>
     <col min="8977" max="9216" width="9" style="14"/>
-    <col min="9217" max="9217" width="9.1328125" style="14" customWidth="1"/>
-    <col min="9218" max="9218" width="5.46484375" style="14" customWidth="1"/>
-    <col min="9219" max="9222" width="6.265625" style="14" customWidth="1"/>
-    <col min="9223" max="9223" width="5.46484375" style="14" customWidth="1"/>
-    <col min="9224" max="9224" width="9.265625" style="14" customWidth="1"/>
-    <col min="9225" max="9225" width="5.46484375" style="14" customWidth="1"/>
-    <col min="9226" max="9229" width="6.265625" style="14" customWidth="1"/>
-    <col min="9230" max="9230" width="5.46484375" style="14" customWidth="1"/>
+    <col min="9217" max="9217" width="9.125" style="14" customWidth="1"/>
+    <col min="9218" max="9218" width="5.5" style="14" customWidth="1"/>
+    <col min="9219" max="9222" width="6.25" style="14" customWidth="1"/>
+    <col min="9223" max="9223" width="5.5" style="14" customWidth="1"/>
+    <col min="9224" max="9224" width="9.25" style="14" customWidth="1"/>
+    <col min="9225" max="9225" width="5.5" style="14" customWidth="1"/>
+    <col min="9226" max="9229" width="6.25" style="14" customWidth="1"/>
+    <col min="9230" max="9230" width="5.5" style="14" customWidth="1"/>
     <col min="9231" max="9231" width="9" style="14"/>
-    <col min="9232" max="9232" width="13.86328125" style="14" customWidth="1"/>
+    <col min="9232" max="9232" width="13.875" style="14" customWidth="1"/>
     <col min="9233" max="9472" width="9" style="14"/>
-    <col min="9473" max="9473" width="9.1328125" style="14" customWidth="1"/>
-    <col min="9474" max="9474" width="5.46484375" style="14" customWidth="1"/>
-    <col min="9475" max="9478" width="6.265625" style="14" customWidth="1"/>
-    <col min="9479" max="9479" width="5.46484375" style="14" customWidth="1"/>
-    <col min="9480" max="9480" width="9.265625" style="14" customWidth="1"/>
-    <col min="9481" max="9481" width="5.46484375" style="14" customWidth="1"/>
-    <col min="9482" max="9485" width="6.265625" style="14" customWidth="1"/>
-    <col min="9486" max="9486" width="5.46484375" style="14" customWidth="1"/>
+    <col min="9473" max="9473" width="9.125" style="14" customWidth="1"/>
+    <col min="9474" max="9474" width="5.5" style="14" customWidth="1"/>
+    <col min="9475" max="9478" width="6.25" style="14" customWidth="1"/>
+    <col min="9479" max="9479" width="5.5" style="14" customWidth="1"/>
+    <col min="9480" max="9480" width="9.25" style="14" customWidth="1"/>
+    <col min="9481" max="9481" width="5.5" style="14" customWidth="1"/>
+    <col min="9482" max="9485" width="6.25" style="14" customWidth="1"/>
+    <col min="9486" max="9486" width="5.5" style="14" customWidth="1"/>
     <col min="9487" max="9487" width="9" style="14"/>
-    <col min="9488" max="9488" width="13.86328125" style="14" customWidth="1"/>
+    <col min="9488" max="9488" width="13.875" style="14" customWidth="1"/>
     <col min="9489" max="9728" width="9" style="14"/>
-    <col min="9729" max="9729" width="9.1328125" style="14" customWidth="1"/>
-    <col min="9730" max="9730" width="5.46484375" style="14" customWidth="1"/>
-    <col min="9731" max="9734" width="6.265625" style="14" customWidth="1"/>
-    <col min="9735" max="9735" width="5.46484375" style="14" customWidth="1"/>
-    <col min="9736" max="9736" width="9.265625" style="14" customWidth="1"/>
-    <col min="9737" max="9737" width="5.46484375" style="14" customWidth="1"/>
-    <col min="9738" max="9741" width="6.265625" style="14" customWidth="1"/>
-    <col min="9742" max="9742" width="5.46484375" style="14" customWidth="1"/>
+    <col min="9729" max="9729" width="9.125" style="14" customWidth="1"/>
+    <col min="9730" max="9730" width="5.5" style="14" customWidth="1"/>
+    <col min="9731" max="9734" width="6.25" style="14" customWidth="1"/>
+    <col min="9735" max="9735" width="5.5" style="14" customWidth="1"/>
+    <col min="9736" max="9736" width="9.25" style="14" customWidth="1"/>
+    <col min="9737" max="9737" width="5.5" style="14" customWidth="1"/>
+    <col min="9738" max="9741" width="6.25" style="14" customWidth="1"/>
+    <col min="9742" max="9742" width="5.5" style="14" customWidth="1"/>
     <col min="9743" max="9743" width="9" style="14"/>
-    <col min="9744" max="9744" width="13.86328125" style="14" customWidth="1"/>
+    <col min="9744" max="9744" width="13.875" style="14" customWidth="1"/>
     <col min="9745" max="9984" width="9" style="14"/>
-    <col min="9985" max="9985" width="9.1328125" style="14" customWidth="1"/>
-    <col min="9986" max="9986" width="5.46484375" style="14" customWidth="1"/>
-    <col min="9987" max="9990" width="6.265625" style="14" customWidth="1"/>
-    <col min="9991" max="9991" width="5.46484375" style="14" customWidth="1"/>
-    <col min="9992" max="9992" width="9.265625" style="14" customWidth="1"/>
-    <col min="9993" max="9993" width="5.46484375" style="14" customWidth="1"/>
-    <col min="9994" max="9997" width="6.265625" style="14" customWidth="1"/>
-    <col min="9998" max="9998" width="5.46484375" style="14" customWidth="1"/>
+    <col min="9985" max="9985" width="9.125" style="14" customWidth="1"/>
+    <col min="9986" max="9986" width="5.5" style="14" customWidth="1"/>
+    <col min="9987" max="9990" width="6.25" style="14" customWidth="1"/>
+    <col min="9991" max="9991" width="5.5" style="14" customWidth="1"/>
+    <col min="9992" max="9992" width="9.25" style="14" customWidth="1"/>
+    <col min="9993" max="9993" width="5.5" style="14" customWidth="1"/>
+    <col min="9994" max="9997" width="6.25" style="14" customWidth="1"/>
+    <col min="9998" max="9998" width="5.5" style="14" customWidth="1"/>
     <col min="9999" max="9999" width="9" style="14"/>
-    <col min="10000" max="10000" width="13.86328125" style="14" customWidth="1"/>
+    <col min="10000" max="10000" width="13.875" style="14" customWidth="1"/>
     <col min="10001" max="10240" width="9" style="14"/>
-    <col min="10241" max="10241" width="9.1328125" style="14" customWidth="1"/>
-    <col min="10242" max="10242" width="5.46484375" style="14" customWidth="1"/>
-    <col min="10243" max="10246" width="6.265625" style="14" customWidth="1"/>
-    <col min="10247" max="10247" width="5.46484375" style="14" customWidth="1"/>
-    <col min="10248" max="10248" width="9.265625" style="14" customWidth="1"/>
-    <col min="10249" max="10249" width="5.46484375" style="14" customWidth="1"/>
-    <col min="10250" max="10253" width="6.265625" style="14" customWidth="1"/>
-    <col min="10254" max="10254" width="5.46484375" style="14" customWidth="1"/>
+    <col min="10241" max="10241" width="9.125" style="14" customWidth="1"/>
+    <col min="10242" max="10242" width="5.5" style="14" customWidth="1"/>
+    <col min="10243" max="10246" width="6.25" style="14" customWidth="1"/>
+    <col min="10247" max="10247" width="5.5" style="14" customWidth="1"/>
+    <col min="10248" max="10248" width="9.25" style="14" customWidth="1"/>
+    <col min="10249" max="10249" width="5.5" style="14" customWidth="1"/>
+    <col min="10250" max="10253" width="6.25" style="14" customWidth="1"/>
+    <col min="10254" max="10254" width="5.5" style="14" customWidth="1"/>
     <col min="10255" max="10255" width="9" style="14"/>
-    <col min="10256" max="10256" width="13.86328125" style="14" customWidth="1"/>
+    <col min="10256" max="10256" width="13.875" style="14" customWidth="1"/>
     <col min="10257" max="10496" width="9" style="14"/>
-    <col min="10497" max="10497" width="9.1328125" style="14" customWidth="1"/>
-    <col min="10498" max="10498" width="5.46484375" style="14" customWidth="1"/>
-    <col min="10499" max="10502" width="6.265625" style="14" customWidth="1"/>
-    <col min="10503" max="10503" width="5.46484375" style="14" customWidth="1"/>
-    <col min="10504" max="10504" width="9.265625" style="14" customWidth="1"/>
-    <col min="10505" max="10505" width="5.46484375" style="14" customWidth="1"/>
-    <col min="10506" max="10509" width="6.265625" style="14" customWidth="1"/>
-    <col min="10510" max="10510" width="5.46484375" style="14" customWidth="1"/>
+    <col min="10497" max="10497" width="9.125" style="14" customWidth="1"/>
+    <col min="10498" max="10498" width="5.5" style="14" customWidth="1"/>
+    <col min="10499" max="10502" width="6.25" style="14" customWidth="1"/>
+    <col min="10503" max="10503" width="5.5" style="14" customWidth="1"/>
+    <col min="10504" max="10504" width="9.25" style="14" customWidth="1"/>
+    <col min="10505" max="10505" width="5.5" style="14" customWidth="1"/>
+    <col min="10506" max="10509" width="6.25" style="14" customWidth="1"/>
+    <col min="10510" max="10510" width="5.5" style="14" customWidth="1"/>
     <col min="10511" max="10511" width="9" style="14"/>
-    <col min="10512" max="10512" width="13.86328125" style="14" customWidth="1"/>
+    <col min="10512" max="10512" width="13.875" style="14" customWidth="1"/>
     <col min="10513" max="10752" width="9" style="14"/>
-    <col min="10753" max="10753" width="9.1328125" style="14" customWidth="1"/>
-    <col min="10754" max="10754" width="5.46484375" style="14" customWidth="1"/>
-    <col min="10755" max="10758" width="6.265625" style="14" customWidth="1"/>
-    <col min="10759" max="10759" width="5.46484375" style="14" customWidth="1"/>
-    <col min="10760" max="10760" width="9.265625" style="14" customWidth="1"/>
-    <col min="10761" max="10761" width="5.46484375" style="14" customWidth="1"/>
-    <col min="10762" max="10765" width="6.265625" style="14" customWidth="1"/>
-    <col min="10766" max="10766" width="5.46484375" style="14" customWidth="1"/>
+    <col min="10753" max="10753" width="9.125" style="14" customWidth="1"/>
+    <col min="10754" max="10754" width="5.5" style="14" customWidth="1"/>
+    <col min="10755" max="10758" width="6.25" style="14" customWidth="1"/>
+    <col min="10759" max="10759" width="5.5" style="14" customWidth="1"/>
+    <col min="10760" max="10760" width="9.25" style="14" customWidth="1"/>
+    <col min="10761" max="10761" width="5.5" style="14" customWidth="1"/>
+    <col min="10762" max="10765" width="6.25" style="14" customWidth="1"/>
+    <col min="10766" max="10766" width="5.5" style="14" customWidth="1"/>
     <col min="10767" max="10767" width="9" style="14"/>
-    <col min="10768" max="10768" width="13.86328125" style="14" customWidth="1"/>
+    <col min="10768" max="10768" width="13.875" style="14" customWidth="1"/>
     <col min="10769" max="11008" width="9" style="14"/>
-    <col min="11009" max="11009" width="9.1328125" style="14" customWidth="1"/>
-    <col min="11010" max="11010" width="5.46484375" style="14" customWidth="1"/>
-    <col min="11011" max="11014" width="6.265625" style="14" customWidth="1"/>
-    <col min="11015" max="11015" width="5.46484375" style="14" customWidth="1"/>
-    <col min="11016" max="11016" width="9.265625" style="14" customWidth="1"/>
-    <col min="11017" max="11017" width="5.46484375" style="14" customWidth="1"/>
-    <col min="11018" max="11021" width="6.265625" style="14" customWidth="1"/>
-    <col min="11022" max="11022" width="5.46484375" style="14" customWidth="1"/>
+    <col min="11009" max="11009" width="9.125" style="14" customWidth="1"/>
+    <col min="11010" max="11010" width="5.5" style="14" customWidth="1"/>
+    <col min="11011" max="11014" width="6.25" style="14" customWidth="1"/>
+    <col min="11015" max="11015" width="5.5" style="14" customWidth="1"/>
+    <col min="11016" max="11016" width="9.25" style="14" customWidth="1"/>
+    <col min="11017" max="11017" width="5.5" style="14" customWidth="1"/>
+    <col min="11018" max="11021" width="6.25" style="14" customWidth="1"/>
+    <col min="11022" max="11022" width="5.5" style="14" customWidth="1"/>
     <col min="11023" max="11023" width="9" style="14"/>
-    <col min="11024" max="11024" width="13.86328125" style="14" customWidth="1"/>
+    <col min="11024" max="11024" width="13.875" style="14" customWidth="1"/>
     <col min="11025" max="11264" width="9" style="14"/>
-    <col min="11265" max="11265" width="9.1328125" style="14" customWidth="1"/>
-    <col min="11266" max="11266" width="5.46484375" style="14" customWidth="1"/>
-    <col min="11267" max="11270" width="6.265625" style="14" customWidth="1"/>
-    <col min="11271" max="11271" width="5.46484375" style="14" customWidth="1"/>
-    <col min="11272" max="11272" width="9.265625" style="14" customWidth="1"/>
-    <col min="11273" max="11273" width="5.46484375" style="14" customWidth="1"/>
-    <col min="11274" max="11277" width="6.265625" style="14" customWidth="1"/>
-    <col min="11278" max="11278" width="5.46484375" style="14" customWidth="1"/>
+    <col min="11265" max="11265" width="9.125" style="14" customWidth="1"/>
+    <col min="11266" max="11266" width="5.5" style="14" customWidth="1"/>
+    <col min="11267" max="11270" width="6.25" style="14" customWidth="1"/>
+    <col min="11271" max="11271" width="5.5" style="14" customWidth="1"/>
+    <col min="11272" max="11272" width="9.25" style="14" customWidth="1"/>
+    <col min="11273" max="11273" width="5.5" style="14" customWidth="1"/>
+    <col min="11274" max="11277" width="6.25" style="14" customWidth="1"/>
+    <col min="11278" max="11278" width="5.5" style="14" customWidth="1"/>
     <col min="11279" max="11279" width="9" style="14"/>
-    <col min="11280" max="11280" width="13.86328125" style="14" customWidth="1"/>
+    <col min="11280" max="11280" width="13.875" style="14" customWidth="1"/>
     <col min="11281" max="11520" width="9" style="14"/>
-    <col min="11521" max="11521" width="9.1328125" style="14" customWidth="1"/>
-    <col min="11522" max="11522" width="5.46484375" style="14" customWidth="1"/>
-    <col min="11523" max="11526" width="6.265625" style="14" customWidth="1"/>
-    <col min="11527" max="11527" width="5.46484375" style="14" customWidth="1"/>
-    <col min="11528" max="11528" width="9.265625" style="14" customWidth="1"/>
-    <col min="11529" max="11529" width="5.46484375" style="14" customWidth="1"/>
-    <col min="11530" max="11533" width="6.265625" style="14" customWidth="1"/>
-    <col min="11534" max="11534" width="5.46484375" style="14" customWidth="1"/>
+    <col min="11521" max="11521" width="9.125" style="14" customWidth="1"/>
+    <col min="11522" max="11522" width="5.5" style="14" customWidth="1"/>
+    <col min="11523" max="11526" width="6.25" style="14" customWidth="1"/>
+    <col min="11527" max="11527" width="5.5" style="14" customWidth="1"/>
+    <col min="11528" max="11528" width="9.25" style="14" customWidth="1"/>
+    <col min="11529" max="11529" width="5.5" style="14" customWidth="1"/>
+    <col min="11530" max="11533" width="6.25" style="14" customWidth="1"/>
+    <col min="11534" max="11534" width="5.5" style="14" customWidth="1"/>
     <col min="11535" max="11535" width="9" style="14"/>
-    <col min="11536" max="11536" width="13.86328125" style="14" customWidth="1"/>
+    <col min="11536" max="11536" width="13.875" style="14" customWidth="1"/>
     <col min="11537" max="11776" width="9" style="14"/>
-    <col min="11777" max="11777" width="9.1328125" style="14" customWidth="1"/>
-    <col min="11778" max="11778" width="5.46484375" style="14" customWidth="1"/>
-    <col min="11779" max="11782" width="6.265625" style="14" customWidth="1"/>
-    <col min="11783" max="11783" width="5.46484375" style="14" customWidth="1"/>
-    <col min="11784" max="11784" width="9.265625" style="14" customWidth="1"/>
-    <col min="11785" max="11785" width="5.46484375" style="14" customWidth="1"/>
-    <col min="11786" max="11789" width="6.265625" style="14" customWidth="1"/>
-    <col min="11790" max="11790" width="5.46484375" style="14" customWidth="1"/>
+    <col min="11777" max="11777" width="9.125" style="14" customWidth="1"/>
+    <col min="11778" max="11778" width="5.5" style="14" customWidth="1"/>
+    <col min="11779" max="11782" width="6.25" style="14" customWidth="1"/>
+    <col min="11783" max="11783" width="5.5" style="14" customWidth="1"/>
+    <col min="11784" max="11784" width="9.25" style="14" customWidth="1"/>
+    <col min="11785" max="11785" width="5.5" style="14" customWidth="1"/>
+    <col min="11786" max="11789" width="6.25" style="14" customWidth="1"/>
+    <col min="11790" max="11790" width="5.5" style="14" customWidth="1"/>
     <col min="11791" max="11791" width="9" style="14"/>
-    <col min="11792" max="11792" width="13.86328125" style="14" customWidth="1"/>
+    <col min="11792" max="11792" width="13.875" style="14" customWidth="1"/>
     <col min="11793" max="12032" width="9" style="14"/>
-    <col min="12033" max="12033" width="9.1328125" style="14" customWidth="1"/>
-    <col min="12034" max="12034" width="5.46484375" style="14" customWidth="1"/>
-    <col min="12035" max="12038" width="6.265625" style="14" customWidth="1"/>
-    <col min="12039" max="12039" width="5.46484375" style="14" customWidth="1"/>
-    <col min="12040" max="12040" width="9.265625" style="14" customWidth="1"/>
-    <col min="12041" max="12041" width="5.46484375" style="14" customWidth="1"/>
-    <col min="12042" max="12045" width="6.265625" style="14" customWidth="1"/>
-    <col min="12046" max="12046" width="5.46484375" style="14" customWidth="1"/>
+    <col min="12033" max="12033" width="9.125" style="14" customWidth="1"/>
+    <col min="12034" max="12034" width="5.5" style="14" customWidth="1"/>
+    <col min="12035" max="12038" width="6.25" style="14" customWidth="1"/>
+    <col min="12039" max="12039" width="5.5" style="14" customWidth="1"/>
+    <col min="12040" max="12040" width="9.25" style="14" customWidth="1"/>
+    <col min="12041" max="12041" width="5.5" style="14" customWidth="1"/>
+    <col min="12042" max="12045" width="6.25" style="14" customWidth="1"/>
+    <col min="12046" max="12046" width="5.5" style="14" customWidth="1"/>
     <col min="12047" max="12047" width="9" style="14"/>
-    <col min="12048" max="12048" width="13.86328125" style="14" customWidth="1"/>
+    <col min="12048" max="12048" width="13.875" style="14" customWidth="1"/>
     <col min="12049" max="12288" width="9" style="14"/>
-    <col min="12289" max="12289" width="9.1328125" style="14" customWidth="1"/>
-    <col min="12290" max="12290" width="5.46484375" style="14" customWidth="1"/>
-    <col min="12291" max="12294" width="6.265625" style="14" customWidth="1"/>
-    <col min="12295" max="12295" width="5.46484375" style="14" customWidth="1"/>
-    <col min="12296" max="12296" width="9.265625" style="14" customWidth="1"/>
-    <col min="12297" max="12297" width="5.46484375" style="14" customWidth="1"/>
-    <col min="12298" max="12301" width="6.265625" style="14" customWidth="1"/>
-    <col min="12302" max="12302" width="5.46484375" style="14" customWidth="1"/>
+    <col min="12289" max="12289" width="9.125" style="14" customWidth="1"/>
+    <col min="12290" max="12290" width="5.5" style="14" customWidth="1"/>
+    <col min="12291" max="12294" width="6.25" style="14" customWidth="1"/>
+    <col min="12295" max="12295" width="5.5" style="14" customWidth="1"/>
+    <col min="12296" max="12296" width="9.25" style="14" customWidth="1"/>
+    <col min="12297" max="12297" width="5.5" style="14" customWidth="1"/>
+    <col min="12298" max="12301" width="6.25" style="14" customWidth="1"/>
+    <col min="12302" max="12302" width="5.5" style="14" customWidth="1"/>
     <col min="12303" max="12303" width="9" style="14"/>
-    <col min="12304" max="12304" width="13.86328125" style="14" customWidth="1"/>
+    <col min="12304" max="12304" width="13.875" style="14" customWidth="1"/>
     <col min="12305" max="12544" width="9" style="14"/>
-    <col min="12545" max="12545" width="9.1328125" style="14" customWidth="1"/>
-    <col min="12546" max="12546" width="5.46484375" style="14" customWidth="1"/>
-    <col min="12547" max="12550" width="6.265625" style="14" customWidth="1"/>
-    <col min="12551" max="12551" width="5.46484375" style="14" customWidth="1"/>
-    <col min="12552" max="12552" width="9.265625" style="14" customWidth="1"/>
-    <col min="12553" max="12553" width="5.46484375" style="14" customWidth="1"/>
-    <col min="12554" max="12557" width="6.265625" style="14" customWidth="1"/>
-    <col min="12558" max="12558" width="5.46484375" style="14" customWidth="1"/>
+    <col min="12545" max="12545" width="9.125" style="14" customWidth="1"/>
+    <col min="12546" max="12546" width="5.5" style="14" customWidth="1"/>
+    <col min="12547" max="12550" width="6.25" style="14" customWidth="1"/>
+    <col min="12551" max="12551" width="5.5" style="14" customWidth="1"/>
+    <col min="12552" max="12552" width="9.25" style="14" customWidth="1"/>
+    <col min="12553" max="12553" width="5.5" style="14" customWidth="1"/>
+    <col min="12554" max="12557" width="6.25" style="14" customWidth="1"/>
+    <col min="12558" max="12558" width="5.5" style="14" customWidth="1"/>
     <col min="12559" max="12559" width="9" style="14"/>
-    <col min="12560" max="12560" width="13.86328125" style="14" customWidth="1"/>
+    <col min="12560" max="12560" width="13.875" style="14" customWidth="1"/>
     <col min="12561" max="12800" width="9" style="14"/>
-    <col min="12801" max="12801" width="9.1328125" style="14" customWidth="1"/>
-    <col min="12802" max="12802" width="5.46484375" style="14" customWidth="1"/>
-    <col min="12803" max="12806" width="6.265625" style="14" customWidth="1"/>
-    <col min="12807" max="12807" width="5.46484375" style="14" customWidth="1"/>
-    <col min="12808" max="12808" width="9.265625" style="14" customWidth="1"/>
-    <col min="12809" max="12809" width="5.46484375" style="14" customWidth="1"/>
-    <col min="12810" max="12813" width="6.265625" style="14" customWidth="1"/>
-    <col min="12814" max="12814" width="5.46484375" style="14" customWidth="1"/>
+    <col min="12801" max="12801" width="9.125" style="14" customWidth="1"/>
+    <col min="12802" max="12802" width="5.5" style="14" customWidth="1"/>
+    <col min="12803" max="12806" width="6.25" style="14" customWidth="1"/>
+    <col min="12807" max="12807" width="5.5" style="14" customWidth="1"/>
+    <col min="12808" max="12808" width="9.25" style="14" customWidth="1"/>
+    <col min="12809" max="12809" width="5.5" style="14" customWidth="1"/>
+    <col min="12810" max="12813" width="6.25" style="14" customWidth="1"/>
+    <col min="12814" max="12814" width="5.5" style="14" customWidth="1"/>
     <col min="12815" max="12815" width="9" style="14"/>
-    <col min="12816" max="12816" width="13.86328125" style="14" customWidth="1"/>
+    <col min="12816" max="12816" width="13.875" style="14" customWidth="1"/>
     <col min="12817" max="13056" width="9" style="14"/>
-    <col min="13057" max="13057" width="9.1328125" style="14" customWidth="1"/>
-    <col min="13058" max="13058" width="5.46484375" style="14" customWidth="1"/>
-    <col min="13059" max="13062" width="6.265625" style="14" customWidth="1"/>
-    <col min="13063" max="13063" width="5.46484375" style="14" customWidth="1"/>
-    <col min="13064" max="13064" width="9.265625" style="14" customWidth="1"/>
-    <col min="13065" max="13065" width="5.46484375" style="14" customWidth="1"/>
-    <col min="13066" max="13069" width="6.265625" style="14" customWidth="1"/>
-    <col min="13070" max="13070" width="5.46484375" style="14" customWidth="1"/>
+    <col min="13057" max="13057" width="9.125" style="14" customWidth="1"/>
+    <col min="13058" max="13058" width="5.5" style="14" customWidth="1"/>
+    <col min="13059" max="13062" width="6.25" style="14" customWidth="1"/>
+    <col min="13063" max="13063" width="5.5" style="14" customWidth="1"/>
+    <col min="13064" max="13064" width="9.25" style="14" customWidth="1"/>
+    <col min="13065" max="13065" width="5.5" style="14" customWidth="1"/>
+    <col min="13066" max="13069" width="6.25" style="14" customWidth="1"/>
+    <col min="13070" max="13070" width="5.5" style="14" customWidth="1"/>
     <col min="13071" max="13071" width="9" style="14"/>
-    <col min="13072" max="13072" width="13.86328125" style="14" customWidth="1"/>
+    <col min="13072" max="13072" width="13.875" style="14" customWidth="1"/>
     <col min="13073" max="13312" width="9" style="14"/>
-    <col min="13313" max="13313" width="9.1328125" style="14" customWidth="1"/>
-    <col min="13314" max="13314" width="5.46484375" style="14" customWidth="1"/>
-    <col min="13315" max="13318" width="6.265625" style="14" customWidth="1"/>
-    <col min="13319" max="13319" width="5.46484375" style="14" customWidth="1"/>
-    <col min="13320" max="13320" width="9.265625" style="14" customWidth="1"/>
-    <col min="13321" max="13321" width="5.46484375" style="14" customWidth="1"/>
-    <col min="13322" max="13325" width="6.265625" style="14" customWidth="1"/>
-    <col min="13326" max="13326" width="5.46484375" style="14" customWidth="1"/>
+    <col min="13313" max="13313" width="9.125" style="14" customWidth="1"/>
+    <col min="13314" max="13314" width="5.5" style="14" customWidth="1"/>
+    <col min="13315" max="13318" width="6.25" style="14" customWidth="1"/>
+    <col min="13319" max="13319" width="5.5" style="14" customWidth="1"/>
+    <col min="13320" max="13320" width="9.25" style="14" customWidth="1"/>
+    <col min="13321" max="13321" width="5.5" style="14" customWidth="1"/>
+    <col min="13322" max="13325" width="6.25" style="14" customWidth="1"/>
+    <col min="13326" max="13326" width="5.5" style="14" customWidth="1"/>
     <col min="13327" max="13327" width="9" style="14"/>
-    <col min="13328" max="13328" width="13.86328125" style="14" customWidth="1"/>
+    <col min="13328" max="13328" width="13.875" style="14" customWidth="1"/>
     <col min="13329" max="13568" width="9" style="14"/>
-    <col min="13569" max="13569" width="9.1328125" style="14" customWidth="1"/>
-    <col min="13570" max="13570" width="5.46484375" style="14" customWidth="1"/>
-    <col min="13571" max="13574" width="6.265625" style="14" customWidth="1"/>
-    <col min="13575" max="13575" width="5.46484375" style="14" customWidth="1"/>
-    <col min="13576" max="13576" width="9.265625" style="14" customWidth="1"/>
-    <col min="13577" max="13577" width="5.46484375" style="14" customWidth="1"/>
-    <col min="13578" max="13581" width="6.265625" style="14" customWidth="1"/>
-    <col min="13582" max="13582" width="5.46484375" style="14" customWidth="1"/>
+    <col min="13569" max="13569" width="9.125" style="14" customWidth="1"/>
+    <col min="13570" max="13570" width="5.5" style="14" customWidth="1"/>
+    <col min="13571" max="13574" width="6.25" style="14" customWidth="1"/>
+    <col min="13575" max="13575" width="5.5" style="14" customWidth="1"/>
+    <col min="13576" max="13576" width="9.25" style="14" customWidth="1"/>
+    <col min="13577" max="13577" width="5.5" style="14" customWidth="1"/>
+    <col min="13578" max="13581" width="6.25" style="14" customWidth="1"/>
+    <col min="13582" max="13582" width="5.5" style="14" customWidth="1"/>
     <col min="13583" max="13583" width="9" style="14"/>
-    <col min="13584" max="13584" width="13.86328125" style="14" customWidth="1"/>
+    <col min="13584" max="13584" width="13.875" style="14" customWidth="1"/>
     <col min="13585" max="13824" width="9" style="14"/>
-    <col min="13825" max="13825" width="9.1328125" style="14" customWidth="1"/>
-    <col min="13826" max="13826" width="5.46484375" style="14" customWidth="1"/>
-    <col min="13827" max="13830" width="6.265625" style="14" customWidth="1"/>
-    <col min="13831" max="13831" width="5.46484375" style="14" customWidth="1"/>
-    <col min="13832" max="13832" width="9.265625" style="14" customWidth="1"/>
-    <col min="13833" max="13833" width="5.46484375" style="14" customWidth="1"/>
-    <col min="13834" max="13837" width="6.265625" style="14" customWidth="1"/>
-    <col min="13838" max="13838" width="5.46484375" style="14" customWidth="1"/>
+    <col min="13825" max="13825" width="9.125" style="14" customWidth="1"/>
+    <col min="13826" max="13826" width="5.5" style="14" customWidth="1"/>
+    <col min="13827" max="13830" width="6.25" style="14" customWidth="1"/>
+    <col min="13831" max="13831" width="5.5" style="14" customWidth="1"/>
+    <col min="13832" max="13832" width="9.25" style="14" customWidth="1"/>
+    <col min="13833" max="13833" width="5.5" style="14" customWidth="1"/>
+    <col min="13834" max="13837" width="6.25" style="14" customWidth="1"/>
+    <col min="13838" max="13838" width="5.5" style="14" customWidth="1"/>
     <col min="13839" max="13839" width="9" style="14"/>
-    <col min="13840" max="13840" width="13.86328125" style="14" customWidth="1"/>
+    <col min="13840" max="13840" width="13.875" style="14" customWidth="1"/>
     <col min="13841" max="14080" width="9" style="14"/>
-    <col min="14081" max="14081" width="9.1328125" style="14" customWidth="1"/>
-    <col min="14082" max="14082" width="5.46484375" style="14" customWidth="1"/>
-    <col min="14083" max="14086" width="6.265625" style="14" customWidth="1"/>
-    <col min="14087" max="14087" width="5.46484375" style="14" customWidth="1"/>
-    <col min="14088" max="14088" width="9.265625" style="14" customWidth="1"/>
-    <col min="14089" max="14089" width="5.46484375" style="14" customWidth="1"/>
-    <col min="14090" max="14093" width="6.265625" style="14" customWidth="1"/>
-    <col min="14094" max="14094" width="5.46484375" style="14" customWidth="1"/>
+    <col min="14081" max="14081" width="9.125" style="14" customWidth="1"/>
+    <col min="14082" max="14082" width="5.5" style="14" customWidth="1"/>
+    <col min="14083" max="14086" width="6.25" style="14" customWidth="1"/>
+    <col min="14087" max="14087" width="5.5" style="14" customWidth="1"/>
+    <col min="14088" max="14088" width="9.25" style="14" customWidth="1"/>
+    <col min="14089" max="14089" width="5.5" style="14" customWidth="1"/>
+    <col min="14090" max="14093" width="6.25" style="14" customWidth="1"/>
+    <col min="14094" max="14094" width="5.5" style="14" customWidth="1"/>
     <col min="14095" max="14095" width="9" style="14"/>
-    <col min="14096" max="14096" width="13.86328125" style="14" customWidth="1"/>
+    <col min="14096" max="14096" width="13.875" style="14" customWidth="1"/>
     <col min="14097" max="14336" width="9" style="14"/>
-    <col min="14337" max="14337" width="9.1328125" style="14" customWidth="1"/>
-    <col min="14338" max="14338" width="5.46484375" style="14" customWidth="1"/>
-    <col min="14339" max="14342" width="6.265625" style="14" customWidth="1"/>
-    <col min="14343" max="14343" width="5.46484375" style="14" customWidth="1"/>
-    <col min="14344" max="14344" width="9.265625" style="14" customWidth="1"/>
-    <col min="14345" max="14345" width="5.46484375" style="14" customWidth="1"/>
-    <col min="14346" max="14349" width="6.265625" style="14" customWidth="1"/>
-    <col min="14350" max="14350" width="5.46484375" style="14" customWidth="1"/>
+    <col min="14337" max="14337" width="9.125" style="14" customWidth="1"/>
+    <col min="14338" max="14338" width="5.5" style="14" customWidth="1"/>
+    <col min="14339" max="14342" width="6.25" style="14" customWidth="1"/>
+    <col min="14343" max="14343" width="5.5" style="14" customWidth="1"/>
+    <col min="14344" max="14344" width="9.25" style="14" customWidth="1"/>
+    <col min="14345" max="14345" width="5.5" style="14" customWidth="1"/>
+    <col min="14346" max="14349" width="6.25" style="14" customWidth="1"/>
+    <col min="14350" max="14350" width="5.5" style="14" customWidth="1"/>
     <col min="14351" max="14351" width="9" style="14"/>
-    <col min="14352" max="14352" width="13.86328125" style="14" customWidth="1"/>
+    <col min="14352" max="14352" width="13.875" style="14" customWidth="1"/>
     <col min="14353" max="14592" width="9" style="14"/>
-    <col min="14593" max="14593" width="9.1328125" style="14" customWidth="1"/>
-    <col min="14594" max="14594" width="5.46484375" style="14" customWidth="1"/>
-    <col min="14595" max="14598" width="6.265625" style="14" customWidth="1"/>
-    <col min="14599" max="14599" width="5.46484375" style="14" customWidth="1"/>
-    <col min="14600" max="14600" width="9.265625" style="14" customWidth="1"/>
-    <col min="14601" max="14601" width="5.46484375" style="14" customWidth="1"/>
-    <col min="14602" max="14605" width="6.265625" style="14" customWidth="1"/>
-    <col min="14606" max="14606" width="5.46484375" style="14" customWidth="1"/>
+    <col min="14593" max="14593" width="9.125" style="14" customWidth="1"/>
+    <col min="14594" max="14594" width="5.5" style="14" customWidth="1"/>
+    <col min="14595" max="14598" width="6.25" style="14" customWidth="1"/>
+    <col min="14599" max="14599" width="5.5" style="14" customWidth="1"/>
+    <col min="14600" max="14600" width="9.25" style="14" customWidth="1"/>
+    <col min="14601" max="14601" width="5.5" style="14" customWidth="1"/>
+    <col min="14602" max="14605" width="6.25" style="14" customWidth="1"/>
+    <col min="14606" max="14606" width="5.5" style="14" customWidth="1"/>
     <col min="14607" max="14607" width="9" style="14"/>
-    <col min="14608" max="14608" width="13.86328125" style="14" customWidth="1"/>
+    <col min="14608" max="14608" width="13.875" style="14" customWidth="1"/>
     <col min="14609" max="14848" width="9" style="14"/>
-    <col min="14849" max="14849" width="9.1328125" style="14" customWidth="1"/>
-    <col min="14850" max="14850" width="5.46484375" style="14" customWidth="1"/>
-    <col min="14851" max="14854" width="6.265625" style="14" customWidth="1"/>
-    <col min="14855" max="14855" width="5.46484375" style="14" customWidth="1"/>
-    <col min="14856" max="14856" width="9.265625" style="14" customWidth="1"/>
-    <col min="14857" max="14857" width="5.46484375" style="14" customWidth="1"/>
-    <col min="14858" max="14861" width="6.265625" style="14" customWidth="1"/>
-    <col min="14862" max="14862" width="5.46484375" style="14" customWidth="1"/>
+    <col min="14849" max="14849" width="9.125" style="14" customWidth="1"/>
+    <col min="14850" max="14850" width="5.5" style="14" customWidth="1"/>
+    <col min="14851" max="14854" width="6.25" style="14" customWidth="1"/>
+    <col min="14855" max="14855" width="5.5" style="14" customWidth="1"/>
+    <col min="14856" max="14856" width="9.25" style="14" customWidth="1"/>
+    <col min="14857" max="14857" width="5.5" style="14" customWidth="1"/>
+    <col min="14858" max="14861" width="6.25" style="14" customWidth="1"/>
+    <col min="14862" max="14862" width="5.5" style="14" customWidth="1"/>
     <col min="14863" max="14863" width="9" style="14"/>
-    <col min="14864" max="14864" width="13.86328125" style="14" customWidth="1"/>
+    <col min="14864" max="14864" width="13.875" style="14" customWidth="1"/>
     <col min="14865" max="15104" width="9" style="14"/>
-    <col min="15105" max="15105" width="9.1328125" style="14" customWidth="1"/>
-    <col min="15106" max="15106" width="5.46484375" style="14" customWidth="1"/>
-    <col min="15107" max="15110" width="6.265625" style="14" customWidth="1"/>
-    <col min="15111" max="15111" width="5.46484375" style="14" customWidth="1"/>
-    <col min="15112" max="15112" width="9.265625" style="14" customWidth="1"/>
-    <col min="15113" max="15113" width="5.46484375" style="14" customWidth="1"/>
-    <col min="15114" max="15117" width="6.265625" style="14" customWidth="1"/>
-    <col min="15118" max="15118" width="5.46484375" style="14" customWidth="1"/>
+    <col min="15105" max="15105" width="9.125" style="14" customWidth="1"/>
+    <col min="15106" max="15106" width="5.5" style="14" customWidth="1"/>
+    <col min="15107" max="15110" width="6.25" style="14" customWidth="1"/>
+    <col min="15111" max="15111" width="5.5" style="14" customWidth="1"/>
+    <col min="15112" max="15112" width="9.25" style="14" customWidth="1"/>
+    <col min="15113" max="15113" width="5.5" style="14" customWidth="1"/>
+    <col min="15114" max="15117" width="6.25" style="14" customWidth="1"/>
+    <col min="15118" max="15118" width="5.5" style="14" customWidth="1"/>
     <col min="15119" max="15119" width="9" style="14"/>
-    <col min="15120" max="15120" width="13.86328125" style="14" customWidth="1"/>
+    <col min="15120" max="15120" width="13.875" style="14" customWidth="1"/>
     <col min="15121" max="15360" width="9" style="14"/>
-    <col min="15361" max="15361" width="9.1328125" style="14" customWidth="1"/>
-    <col min="15362" max="15362" width="5.46484375" style="14" customWidth="1"/>
-    <col min="15363" max="15366" width="6.265625" style="14" customWidth="1"/>
-    <col min="15367" max="15367" width="5.46484375" style="14" customWidth="1"/>
-    <col min="15368" max="15368" width="9.265625" style="14" customWidth="1"/>
-    <col min="15369" max="15369" width="5.46484375" style="14" customWidth="1"/>
-    <col min="15370" max="15373" width="6.265625" style="14" customWidth="1"/>
-    <col min="15374" max="15374" width="5.46484375" style="14" customWidth="1"/>
+    <col min="15361" max="15361" width="9.125" style="14" customWidth="1"/>
+    <col min="15362" max="15362" width="5.5" style="14" customWidth="1"/>
+    <col min="15363" max="15366" width="6.25" style="14" customWidth="1"/>
+    <col min="15367" max="15367" width="5.5" style="14" customWidth="1"/>
+    <col min="15368" max="15368" width="9.25" style="14" customWidth="1"/>
+    <col min="15369" max="15369" width="5.5" style="14" customWidth="1"/>
+    <col min="15370" max="15373" width="6.25" style="14" customWidth="1"/>
+    <col min="15374" max="15374" width="5.5" style="14" customWidth="1"/>
     <col min="15375" max="15375" width="9" style="14"/>
-    <col min="15376" max="15376" width="13.86328125" style="14" customWidth="1"/>
+    <col min="15376" max="15376" width="13.875" style="14" customWidth="1"/>
     <col min="15377" max="15616" width="9" style="14"/>
-    <col min="15617" max="15617" width="9.1328125" style="14" customWidth="1"/>
-    <col min="15618" max="15618" width="5.46484375" style="14" customWidth="1"/>
-    <col min="15619" max="15622" width="6.265625" style="14" customWidth="1"/>
-    <col min="15623" max="15623" width="5.46484375" style="14" customWidth="1"/>
-    <col min="15624" max="15624" width="9.265625" style="14" customWidth="1"/>
-    <col min="15625" max="15625" width="5.46484375" style="14" customWidth="1"/>
-    <col min="15626" max="15629" width="6.265625" style="14" customWidth="1"/>
-    <col min="15630" max="15630" width="5.46484375" style="14" customWidth="1"/>
+    <col min="15617" max="15617" width="9.125" style="14" customWidth="1"/>
+    <col min="15618" max="15618" width="5.5" style="14" customWidth="1"/>
+    <col min="15619" max="15622" width="6.25" style="14" customWidth="1"/>
+    <col min="15623" max="15623" width="5.5" style="14" customWidth="1"/>
+    <col min="15624" max="15624" width="9.25" style="14" customWidth="1"/>
+    <col min="15625" max="15625" width="5.5" style="14" customWidth="1"/>
+    <col min="15626" max="15629" width="6.25" style="14" customWidth="1"/>
+    <col min="15630" max="15630" width="5.5" style="14" customWidth="1"/>
     <col min="15631" max="15631" width="9" style="14"/>
-    <col min="15632" max="15632" width="13.86328125" style="14" customWidth="1"/>
+    <col min="15632" max="15632" width="13.875" style="14" customWidth="1"/>
     <col min="15633" max="15872" width="9" style="14"/>
-    <col min="15873" max="15873" width="9.1328125" style="14" customWidth="1"/>
-    <col min="15874" max="15874" width="5.46484375" style="14" customWidth="1"/>
-    <col min="15875" max="15878" width="6.265625" style="14" customWidth="1"/>
-    <col min="15879" max="15879" width="5.46484375" style="14" customWidth="1"/>
-    <col min="15880" max="15880" width="9.265625" style="14" customWidth="1"/>
-    <col min="15881" max="15881" width="5.46484375" style="14" customWidth="1"/>
-    <col min="15882" max="15885" width="6.265625" style="14" customWidth="1"/>
-    <col min="15886" max="15886" width="5.46484375" style="14" customWidth="1"/>
+    <col min="15873" max="15873" width="9.125" style="14" customWidth="1"/>
+    <col min="15874" max="15874" width="5.5" style="14" customWidth="1"/>
+    <col min="15875" max="15878" width="6.25" style="14" customWidth="1"/>
+    <col min="15879" max="15879" width="5.5" style="14" customWidth="1"/>
+    <col min="15880" max="15880" width="9.25" style="14" customWidth="1"/>
+    <col min="15881" max="15881" width="5.5" style="14" customWidth="1"/>
+    <col min="15882" max="15885" width="6.25" style="14" customWidth="1"/>
+    <col min="15886" max="15886" width="5.5" style="14" customWidth="1"/>
     <col min="15887" max="15887" width="9" style="14"/>
-    <col min="15888" max="15888" width="13.86328125" style="14" customWidth="1"/>
+    <col min="15888" max="15888" width="13.875" style="14" customWidth="1"/>
     <col min="15889" max="16128" width="9" style="14"/>
-    <col min="16129" max="16129" width="9.1328125" style="14" customWidth="1"/>
-    <col min="16130" max="16130" width="5.46484375" style="14" customWidth="1"/>
-    <col min="16131" max="16134" width="6.265625" style="14" customWidth="1"/>
-    <col min="16135" max="16135" width="5.46484375" style="14" customWidth="1"/>
-    <col min="16136" max="16136" width="9.265625" style="14" customWidth="1"/>
-    <col min="16137" max="16137" width="5.46484375" style="14" customWidth="1"/>
-    <col min="16138" max="16141" width="6.265625" style="14" customWidth="1"/>
-    <col min="16142" max="16142" width="5.46484375" style="14" customWidth="1"/>
+    <col min="16129" max="16129" width="9.125" style="14" customWidth="1"/>
+    <col min="16130" max="16130" width="5.5" style="14" customWidth="1"/>
+    <col min="16131" max="16134" width="6.25" style="14" customWidth="1"/>
+    <col min="16135" max="16135" width="5.5" style="14" customWidth="1"/>
+    <col min="16136" max="16136" width="9.25" style="14" customWidth="1"/>
+    <col min="16137" max="16137" width="5.5" style="14" customWidth="1"/>
+    <col min="16138" max="16141" width="6.25" style="14" customWidth="1"/>
+    <col min="16142" max="16142" width="5.5" style="14" customWidth="1"/>
     <col min="16143" max="16143" width="9" style="14"/>
-    <col min="16144" max="16144" width="13.86328125" style="14" customWidth="1"/>
+    <col min="16144" max="16144" width="13.875" style="14" customWidth="1"/>
     <col min="16145" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="93" t="s">
         <v>16</v>
       </c>
@@ -4468,7 +4467,7 @@
       <c r="U1" s="36"/>
       <c r="V1" s="36"/>
     </row>
-    <row r="2" spans="1:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="79" t="s">
         <v>17</v>
       </c>
@@ -4498,7 +4497,7 @@
       <c r="U2" s="36"/>
       <c r="V2" s="36"/>
     </row>
-    <row r="3" spans="1:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="79" t="s">
         <v>20</v>
       </c>
@@ -4532,7 +4531,7 @@
       <c r="U3" s="36"/>
       <c r="V3" s="36"/>
     </row>
-    <row r="4" spans="1:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="79" t="s">
         <v>25</v>
       </c>
@@ -4562,7 +4561,7 @@
       <c r="U4" s="36"/>
       <c r="V4" s="36"/>
     </row>
-    <row r="5" spans="1:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="82" t="s">
         <v>28</v>
       </c>
@@ -4601,7 +4600,7 @@
       <c r="U5" s="36"/>
       <c r="V5" s="36"/>
     </row>
-    <row r="6" spans="1:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="79" t="s">
         <v>34</v>
       </c>
@@ -4640,7 +4639,7 @@
       <c r="U6" s="36"/>
       <c r="V6" s="36"/>
     </row>
-    <row r="7" spans="1:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="82" t="s">
         <v>40</v>
       </c>
@@ -4675,7 +4674,7 @@
       <c r="U7" s="36"/>
       <c r="V7" s="36"/>
     </row>
-    <row r="8" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="84" t="s">
         <v>43</v>
       </c>
@@ -4703,7 +4702,7 @@
       <c r="U8" s="36"/>
       <c r="V8" s="36"/>
     </row>
-    <row r="9" spans="1:22" ht="26" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="79" t="s">
         <v>45</v>
       </c>
@@ -4747,7 +4746,7 @@
       <c r="U9" s="36"/>
       <c r="V9" s="36"/>
     </row>
-    <row r="10" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="79"/>
       <c r="B10" s="79"/>
       <c r="C10" s="17" t="s">
@@ -4787,7 +4786,7 @@
       <c r="U10" s="36"/>
       <c r="V10" s="36"/>
     </row>
-    <row r="11" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22"/>
       <c r="B11" s="18"/>
       <c r="C11" s="22"/>
@@ -4811,7 +4810,7 @@
       <c r="U11" s="42"/>
       <c r="V11" s="42"/>
     </row>
-    <row r="12" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22"/>
       <c r="B12" s="18"/>
       <c r="C12" s="22"/>
@@ -4835,7 +4834,7 @@
       <c r="U12" s="42"/>
       <c r="V12" s="42"/>
     </row>
-    <row r="13" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22"/>
       <c r="B13" s="18"/>
       <c r="C13" s="22"/>
@@ -4859,7 +4858,7 @@
       <c r="U13" s="42"/>
       <c r="V13" s="42"/>
     </row>
-    <row r="14" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="22"/>
       <c r="B14" s="18"/>
       <c r="C14" s="22"/>
@@ -4883,7 +4882,7 @@
       <c r="U14" s="42"/>
       <c r="V14" s="42"/>
     </row>
-    <row r="15" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="22"/>
       <c r="B15" s="18"/>
       <c r="C15" s="22"/>
@@ -4907,7 +4906,7 @@
       <c r="U15" s="42"/>
       <c r="V15" s="42"/>
     </row>
-    <row r="16" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="22"/>
       <c r="B16" s="18"/>
       <c r="C16" s="22"/>
@@ -4931,7 +4930,7 @@
       <c r="U16" s="42"/>
       <c r="V16" s="42"/>
     </row>
-    <row r="17" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="22"/>
       <c r="B17" s="18"/>
       <c r="C17" s="22"/>
@@ -4955,7 +4954,7 @@
       <c r="U17" s="42"/>
       <c r="V17" s="42"/>
     </row>
-    <row r="18" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="22"/>
       <c r="B18" s="18"/>
       <c r="C18" s="22"/>
@@ -4979,7 +4978,7 @@
       <c r="U18" s="42"/>
       <c r="V18" s="42"/>
     </row>
-    <row r="19" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="22"/>
       <c r="B19" s="18"/>
       <c r="C19" s="22"/>
@@ -5003,7 +5002,7 @@
       <c r="U19" s="42"/>
       <c r="V19" s="42"/>
     </row>
-    <row r="20" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="22"/>
       <c r="B20" s="18"/>
       <c r="C20" s="22"/>
@@ -5027,7 +5026,7 @@
       <c r="U20" s="42"/>
       <c r="V20" s="42"/>
     </row>
-    <row r="21" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="22"/>
       <c r="B21" s="18"/>
       <c r="C21" s="22"/>
@@ -5051,7 +5050,7 @@
       <c r="U21" s="42"/>
       <c r="V21" s="42"/>
     </row>
-    <row r="22" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="22"/>
       <c r="B22" s="18"/>
       <c r="C22" s="22"/>
@@ -5075,7 +5074,7 @@
       <c r="U22" s="42"/>
       <c r="V22" s="42"/>
     </row>
-    <row r="23" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="22"/>
       <c r="B23" s="18"/>
       <c r="C23" s="22"/>
@@ -5099,7 +5098,7 @@
       <c r="U23" s="42"/>
       <c r="V23" s="42"/>
     </row>
-    <row r="24" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="22"/>
       <c r="B24" s="18"/>
       <c r="C24" s="22"/>
@@ -5123,7 +5122,7 @@
       <c r="U24" s="42"/>
       <c r="V24" s="42"/>
     </row>
-    <row r="25" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="22"/>
       <c r="B25" s="18"/>
       <c r="C25" s="22"/>
@@ -5147,7 +5146,7 @@
       <c r="U25" s="42"/>
       <c r="V25" s="42"/>
     </row>
-    <row r="26" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="22"/>
       <c r="B26" s="18"/>
       <c r="C26" s="22"/>
@@ -5171,7 +5170,7 @@
       <c r="U26" s="42"/>
       <c r="V26" s="42"/>
     </row>
-    <row r="27" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="22"/>
       <c r="B27" s="18"/>
       <c r="C27" s="22"/>
@@ -5195,7 +5194,7 @@
       <c r="U27" s="42"/>
       <c r="V27" s="42"/>
     </row>
-    <row r="28" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="22"/>
       <c r="B28" s="18"/>
       <c r="C28" s="22"/>
@@ -5219,7 +5218,7 @@
       <c r="U28" s="42"/>
       <c r="V28" s="42"/>
     </row>
-    <row r="29" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="22"/>
       <c r="B29" s="18"/>
       <c r="C29" s="22"/>
@@ -5243,7 +5242,7 @@
       <c r="U29" s="42"/>
       <c r="V29" s="42"/>
     </row>
-    <row r="30" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="22"/>
       <c r="B30" s="18"/>
       <c r="C30" s="22"/>
@@ -5267,7 +5266,7 @@
       <c r="U30" s="42"/>
       <c r="V30" s="42"/>
     </row>
-    <row r="31" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="22"/>
       <c r="B31" s="18"/>
       <c r="C31" s="22"/>
@@ -5291,7 +5290,7 @@
       <c r="U31" s="42"/>
       <c r="V31" s="42"/>
     </row>
-    <row r="32" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="22"/>
       <c r="B32" s="18"/>
       <c r="C32" s="22"/>
@@ -5315,7 +5314,7 @@
       <c r="U32" s="42"/>
       <c r="V32" s="42"/>
     </row>
-    <row r="33" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="22"/>
       <c r="B33" s="18"/>
       <c r="C33" s="22"/>
@@ -5339,7 +5338,7 @@
       <c r="U33" s="42"/>
       <c r="V33" s="42"/>
     </row>
-    <row r="34" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="22"/>
       <c r="B34" s="18"/>
       <c r="C34" s="22"/>
@@ -5363,7 +5362,7 @@
       <c r="U34" s="42"/>
       <c r="V34" s="42"/>
     </row>
-    <row r="35" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -5387,7 +5386,7 @@
       <c r="U35" s="42"/>
       <c r="V35" s="42"/>
     </row>
-    <row r="36" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="80" t="s">
         <v>52</v>
       </c>
@@ -5467,10 +5466,8 @@
   <pageMargins left="0.86614173228346403" right="0.59055118110236204" top="0.78740157480314998" bottom="0.82677165354330695" header="0.35433070866141703" footer="0.59055118110236204"/>
   <pageSetup paperSize="9" scale="96" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C
-陕西交建公路工程试验检测有限公司&amp;R
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R
 第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;L        检测：&amp;R复核：</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -5483,775 +5480,775 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="21.46484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="17.3984375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.46484375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.265625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.1328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="4" customWidth="1"/>
     <col min="8" max="249" width="9" style="3"/>
-    <col min="250" max="250" width="17.3984375" style="3" customWidth="1"/>
-    <col min="251" max="251" width="12.46484375" style="3" customWidth="1"/>
-    <col min="252" max="252" width="11.265625" style="3" customWidth="1"/>
-    <col min="253" max="253" width="11.1328125" style="3" customWidth="1"/>
+    <col min="250" max="250" width="17.375" style="3" customWidth="1"/>
+    <col min="251" max="251" width="12.5" style="3" customWidth="1"/>
+    <col min="252" max="252" width="11.25" style="3" customWidth="1"/>
+    <col min="253" max="253" width="11.125" style="3" customWidth="1"/>
     <col min="254" max="254" width="9" style="3"/>
-    <col min="255" max="255" width="4.265625" style="3" customWidth="1"/>
+    <col min="255" max="255" width="4.25" style="3" customWidth="1"/>
     <col min="256" max="257" width="9" style="3"/>
-    <col min="258" max="258" width="17.3984375" style="3" customWidth="1"/>
-    <col min="259" max="259" width="12.46484375" style="3" customWidth="1"/>
-    <col min="260" max="260" width="11.265625" style="3" customWidth="1"/>
-    <col min="261" max="261" width="11.1328125" style="3" customWidth="1"/>
+    <col min="258" max="258" width="17.375" style="3" customWidth="1"/>
+    <col min="259" max="259" width="12.5" style="3" customWidth="1"/>
+    <col min="260" max="260" width="11.25" style="3" customWidth="1"/>
+    <col min="261" max="261" width="11.125" style="3" customWidth="1"/>
     <col min="262" max="505" width="9" style="3"/>
-    <col min="506" max="506" width="17.3984375" style="3" customWidth="1"/>
-    <col min="507" max="507" width="12.46484375" style="3" customWidth="1"/>
-    <col min="508" max="508" width="11.265625" style="3" customWidth="1"/>
-    <col min="509" max="509" width="11.1328125" style="3" customWidth="1"/>
+    <col min="506" max="506" width="17.375" style="3" customWidth="1"/>
+    <col min="507" max="507" width="12.5" style="3" customWidth="1"/>
+    <col min="508" max="508" width="11.25" style="3" customWidth="1"/>
+    <col min="509" max="509" width="11.125" style="3" customWidth="1"/>
     <col min="510" max="510" width="9" style="3"/>
-    <col min="511" max="511" width="4.265625" style="3" customWidth="1"/>
+    <col min="511" max="511" width="4.25" style="3" customWidth="1"/>
     <col min="512" max="513" width="9" style="3"/>
-    <col min="514" max="514" width="17.3984375" style="3" customWidth="1"/>
-    <col min="515" max="515" width="12.46484375" style="3" customWidth="1"/>
-    <col min="516" max="516" width="11.265625" style="3" customWidth="1"/>
-    <col min="517" max="517" width="11.1328125" style="3" customWidth="1"/>
+    <col min="514" max="514" width="17.375" style="3" customWidth="1"/>
+    <col min="515" max="515" width="12.5" style="3" customWidth="1"/>
+    <col min="516" max="516" width="11.25" style="3" customWidth="1"/>
+    <col min="517" max="517" width="11.125" style="3" customWidth="1"/>
     <col min="518" max="761" width="9" style="3"/>
-    <col min="762" max="762" width="17.3984375" style="3" customWidth="1"/>
-    <col min="763" max="763" width="12.46484375" style="3" customWidth="1"/>
-    <col min="764" max="764" width="11.265625" style="3" customWidth="1"/>
-    <col min="765" max="765" width="11.1328125" style="3" customWidth="1"/>
+    <col min="762" max="762" width="17.375" style="3" customWidth="1"/>
+    <col min="763" max="763" width="12.5" style="3" customWidth="1"/>
+    <col min="764" max="764" width="11.25" style="3" customWidth="1"/>
+    <col min="765" max="765" width="11.125" style="3" customWidth="1"/>
     <col min="766" max="766" width="9" style="3"/>
-    <col min="767" max="767" width="4.265625" style="3" customWidth="1"/>
+    <col min="767" max="767" width="4.25" style="3" customWidth="1"/>
     <col min="768" max="769" width="9" style="3"/>
-    <col min="770" max="770" width="17.3984375" style="3" customWidth="1"/>
-    <col min="771" max="771" width="12.46484375" style="3" customWidth="1"/>
-    <col min="772" max="772" width="11.265625" style="3" customWidth="1"/>
-    <col min="773" max="773" width="11.1328125" style="3" customWidth="1"/>
+    <col min="770" max="770" width="17.375" style="3" customWidth="1"/>
+    <col min="771" max="771" width="12.5" style="3" customWidth="1"/>
+    <col min="772" max="772" width="11.25" style="3" customWidth="1"/>
+    <col min="773" max="773" width="11.125" style="3" customWidth="1"/>
     <col min="774" max="1017" width="9" style="3"/>
-    <col min="1018" max="1018" width="17.3984375" style="3" customWidth="1"/>
-    <col min="1019" max="1019" width="12.46484375" style="3" customWidth="1"/>
-    <col min="1020" max="1020" width="11.265625" style="3" customWidth="1"/>
-    <col min="1021" max="1021" width="11.1328125" style="3" customWidth="1"/>
+    <col min="1018" max="1018" width="17.375" style="3" customWidth="1"/>
+    <col min="1019" max="1019" width="12.5" style="3" customWidth="1"/>
+    <col min="1020" max="1020" width="11.25" style="3" customWidth="1"/>
+    <col min="1021" max="1021" width="11.125" style="3" customWidth="1"/>
     <col min="1022" max="1022" width="9" style="3"/>
-    <col min="1023" max="1023" width="4.265625" style="3" customWidth="1"/>
+    <col min="1023" max="1023" width="4.25" style="3" customWidth="1"/>
     <col min="1024" max="1025" width="9" style="3"/>
-    <col min="1026" max="1026" width="17.3984375" style="3" customWidth="1"/>
-    <col min="1027" max="1027" width="12.46484375" style="3" customWidth="1"/>
-    <col min="1028" max="1028" width="11.265625" style="3" customWidth="1"/>
-    <col min="1029" max="1029" width="11.1328125" style="3" customWidth="1"/>
+    <col min="1026" max="1026" width="17.375" style="3" customWidth="1"/>
+    <col min="1027" max="1027" width="12.5" style="3" customWidth="1"/>
+    <col min="1028" max="1028" width="11.25" style="3" customWidth="1"/>
+    <col min="1029" max="1029" width="11.125" style="3" customWidth="1"/>
     <col min="1030" max="1273" width="9" style="3"/>
-    <col min="1274" max="1274" width="17.3984375" style="3" customWidth="1"/>
-    <col min="1275" max="1275" width="12.46484375" style="3" customWidth="1"/>
-    <col min="1276" max="1276" width="11.265625" style="3" customWidth="1"/>
-    <col min="1277" max="1277" width="11.1328125" style="3" customWidth="1"/>
+    <col min="1274" max="1274" width="17.375" style="3" customWidth="1"/>
+    <col min="1275" max="1275" width="12.5" style="3" customWidth="1"/>
+    <col min="1276" max="1276" width="11.25" style="3" customWidth="1"/>
+    <col min="1277" max="1277" width="11.125" style="3" customWidth="1"/>
     <col min="1278" max="1278" width="9" style="3"/>
-    <col min="1279" max="1279" width="4.265625" style="3" customWidth="1"/>
+    <col min="1279" max="1279" width="4.25" style="3" customWidth="1"/>
     <col min="1280" max="1281" width="9" style="3"/>
-    <col min="1282" max="1282" width="17.3984375" style="3" customWidth="1"/>
-    <col min="1283" max="1283" width="12.46484375" style="3" customWidth="1"/>
-    <col min="1284" max="1284" width="11.265625" style="3" customWidth="1"/>
-    <col min="1285" max="1285" width="11.1328125" style="3" customWidth="1"/>
+    <col min="1282" max="1282" width="17.375" style="3" customWidth="1"/>
+    <col min="1283" max="1283" width="12.5" style="3" customWidth="1"/>
+    <col min="1284" max="1284" width="11.25" style="3" customWidth="1"/>
+    <col min="1285" max="1285" width="11.125" style="3" customWidth="1"/>
     <col min="1286" max="1529" width="9" style="3"/>
-    <col min="1530" max="1530" width="17.3984375" style="3" customWidth="1"/>
-    <col min="1531" max="1531" width="12.46484375" style="3" customWidth="1"/>
-    <col min="1532" max="1532" width="11.265625" style="3" customWidth="1"/>
-    <col min="1533" max="1533" width="11.1328125" style="3" customWidth="1"/>
+    <col min="1530" max="1530" width="17.375" style="3" customWidth="1"/>
+    <col min="1531" max="1531" width="12.5" style="3" customWidth="1"/>
+    <col min="1532" max="1532" width="11.25" style="3" customWidth="1"/>
+    <col min="1533" max="1533" width="11.125" style="3" customWidth="1"/>
     <col min="1534" max="1534" width="9" style="3"/>
-    <col min="1535" max="1535" width="4.265625" style="3" customWidth="1"/>
+    <col min="1535" max="1535" width="4.25" style="3" customWidth="1"/>
     <col min="1536" max="1537" width="9" style="3"/>
-    <col min="1538" max="1538" width="17.3984375" style="3" customWidth="1"/>
-    <col min="1539" max="1539" width="12.46484375" style="3" customWidth="1"/>
-    <col min="1540" max="1540" width="11.265625" style="3" customWidth="1"/>
-    <col min="1541" max="1541" width="11.1328125" style="3" customWidth="1"/>
+    <col min="1538" max="1538" width="17.375" style="3" customWidth="1"/>
+    <col min="1539" max="1539" width="12.5" style="3" customWidth="1"/>
+    <col min="1540" max="1540" width="11.25" style="3" customWidth="1"/>
+    <col min="1541" max="1541" width="11.125" style="3" customWidth="1"/>
     <col min="1542" max="1785" width="9" style="3"/>
-    <col min="1786" max="1786" width="17.3984375" style="3" customWidth="1"/>
-    <col min="1787" max="1787" width="12.46484375" style="3" customWidth="1"/>
-    <col min="1788" max="1788" width="11.265625" style="3" customWidth="1"/>
-    <col min="1789" max="1789" width="11.1328125" style="3" customWidth="1"/>
+    <col min="1786" max="1786" width="17.375" style="3" customWidth="1"/>
+    <col min="1787" max="1787" width="12.5" style="3" customWidth="1"/>
+    <col min="1788" max="1788" width="11.25" style="3" customWidth="1"/>
+    <col min="1789" max="1789" width="11.125" style="3" customWidth="1"/>
     <col min="1790" max="1790" width="9" style="3"/>
-    <col min="1791" max="1791" width="4.265625" style="3" customWidth="1"/>
+    <col min="1791" max="1791" width="4.25" style="3" customWidth="1"/>
     <col min="1792" max="1793" width="9" style="3"/>
-    <col min="1794" max="1794" width="17.3984375" style="3" customWidth="1"/>
-    <col min="1795" max="1795" width="12.46484375" style="3" customWidth="1"/>
-    <col min="1796" max="1796" width="11.265625" style="3" customWidth="1"/>
-    <col min="1797" max="1797" width="11.1328125" style="3" customWidth="1"/>
+    <col min="1794" max="1794" width="17.375" style="3" customWidth="1"/>
+    <col min="1795" max="1795" width="12.5" style="3" customWidth="1"/>
+    <col min="1796" max="1796" width="11.25" style="3" customWidth="1"/>
+    <col min="1797" max="1797" width="11.125" style="3" customWidth="1"/>
     <col min="1798" max="2041" width="9" style="3"/>
-    <col min="2042" max="2042" width="17.3984375" style="3" customWidth="1"/>
-    <col min="2043" max="2043" width="12.46484375" style="3" customWidth="1"/>
-    <col min="2044" max="2044" width="11.265625" style="3" customWidth="1"/>
-    <col min="2045" max="2045" width="11.1328125" style="3" customWidth="1"/>
+    <col min="2042" max="2042" width="17.375" style="3" customWidth="1"/>
+    <col min="2043" max="2043" width="12.5" style="3" customWidth="1"/>
+    <col min="2044" max="2044" width="11.25" style="3" customWidth="1"/>
+    <col min="2045" max="2045" width="11.125" style="3" customWidth="1"/>
     <col min="2046" max="2046" width="9" style="3"/>
-    <col min="2047" max="2047" width="4.265625" style="3" customWidth="1"/>
+    <col min="2047" max="2047" width="4.25" style="3" customWidth="1"/>
     <col min="2048" max="2049" width="9" style="3"/>
-    <col min="2050" max="2050" width="17.3984375" style="3" customWidth="1"/>
-    <col min="2051" max="2051" width="12.46484375" style="3" customWidth="1"/>
-    <col min="2052" max="2052" width="11.265625" style="3" customWidth="1"/>
-    <col min="2053" max="2053" width="11.1328125" style="3" customWidth="1"/>
+    <col min="2050" max="2050" width="17.375" style="3" customWidth="1"/>
+    <col min="2051" max="2051" width="12.5" style="3" customWidth="1"/>
+    <col min="2052" max="2052" width="11.25" style="3" customWidth="1"/>
+    <col min="2053" max="2053" width="11.125" style="3" customWidth="1"/>
     <col min="2054" max="2297" width="9" style="3"/>
-    <col min="2298" max="2298" width="17.3984375" style="3" customWidth="1"/>
-    <col min="2299" max="2299" width="12.46484375" style="3" customWidth="1"/>
-    <col min="2300" max="2300" width="11.265625" style="3" customWidth="1"/>
-    <col min="2301" max="2301" width="11.1328125" style="3" customWidth="1"/>
+    <col min="2298" max="2298" width="17.375" style="3" customWidth="1"/>
+    <col min="2299" max="2299" width="12.5" style="3" customWidth="1"/>
+    <col min="2300" max="2300" width="11.25" style="3" customWidth="1"/>
+    <col min="2301" max="2301" width="11.125" style="3" customWidth="1"/>
     <col min="2302" max="2302" width="9" style="3"/>
-    <col min="2303" max="2303" width="4.265625" style="3" customWidth="1"/>
+    <col min="2303" max="2303" width="4.25" style="3" customWidth="1"/>
     <col min="2304" max="2305" width="9" style="3"/>
-    <col min="2306" max="2306" width="17.3984375" style="3" customWidth="1"/>
-    <col min="2307" max="2307" width="12.46484375" style="3" customWidth="1"/>
-    <col min="2308" max="2308" width="11.265625" style="3" customWidth="1"/>
-    <col min="2309" max="2309" width="11.1328125" style="3" customWidth="1"/>
+    <col min="2306" max="2306" width="17.375" style="3" customWidth="1"/>
+    <col min="2307" max="2307" width="12.5" style="3" customWidth="1"/>
+    <col min="2308" max="2308" width="11.25" style="3" customWidth="1"/>
+    <col min="2309" max="2309" width="11.125" style="3" customWidth="1"/>
     <col min="2310" max="2553" width="9" style="3"/>
-    <col min="2554" max="2554" width="17.3984375" style="3" customWidth="1"/>
-    <col min="2555" max="2555" width="12.46484375" style="3" customWidth="1"/>
-    <col min="2556" max="2556" width="11.265625" style="3" customWidth="1"/>
-    <col min="2557" max="2557" width="11.1328125" style="3" customWidth="1"/>
+    <col min="2554" max="2554" width="17.375" style="3" customWidth="1"/>
+    <col min="2555" max="2555" width="12.5" style="3" customWidth="1"/>
+    <col min="2556" max="2556" width="11.25" style="3" customWidth="1"/>
+    <col min="2557" max="2557" width="11.125" style="3" customWidth="1"/>
     <col min="2558" max="2558" width="9" style="3"/>
-    <col min="2559" max="2559" width="4.265625" style="3" customWidth="1"/>
+    <col min="2559" max="2559" width="4.25" style="3" customWidth="1"/>
     <col min="2560" max="2561" width="9" style="3"/>
-    <col min="2562" max="2562" width="17.3984375" style="3" customWidth="1"/>
-    <col min="2563" max="2563" width="12.46484375" style="3" customWidth="1"/>
-    <col min="2564" max="2564" width="11.265625" style="3" customWidth="1"/>
-    <col min="2565" max="2565" width="11.1328125" style="3" customWidth="1"/>
+    <col min="2562" max="2562" width="17.375" style="3" customWidth="1"/>
+    <col min="2563" max="2563" width="12.5" style="3" customWidth="1"/>
+    <col min="2564" max="2564" width="11.25" style="3" customWidth="1"/>
+    <col min="2565" max="2565" width="11.125" style="3" customWidth="1"/>
     <col min="2566" max="2809" width="9" style="3"/>
-    <col min="2810" max="2810" width="17.3984375" style="3" customWidth="1"/>
-    <col min="2811" max="2811" width="12.46484375" style="3" customWidth="1"/>
-    <col min="2812" max="2812" width="11.265625" style="3" customWidth="1"/>
-    <col min="2813" max="2813" width="11.1328125" style="3" customWidth="1"/>
+    <col min="2810" max="2810" width="17.375" style="3" customWidth="1"/>
+    <col min="2811" max="2811" width="12.5" style="3" customWidth="1"/>
+    <col min="2812" max="2812" width="11.25" style="3" customWidth="1"/>
+    <col min="2813" max="2813" width="11.125" style="3" customWidth="1"/>
     <col min="2814" max="2814" width="9" style="3"/>
-    <col min="2815" max="2815" width="4.265625" style="3" customWidth="1"/>
+    <col min="2815" max="2815" width="4.25" style="3" customWidth="1"/>
     <col min="2816" max="2817" width="9" style="3"/>
-    <col min="2818" max="2818" width="17.3984375" style="3" customWidth="1"/>
-    <col min="2819" max="2819" width="12.46484375" style="3" customWidth="1"/>
-    <col min="2820" max="2820" width="11.265625" style="3" customWidth="1"/>
-    <col min="2821" max="2821" width="11.1328125" style="3" customWidth="1"/>
+    <col min="2818" max="2818" width="17.375" style="3" customWidth="1"/>
+    <col min="2819" max="2819" width="12.5" style="3" customWidth="1"/>
+    <col min="2820" max="2820" width="11.25" style="3" customWidth="1"/>
+    <col min="2821" max="2821" width="11.125" style="3" customWidth="1"/>
     <col min="2822" max="3065" width="9" style="3"/>
-    <col min="3066" max="3066" width="17.3984375" style="3" customWidth="1"/>
-    <col min="3067" max="3067" width="12.46484375" style="3" customWidth="1"/>
-    <col min="3068" max="3068" width="11.265625" style="3" customWidth="1"/>
-    <col min="3069" max="3069" width="11.1328125" style="3" customWidth="1"/>
+    <col min="3066" max="3066" width="17.375" style="3" customWidth="1"/>
+    <col min="3067" max="3067" width="12.5" style="3" customWidth="1"/>
+    <col min="3068" max="3068" width="11.25" style="3" customWidth="1"/>
+    <col min="3069" max="3069" width="11.125" style="3" customWidth="1"/>
     <col min="3070" max="3070" width="9" style="3"/>
-    <col min="3071" max="3071" width="4.265625" style="3" customWidth="1"/>
+    <col min="3071" max="3071" width="4.25" style="3" customWidth="1"/>
     <col min="3072" max="3073" width="9" style="3"/>
-    <col min="3074" max="3074" width="17.3984375" style="3" customWidth="1"/>
-    <col min="3075" max="3075" width="12.46484375" style="3" customWidth="1"/>
-    <col min="3076" max="3076" width="11.265625" style="3" customWidth="1"/>
-    <col min="3077" max="3077" width="11.1328125" style="3" customWidth="1"/>
+    <col min="3074" max="3074" width="17.375" style="3" customWidth="1"/>
+    <col min="3075" max="3075" width="12.5" style="3" customWidth="1"/>
+    <col min="3076" max="3076" width="11.25" style="3" customWidth="1"/>
+    <col min="3077" max="3077" width="11.125" style="3" customWidth="1"/>
     <col min="3078" max="3321" width="9" style="3"/>
-    <col min="3322" max="3322" width="17.3984375" style="3" customWidth="1"/>
-    <col min="3323" max="3323" width="12.46484375" style="3" customWidth="1"/>
-    <col min="3324" max="3324" width="11.265625" style="3" customWidth="1"/>
-    <col min="3325" max="3325" width="11.1328125" style="3" customWidth="1"/>
+    <col min="3322" max="3322" width="17.375" style="3" customWidth="1"/>
+    <col min="3323" max="3323" width="12.5" style="3" customWidth="1"/>
+    <col min="3324" max="3324" width="11.25" style="3" customWidth="1"/>
+    <col min="3325" max="3325" width="11.125" style="3" customWidth="1"/>
     <col min="3326" max="3326" width="9" style="3"/>
-    <col min="3327" max="3327" width="4.265625" style="3" customWidth="1"/>
+    <col min="3327" max="3327" width="4.25" style="3" customWidth="1"/>
     <col min="3328" max="3329" width="9" style="3"/>
-    <col min="3330" max="3330" width="17.3984375" style="3" customWidth="1"/>
-    <col min="3331" max="3331" width="12.46484375" style="3" customWidth="1"/>
-    <col min="3332" max="3332" width="11.265625" style="3" customWidth="1"/>
-    <col min="3333" max="3333" width="11.1328125" style="3" customWidth="1"/>
+    <col min="3330" max="3330" width="17.375" style="3" customWidth="1"/>
+    <col min="3331" max="3331" width="12.5" style="3" customWidth="1"/>
+    <col min="3332" max="3332" width="11.25" style="3" customWidth="1"/>
+    <col min="3333" max="3333" width="11.125" style="3" customWidth="1"/>
     <col min="3334" max="3577" width="9" style="3"/>
-    <col min="3578" max="3578" width="17.3984375" style="3" customWidth="1"/>
-    <col min="3579" max="3579" width="12.46484375" style="3" customWidth="1"/>
-    <col min="3580" max="3580" width="11.265625" style="3" customWidth="1"/>
-    <col min="3581" max="3581" width="11.1328125" style="3" customWidth="1"/>
+    <col min="3578" max="3578" width="17.375" style="3" customWidth="1"/>
+    <col min="3579" max="3579" width="12.5" style="3" customWidth="1"/>
+    <col min="3580" max="3580" width="11.25" style="3" customWidth="1"/>
+    <col min="3581" max="3581" width="11.125" style="3" customWidth="1"/>
     <col min="3582" max="3582" width="9" style="3"/>
-    <col min="3583" max="3583" width="4.265625" style="3" customWidth="1"/>
+    <col min="3583" max="3583" width="4.25" style="3" customWidth="1"/>
     <col min="3584" max="3585" width="9" style="3"/>
-    <col min="3586" max="3586" width="17.3984375" style="3" customWidth="1"/>
-    <col min="3587" max="3587" width="12.46484375" style="3" customWidth="1"/>
-    <col min="3588" max="3588" width="11.265625" style="3" customWidth="1"/>
-    <col min="3589" max="3589" width="11.1328125" style="3" customWidth="1"/>
+    <col min="3586" max="3586" width="17.375" style="3" customWidth="1"/>
+    <col min="3587" max="3587" width="12.5" style="3" customWidth="1"/>
+    <col min="3588" max="3588" width="11.25" style="3" customWidth="1"/>
+    <col min="3589" max="3589" width="11.125" style="3" customWidth="1"/>
     <col min="3590" max="3833" width="9" style="3"/>
-    <col min="3834" max="3834" width="17.3984375" style="3" customWidth="1"/>
-    <col min="3835" max="3835" width="12.46484375" style="3" customWidth="1"/>
-    <col min="3836" max="3836" width="11.265625" style="3" customWidth="1"/>
-    <col min="3837" max="3837" width="11.1328125" style="3" customWidth="1"/>
+    <col min="3834" max="3834" width="17.375" style="3" customWidth="1"/>
+    <col min="3835" max="3835" width="12.5" style="3" customWidth="1"/>
+    <col min="3836" max="3836" width="11.25" style="3" customWidth="1"/>
+    <col min="3837" max="3837" width="11.125" style="3" customWidth="1"/>
     <col min="3838" max="3838" width="9" style="3"/>
-    <col min="3839" max="3839" width="4.265625" style="3" customWidth="1"/>
+    <col min="3839" max="3839" width="4.25" style="3" customWidth="1"/>
     <col min="3840" max="3841" width="9" style="3"/>
-    <col min="3842" max="3842" width="17.3984375" style="3" customWidth="1"/>
-    <col min="3843" max="3843" width="12.46484375" style="3" customWidth="1"/>
-    <col min="3844" max="3844" width="11.265625" style="3" customWidth="1"/>
-    <col min="3845" max="3845" width="11.1328125" style="3" customWidth="1"/>
+    <col min="3842" max="3842" width="17.375" style="3" customWidth="1"/>
+    <col min="3843" max="3843" width="12.5" style="3" customWidth="1"/>
+    <col min="3844" max="3844" width="11.25" style="3" customWidth="1"/>
+    <col min="3845" max="3845" width="11.125" style="3" customWidth="1"/>
     <col min="3846" max="4089" width="9" style="3"/>
-    <col min="4090" max="4090" width="17.3984375" style="3" customWidth="1"/>
-    <col min="4091" max="4091" width="12.46484375" style="3" customWidth="1"/>
-    <col min="4092" max="4092" width="11.265625" style="3" customWidth="1"/>
-    <col min="4093" max="4093" width="11.1328125" style="3" customWidth="1"/>
+    <col min="4090" max="4090" width="17.375" style="3" customWidth="1"/>
+    <col min="4091" max="4091" width="12.5" style="3" customWidth="1"/>
+    <col min="4092" max="4092" width="11.25" style="3" customWidth="1"/>
+    <col min="4093" max="4093" width="11.125" style="3" customWidth="1"/>
     <col min="4094" max="4094" width="9" style="3"/>
-    <col min="4095" max="4095" width="4.265625" style="3" customWidth="1"/>
+    <col min="4095" max="4095" width="4.25" style="3" customWidth="1"/>
     <col min="4096" max="4097" width="9" style="3"/>
-    <col min="4098" max="4098" width="17.3984375" style="3" customWidth="1"/>
-    <col min="4099" max="4099" width="12.46484375" style="3" customWidth="1"/>
-    <col min="4100" max="4100" width="11.265625" style="3" customWidth="1"/>
-    <col min="4101" max="4101" width="11.1328125" style="3" customWidth="1"/>
+    <col min="4098" max="4098" width="17.375" style="3" customWidth="1"/>
+    <col min="4099" max="4099" width="12.5" style="3" customWidth="1"/>
+    <col min="4100" max="4100" width="11.25" style="3" customWidth="1"/>
+    <col min="4101" max="4101" width="11.125" style="3" customWidth="1"/>
     <col min="4102" max="4345" width="9" style="3"/>
-    <col min="4346" max="4346" width="17.3984375" style="3" customWidth="1"/>
-    <col min="4347" max="4347" width="12.46484375" style="3" customWidth="1"/>
-    <col min="4348" max="4348" width="11.265625" style="3" customWidth="1"/>
-    <col min="4349" max="4349" width="11.1328125" style="3" customWidth="1"/>
+    <col min="4346" max="4346" width="17.375" style="3" customWidth="1"/>
+    <col min="4347" max="4347" width="12.5" style="3" customWidth="1"/>
+    <col min="4348" max="4348" width="11.25" style="3" customWidth="1"/>
+    <col min="4349" max="4349" width="11.125" style="3" customWidth="1"/>
     <col min="4350" max="4350" width="9" style="3"/>
-    <col min="4351" max="4351" width="4.265625" style="3" customWidth="1"/>
+    <col min="4351" max="4351" width="4.25" style="3" customWidth="1"/>
     <col min="4352" max="4353" width="9" style="3"/>
-    <col min="4354" max="4354" width="17.3984375" style="3" customWidth="1"/>
-    <col min="4355" max="4355" width="12.46484375" style="3" customWidth="1"/>
-    <col min="4356" max="4356" width="11.265625" style="3" customWidth="1"/>
-    <col min="4357" max="4357" width="11.1328125" style="3" customWidth="1"/>
+    <col min="4354" max="4354" width="17.375" style="3" customWidth="1"/>
+    <col min="4355" max="4355" width="12.5" style="3" customWidth="1"/>
+    <col min="4356" max="4356" width="11.25" style="3" customWidth="1"/>
+    <col min="4357" max="4357" width="11.125" style="3" customWidth="1"/>
     <col min="4358" max="4601" width="9" style="3"/>
-    <col min="4602" max="4602" width="17.3984375" style="3" customWidth="1"/>
-    <col min="4603" max="4603" width="12.46484375" style="3" customWidth="1"/>
-    <col min="4604" max="4604" width="11.265625" style="3" customWidth="1"/>
-    <col min="4605" max="4605" width="11.1328125" style="3" customWidth="1"/>
+    <col min="4602" max="4602" width="17.375" style="3" customWidth="1"/>
+    <col min="4603" max="4603" width="12.5" style="3" customWidth="1"/>
+    <col min="4604" max="4604" width="11.25" style="3" customWidth="1"/>
+    <col min="4605" max="4605" width="11.125" style="3" customWidth="1"/>
     <col min="4606" max="4606" width="9" style="3"/>
-    <col min="4607" max="4607" width="4.265625" style="3" customWidth="1"/>
+    <col min="4607" max="4607" width="4.25" style="3" customWidth="1"/>
     <col min="4608" max="4609" width="9" style="3"/>
-    <col min="4610" max="4610" width="17.3984375" style="3" customWidth="1"/>
-    <col min="4611" max="4611" width="12.46484375" style="3" customWidth="1"/>
-    <col min="4612" max="4612" width="11.265625" style="3" customWidth="1"/>
-    <col min="4613" max="4613" width="11.1328125" style="3" customWidth="1"/>
+    <col min="4610" max="4610" width="17.375" style="3" customWidth="1"/>
+    <col min="4611" max="4611" width="12.5" style="3" customWidth="1"/>
+    <col min="4612" max="4612" width="11.25" style="3" customWidth="1"/>
+    <col min="4613" max="4613" width="11.125" style="3" customWidth="1"/>
     <col min="4614" max="4857" width="9" style="3"/>
-    <col min="4858" max="4858" width="17.3984375" style="3" customWidth="1"/>
-    <col min="4859" max="4859" width="12.46484375" style="3" customWidth="1"/>
-    <col min="4860" max="4860" width="11.265625" style="3" customWidth="1"/>
-    <col min="4861" max="4861" width="11.1328125" style="3" customWidth="1"/>
+    <col min="4858" max="4858" width="17.375" style="3" customWidth="1"/>
+    <col min="4859" max="4859" width="12.5" style="3" customWidth="1"/>
+    <col min="4860" max="4860" width="11.25" style="3" customWidth="1"/>
+    <col min="4861" max="4861" width="11.125" style="3" customWidth="1"/>
     <col min="4862" max="4862" width="9" style="3"/>
-    <col min="4863" max="4863" width="4.265625" style="3" customWidth="1"/>
+    <col min="4863" max="4863" width="4.25" style="3" customWidth="1"/>
     <col min="4864" max="4865" width="9" style="3"/>
-    <col min="4866" max="4866" width="17.3984375" style="3" customWidth="1"/>
-    <col min="4867" max="4867" width="12.46484375" style="3" customWidth="1"/>
-    <col min="4868" max="4868" width="11.265625" style="3" customWidth="1"/>
-    <col min="4869" max="4869" width="11.1328125" style="3" customWidth="1"/>
+    <col min="4866" max="4866" width="17.375" style="3" customWidth="1"/>
+    <col min="4867" max="4867" width="12.5" style="3" customWidth="1"/>
+    <col min="4868" max="4868" width="11.25" style="3" customWidth="1"/>
+    <col min="4869" max="4869" width="11.125" style="3" customWidth="1"/>
     <col min="4870" max="5113" width="9" style="3"/>
-    <col min="5114" max="5114" width="17.3984375" style="3" customWidth="1"/>
-    <col min="5115" max="5115" width="12.46484375" style="3" customWidth="1"/>
-    <col min="5116" max="5116" width="11.265625" style="3" customWidth="1"/>
-    <col min="5117" max="5117" width="11.1328125" style="3" customWidth="1"/>
+    <col min="5114" max="5114" width="17.375" style="3" customWidth="1"/>
+    <col min="5115" max="5115" width="12.5" style="3" customWidth="1"/>
+    <col min="5116" max="5116" width="11.25" style="3" customWidth="1"/>
+    <col min="5117" max="5117" width="11.125" style="3" customWidth="1"/>
     <col min="5118" max="5118" width="9" style="3"/>
-    <col min="5119" max="5119" width="4.265625" style="3" customWidth="1"/>
+    <col min="5119" max="5119" width="4.25" style="3" customWidth="1"/>
     <col min="5120" max="5121" width="9" style="3"/>
-    <col min="5122" max="5122" width="17.3984375" style="3" customWidth="1"/>
-    <col min="5123" max="5123" width="12.46484375" style="3" customWidth="1"/>
-    <col min="5124" max="5124" width="11.265625" style="3" customWidth="1"/>
-    <col min="5125" max="5125" width="11.1328125" style="3" customWidth="1"/>
+    <col min="5122" max="5122" width="17.375" style="3" customWidth="1"/>
+    <col min="5123" max="5123" width="12.5" style="3" customWidth="1"/>
+    <col min="5124" max="5124" width="11.25" style="3" customWidth="1"/>
+    <col min="5125" max="5125" width="11.125" style="3" customWidth="1"/>
     <col min="5126" max="5369" width="9" style="3"/>
-    <col min="5370" max="5370" width="17.3984375" style="3" customWidth="1"/>
-    <col min="5371" max="5371" width="12.46484375" style="3" customWidth="1"/>
-    <col min="5372" max="5372" width="11.265625" style="3" customWidth="1"/>
-    <col min="5373" max="5373" width="11.1328125" style="3" customWidth="1"/>
+    <col min="5370" max="5370" width="17.375" style="3" customWidth="1"/>
+    <col min="5371" max="5371" width="12.5" style="3" customWidth="1"/>
+    <col min="5372" max="5372" width="11.25" style="3" customWidth="1"/>
+    <col min="5373" max="5373" width="11.125" style="3" customWidth="1"/>
     <col min="5374" max="5374" width="9" style="3"/>
-    <col min="5375" max="5375" width="4.265625" style="3" customWidth="1"/>
+    <col min="5375" max="5375" width="4.25" style="3" customWidth="1"/>
     <col min="5376" max="5377" width="9" style="3"/>
-    <col min="5378" max="5378" width="17.3984375" style="3" customWidth="1"/>
-    <col min="5379" max="5379" width="12.46484375" style="3" customWidth="1"/>
-    <col min="5380" max="5380" width="11.265625" style="3" customWidth="1"/>
-    <col min="5381" max="5381" width="11.1328125" style="3" customWidth="1"/>
+    <col min="5378" max="5378" width="17.375" style="3" customWidth="1"/>
+    <col min="5379" max="5379" width="12.5" style="3" customWidth="1"/>
+    <col min="5380" max="5380" width="11.25" style="3" customWidth="1"/>
+    <col min="5381" max="5381" width="11.125" style="3" customWidth="1"/>
     <col min="5382" max="5625" width="9" style="3"/>
-    <col min="5626" max="5626" width="17.3984375" style="3" customWidth="1"/>
-    <col min="5627" max="5627" width="12.46484375" style="3" customWidth="1"/>
-    <col min="5628" max="5628" width="11.265625" style="3" customWidth="1"/>
-    <col min="5629" max="5629" width="11.1328125" style="3" customWidth="1"/>
+    <col min="5626" max="5626" width="17.375" style="3" customWidth="1"/>
+    <col min="5627" max="5627" width="12.5" style="3" customWidth="1"/>
+    <col min="5628" max="5628" width="11.25" style="3" customWidth="1"/>
+    <col min="5629" max="5629" width="11.125" style="3" customWidth="1"/>
     <col min="5630" max="5630" width="9" style="3"/>
-    <col min="5631" max="5631" width="4.265625" style="3" customWidth="1"/>
+    <col min="5631" max="5631" width="4.25" style="3" customWidth="1"/>
     <col min="5632" max="5633" width="9" style="3"/>
-    <col min="5634" max="5634" width="17.3984375" style="3" customWidth="1"/>
-    <col min="5635" max="5635" width="12.46484375" style="3" customWidth="1"/>
-    <col min="5636" max="5636" width="11.265625" style="3" customWidth="1"/>
-    <col min="5637" max="5637" width="11.1328125" style="3" customWidth="1"/>
+    <col min="5634" max="5634" width="17.375" style="3" customWidth="1"/>
+    <col min="5635" max="5635" width="12.5" style="3" customWidth="1"/>
+    <col min="5636" max="5636" width="11.25" style="3" customWidth="1"/>
+    <col min="5637" max="5637" width="11.125" style="3" customWidth="1"/>
     <col min="5638" max="5881" width="9" style="3"/>
-    <col min="5882" max="5882" width="17.3984375" style="3" customWidth="1"/>
-    <col min="5883" max="5883" width="12.46484375" style="3" customWidth="1"/>
-    <col min="5884" max="5884" width="11.265625" style="3" customWidth="1"/>
-    <col min="5885" max="5885" width="11.1328125" style="3" customWidth="1"/>
+    <col min="5882" max="5882" width="17.375" style="3" customWidth="1"/>
+    <col min="5883" max="5883" width="12.5" style="3" customWidth="1"/>
+    <col min="5884" max="5884" width="11.25" style="3" customWidth="1"/>
+    <col min="5885" max="5885" width="11.125" style="3" customWidth="1"/>
     <col min="5886" max="5886" width="9" style="3"/>
-    <col min="5887" max="5887" width="4.265625" style="3" customWidth="1"/>
+    <col min="5887" max="5887" width="4.25" style="3" customWidth="1"/>
     <col min="5888" max="5889" width="9" style="3"/>
-    <col min="5890" max="5890" width="17.3984375" style="3" customWidth="1"/>
-    <col min="5891" max="5891" width="12.46484375" style="3" customWidth="1"/>
-    <col min="5892" max="5892" width="11.265625" style="3" customWidth="1"/>
-    <col min="5893" max="5893" width="11.1328125" style="3" customWidth="1"/>
+    <col min="5890" max="5890" width="17.375" style="3" customWidth="1"/>
+    <col min="5891" max="5891" width="12.5" style="3" customWidth="1"/>
+    <col min="5892" max="5892" width="11.25" style="3" customWidth="1"/>
+    <col min="5893" max="5893" width="11.125" style="3" customWidth="1"/>
     <col min="5894" max="6137" width="9" style="3"/>
-    <col min="6138" max="6138" width="17.3984375" style="3" customWidth="1"/>
-    <col min="6139" max="6139" width="12.46484375" style="3" customWidth="1"/>
-    <col min="6140" max="6140" width="11.265625" style="3" customWidth="1"/>
-    <col min="6141" max="6141" width="11.1328125" style="3" customWidth="1"/>
+    <col min="6138" max="6138" width="17.375" style="3" customWidth="1"/>
+    <col min="6139" max="6139" width="12.5" style="3" customWidth="1"/>
+    <col min="6140" max="6140" width="11.25" style="3" customWidth="1"/>
+    <col min="6141" max="6141" width="11.125" style="3" customWidth="1"/>
     <col min="6142" max="6142" width="9" style="3"/>
-    <col min="6143" max="6143" width="4.265625" style="3" customWidth="1"/>
+    <col min="6143" max="6143" width="4.25" style="3" customWidth="1"/>
     <col min="6144" max="6145" width="9" style="3"/>
-    <col min="6146" max="6146" width="17.3984375" style="3" customWidth="1"/>
-    <col min="6147" max="6147" width="12.46484375" style="3" customWidth="1"/>
-    <col min="6148" max="6148" width="11.265625" style="3" customWidth="1"/>
-    <col min="6149" max="6149" width="11.1328125" style="3" customWidth="1"/>
+    <col min="6146" max="6146" width="17.375" style="3" customWidth="1"/>
+    <col min="6147" max="6147" width="12.5" style="3" customWidth="1"/>
+    <col min="6148" max="6148" width="11.25" style="3" customWidth="1"/>
+    <col min="6149" max="6149" width="11.125" style="3" customWidth="1"/>
     <col min="6150" max="6393" width="9" style="3"/>
-    <col min="6394" max="6394" width="17.3984375" style="3" customWidth="1"/>
-    <col min="6395" max="6395" width="12.46484375" style="3" customWidth="1"/>
-    <col min="6396" max="6396" width="11.265625" style="3" customWidth="1"/>
-    <col min="6397" max="6397" width="11.1328125" style="3" customWidth="1"/>
+    <col min="6394" max="6394" width="17.375" style="3" customWidth="1"/>
+    <col min="6395" max="6395" width="12.5" style="3" customWidth="1"/>
+    <col min="6396" max="6396" width="11.25" style="3" customWidth="1"/>
+    <col min="6397" max="6397" width="11.125" style="3" customWidth="1"/>
     <col min="6398" max="6398" width="9" style="3"/>
-    <col min="6399" max="6399" width="4.265625" style="3" customWidth="1"/>
+    <col min="6399" max="6399" width="4.25" style="3" customWidth="1"/>
     <col min="6400" max="6401" width="9" style="3"/>
-    <col min="6402" max="6402" width="17.3984375" style="3" customWidth="1"/>
-    <col min="6403" max="6403" width="12.46484375" style="3" customWidth="1"/>
-    <col min="6404" max="6404" width="11.265625" style="3" customWidth="1"/>
-    <col min="6405" max="6405" width="11.1328125" style="3" customWidth="1"/>
+    <col min="6402" max="6402" width="17.375" style="3" customWidth="1"/>
+    <col min="6403" max="6403" width="12.5" style="3" customWidth="1"/>
+    <col min="6404" max="6404" width="11.25" style="3" customWidth="1"/>
+    <col min="6405" max="6405" width="11.125" style="3" customWidth="1"/>
     <col min="6406" max="6649" width="9" style="3"/>
-    <col min="6650" max="6650" width="17.3984375" style="3" customWidth="1"/>
-    <col min="6651" max="6651" width="12.46484375" style="3" customWidth="1"/>
-    <col min="6652" max="6652" width="11.265625" style="3" customWidth="1"/>
-    <col min="6653" max="6653" width="11.1328125" style="3" customWidth="1"/>
+    <col min="6650" max="6650" width="17.375" style="3" customWidth="1"/>
+    <col min="6651" max="6651" width="12.5" style="3" customWidth="1"/>
+    <col min="6652" max="6652" width="11.25" style="3" customWidth="1"/>
+    <col min="6653" max="6653" width="11.125" style="3" customWidth="1"/>
     <col min="6654" max="6654" width="9" style="3"/>
-    <col min="6655" max="6655" width="4.265625" style="3" customWidth="1"/>
+    <col min="6655" max="6655" width="4.25" style="3" customWidth="1"/>
     <col min="6656" max="6657" width="9" style="3"/>
-    <col min="6658" max="6658" width="17.3984375" style="3" customWidth="1"/>
-    <col min="6659" max="6659" width="12.46484375" style="3" customWidth="1"/>
-    <col min="6660" max="6660" width="11.265625" style="3" customWidth="1"/>
-    <col min="6661" max="6661" width="11.1328125" style="3" customWidth="1"/>
+    <col min="6658" max="6658" width="17.375" style="3" customWidth="1"/>
+    <col min="6659" max="6659" width="12.5" style="3" customWidth="1"/>
+    <col min="6660" max="6660" width="11.25" style="3" customWidth="1"/>
+    <col min="6661" max="6661" width="11.125" style="3" customWidth="1"/>
     <col min="6662" max="6905" width="9" style="3"/>
-    <col min="6906" max="6906" width="17.3984375" style="3" customWidth="1"/>
-    <col min="6907" max="6907" width="12.46484375" style="3" customWidth="1"/>
-    <col min="6908" max="6908" width="11.265625" style="3" customWidth="1"/>
-    <col min="6909" max="6909" width="11.1328125" style="3" customWidth="1"/>
+    <col min="6906" max="6906" width="17.375" style="3" customWidth="1"/>
+    <col min="6907" max="6907" width="12.5" style="3" customWidth="1"/>
+    <col min="6908" max="6908" width="11.25" style="3" customWidth="1"/>
+    <col min="6909" max="6909" width="11.125" style="3" customWidth="1"/>
     <col min="6910" max="6910" width="9" style="3"/>
-    <col min="6911" max="6911" width="4.265625" style="3" customWidth="1"/>
+    <col min="6911" max="6911" width="4.25" style="3" customWidth="1"/>
     <col min="6912" max="6913" width="9" style="3"/>
-    <col min="6914" max="6914" width="17.3984375" style="3" customWidth="1"/>
-    <col min="6915" max="6915" width="12.46484375" style="3" customWidth="1"/>
-    <col min="6916" max="6916" width="11.265625" style="3" customWidth="1"/>
-    <col min="6917" max="6917" width="11.1328125" style="3" customWidth="1"/>
+    <col min="6914" max="6914" width="17.375" style="3" customWidth="1"/>
+    <col min="6915" max="6915" width="12.5" style="3" customWidth="1"/>
+    <col min="6916" max="6916" width="11.25" style="3" customWidth="1"/>
+    <col min="6917" max="6917" width="11.125" style="3" customWidth="1"/>
     <col min="6918" max="7161" width="9" style="3"/>
-    <col min="7162" max="7162" width="17.3984375" style="3" customWidth="1"/>
-    <col min="7163" max="7163" width="12.46484375" style="3" customWidth="1"/>
-    <col min="7164" max="7164" width="11.265625" style="3" customWidth="1"/>
-    <col min="7165" max="7165" width="11.1328125" style="3" customWidth="1"/>
+    <col min="7162" max="7162" width="17.375" style="3" customWidth="1"/>
+    <col min="7163" max="7163" width="12.5" style="3" customWidth="1"/>
+    <col min="7164" max="7164" width="11.25" style="3" customWidth="1"/>
+    <col min="7165" max="7165" width="11.125" style="3" customWidth="1"/>
     <col min="7166" max="7166" width="9" style="3"/>
-    <col min="7167" max="7167" width="4.265625" style="3" customWidth="1"/>
+    <col min="7167" max="7167" width="4.25" style="3" customWidth="1"/>
     <col min="7168" max="7169" width="9" style="3"/>
-    <col min="7170" max="7170" width="17.3984375" style="3" customWidth="1"/>
-    <col min="7171" max="7171" width="12.46484375" style="3" customWidth="1"/>
-    <col min="7172" max="7172" width="11.265625" style="3" customWidth="1"/>
-    <col min="7173" max="7173" width="11.1328125" style="3" customWidth="1"/>
+    <col min="7170" max="7170" width="17.375" style="3" customWidth="1"/>
+    <col min="7171" max="7171" width="12.5" style="3" customWidth="1"/>
+    <col min="7172" max="7172" width="11.25" style="3" customWidth="1"/>
+    <col min="7173" max="7173" width="11.125" style="3" customWidth="1"/>
     <col min="7174" max="7417" width="9" style="3"/>
-    <col min="7418" max="7418" width="17.3984375" style="3" customWidth="1"/>
-    <col min="7419" max="7419" width="12.46484375" style="3" customWidth="1"/>
-    <col min="7420" max="7420" width="11.265625" style="3" customWidth="1"/>
-    <col min="7421" max="7421" width="11.1328125" style="3" customWidth="1"/>
+    <col min="7418" max="7418" width="17.375" style="3" customWidth="1"/>
+    <col min="7419" max="7419" width="12.5" style="3" customWidth="1"/>
+    <col min="7420" max="7420" width="11.25" style="3" customWidth="1"/>
+    <col min="7421" max="7421" width="11.125" style="3" customWidth="1"/>
     <col min="7422" max="7422" width="9" style="3"/>
-    <col min="7423" max="7423" width="4.265625" style="3" customWidth="1"/>
+    <col min="7423" max="7423" width="4.25" style="3" customWidth="1"/>
     <col min="7424" max="7425" width="9" style="3"/>
-    <col min="7426" max="7426" width="17.3984375" style="3" customWidth="1"/>
-    <col min="7427" max="7427" width="12.46484375" style="3" customWidth="1"/>
-    <col min="7428" max="7428" width="11.265625" style="3" customWidth="1"/>
-    <col min="7429" max="7429" width="11.1328125" style="3" customWidth="1"/>
+    <col min="7426" max="7426" width="17.375" style="3" customWidth="1"/>
+    <col min="7427" max="7427" width="12.5" style="3" customWidth="1"/>
+    <col min="7428" max="7428" width="11.25" style="3" customWidth="1"/>
+    <col min="7429" max="7429" width="11.125" style="3" customWidth="1"/>
     <col min="7430" max="7673" width="9" style="3"/>
-    <col min="7674" max="7674" width="17.3984375" style="3" customWidth="1"/>
-    <col min="7675" max="7675" width="12.46484375" style="3" customWidth="1"/>
-    <col min="7676" max="7676" width="11.265625" style="3" customWidth="1"/>
-    <col min="7677" max="7677" width="11.1328125" style="3" customWidth="1"/>
+    <col min="7674" max="7674" width="17.375" style="3" customWidth="1"/>
+    <col min="7675" max="7675" width="12.5" style="3" customWidth="1"/>
+    <col min="7676" max="7676" width="11.25" style="3" customWidth="1"/>
+    <col min="7677" max="7677" width="11.125" style="3" customWidth="1"/>
     <col min="7678" max="7678" width="9" style="3"/>
-    <col min="7679" max="7679" width="4.265625" style="3" customWidth="1"/>
+    <col min="7679" max="7679" width="4.25" style="3" customWidth="1"/>
     <col min="7680" max="7681" width="9" style="3"/>
-    <col min="7682" max="7682" width="17.3984375" style="3" customWidth="1"/>
-    <col min="7683" max="7683" width="12.46484375" style="3" customWidth="1"/>
-    <col min="7684" max="7684" width="11.265625" style="3" customWidth="1"/>
-    <col min="7685" max="7685" width="11.1328125" style="3" customWidth="1"/>
+    <col min="7682" max="7682" width="17.375" style="3" customWidth="1"/>
+    <col min="7683" max="7683" width="12.5" style="3" customWidth="1"/>
+    <col min="7684" max="7684" width="11.25" style="3" customWidth="1"/>
+    <col min="7685" max="7685" width="11.125" style="3" customWidth="1"/>
     <col min="7686" max="7929" width="9" style="3"/>
-    <col min="7930" max="7930" width="17.3984375" style="3" customWidth="1"/>
-    <col min="7931" max="7931" width="12.46484375" style="3" customWidth="1"/>
-    <col min="7932" max="7932" width="11.265625" style="3" customWidth="1"/>
-    <col min="7933" max="7933" width="11.1328125" style="3" customWidth="1"/>
+    <col min="7930" max="7930" width="17.375" style="3" customWidth="1"/>
+    <col min="7931" max="7931" width="12.5" style="3" customWidth="1"/>
+    <col min="7932" max="7932" width="11.25" style="3" customWidth="1"/>
+    <col min="7933" max="7933" width="11.125" style="3" customWidth="1"/>
     <col min="7934" max="7934" width="9" style="3"/>
-    <col min="7935" max="7935" width="4.265625" style="3" customWidth="1"/>
+    <col min="7935" max="7935" width="4.25" style="3" customWidth="1"/>
     <col min="7936" max="7937" width="9" style="3"/>
-    <col min="7938" max="7938" width="17.3984375" style="3" customWidth="1"/>
-    <col min="7939" max="7939" width="12.46484375" style="3" customWidth="1"/>
-    <col min="7940" max="7940" width="11.265625" style="3" customWidth="1"/>
-    <col min="7941" max="7941" width="11.1328125" style="3" customWidth="1"/>
+    <col min="7938" max="7938" width="17.375" style="3" customWidth="1"/>
+    <col min="7939" max="7939" width="12.5" style="3" customWidth="1"/>
+    <col min="7940" max="7940" width="11.25" style="3" customWidth="1"/>
+    <col min="7941" max="7941" width="11.125" style="3" customWidth="1"/>
     <col min="7942" max="8185" width="9" style="3"/>
-    <col min="8186" max="8186" width="17.3984375" style="3" customWidth="1"/>
-    <col min="8187" max="8187" width="12.46484375" style="3" customWidth="1"/>
-    <col min="8188" max="8188" width="11.265625" style="3" customWidth="1"/>
-    <col min="8189" max="8189" width="11.1328125" style="3" customWidth="1"/>
+    <col min="8186" max="8186" width="17.375" style="3" customWidth="1"/>
+    <col min="8187" max="8187" width="12.5" style="3" customWidth="1"/>
+    <col min="8188" max="8188" width="11.25" style="3" customWidth="1"/>
+    <col min="8189" max="8189" width="11.125" style="3" customWidth="1"/>
     <col min="8190" max="8190" width="9" style="3"/>
-    <col min="8191" max="8191" width="4.265625" style="3" customWidth="1"/>
+    <col min="8191" max="8191" width="4.25" style="3" customWidth="1"/>
     <col min="8192" max="8193" width="9" style="3"/>
-    <col min="8194" max="8194" width="17.3984375" style="3" customWidth="1"/>
-    <col min="8195" max="8195" width="12.46484375" style="3" customWidth="1"/>
-    <col min="8196" max="8196" width="11.265625" style="3" customWidth="1"/>
-    <col min="8197" max="8197" width="11.1328125" style="3" customWidth="1"/>
+    <col min="8194" max="8194" width="17.375" style="3" customWidth="1"/>
+    <col min="8195" max="8195" width="12.5" style="3" customWidth="1"/>
+    <col min="8196" max="8196" width="11.25" style="3" customWidth="1"/>
+    <col min="8197" max="8197" width="11.125" style="3" customWidth="1"/>
     <col min="8198" max="8441" width="9" style="3"/>
-    <col min="8442" max="8442" width="17.3984375" style="3" customWidth="1"/>
-    <col min="8443" max="8443" width="12.46484375" style="3" customWidth="1"/>
-    <col min="8444" max="8444" width="11.265625" style="3" customWidth="1"/>
-    <col min="8445" max="8445" width="11.1328125" style="3" customWidth="1"/>
+    <col min="8442" max="8442" width="17.375" style="3" customWidth="1"/>
+    <col min="8443" max="8443" width="12.5" style="3" customWidth="1"/>
+    <col min="8444" max="8444" width="11.25" style="3" customWidth="1"/>
+    <col min="8445" max="8445" width="11.125" style="3" customWidth="1"/>
     <col min="8446" max="8446" width="9" style="3"/>
-    <col min="8447" max="8447" width="4.265625" style="3" customWidth="1"/>
+    <col min="8447" max="8447" width="4.25" style="3" customWidth="1"/>
     <col min="8448" max="8449" width="9" style="3"/>
-    <col min="8450" max="8450" width="17.3984375" style="3" customWidth="1"/>
-    <col min="8451" max="8451" width="12.46484375" style="3" customWidth="1"/>
-    <col min="8452" max="8452" width="11.265625" style="3" customWidth="1"/>
-    <col min="8453" max="8453" width="11.1328125" style="3" customWidth="1"/>
+    <col min="8450" max="8450" width="17.375" style="3" customWidth="1"/>
+    <col min="8451" max="8451" width="12.5" style="3" customWidth="1"/>
+    <col min="8452" max="8452" width="11.25" style="3" customWidth="1"/>
+    <col min="8453" max="8453" width="11.125" style="3" customWidth="1"/>
     <col min="8454" max="8697" width="9" style="3"/>
-    <col min="8698" max="8698" width="17.3984375" style="3" customWidth="1"/>
-    <col min="8699" max="8699" width="12.46484375" style="3" customWidth="1"/>
-    <col min="8700" max="8700" width="11.265625" style="3" customWidth="1"/>
-    <col min="8701" max="8701" width="11.1328125" style="3" customWidth="1"/>
+    <col min="8698" max="8698" width="17.375" style="3" customWidth="1"/>
+    <col min="8699" max="8699" width="12.5" style="3" customWidth="1"/>
+    <col min="8700" max="8700" width="11.25" style="3" customWidth="1"/>
+    <col min="8701" max="8701" width="11.125" style="3" customWidth="1"/>
     <col min="8702" max="8702" width="9" style="3"/>
-    <col min="8703" max="8703" width="4.265625" style="3" customWidth="1"/>
+    <col min="8703" max="8703" width="4.25" style="3" customWidth="1"/>
     <col min="8704" max="8705" width="9" style="3"/>
-    <col min="8706" max="8706" width="17.3984375" style="3" customWidth="1"/>
-    <col min="8707" max="8707" width="12.46484375" style="3" customWidth="1"/>
-    <col min="8708" max="8708" width="11.265625" style="3" customWidth="1"/>
-    <col min="8709" max="8709" width="11.1328125" style="3" customWidth="1"/>
+    <col min="8706" max="8706" width="17.375" style="3" customWidth="1"/>
+    <col min="8707" max="8707" width="12.5" style="3" customWidth="1"/>
+    <col min="8708" max="8708" width="11.25" style="3" customWidth="1"/>
+    <col min="8709" max="8709" width="11.125" style="3" customWidth="1"/>
     <col min="8710" max="8953" width="9" style="3"/>
-    <col min="8954" max="8954" width="17.3984375" style="3" customWidth="1"/>
-    <col min="8955" max="8955" width="12.46484375" style="3" customWidth="1"/>
-    <col min="8956" max="8956" width="11.265625" style="3" customWidth="1"/>
-    <col min="8957" max="8957" width="11.1328125" style="3" customWidth="1"/>
+    <col min="8954" max="8954" width="17.375" style="3" customWidth="1"/>
+    <col min="8955" max="8955" width="12.5" style="3" customWidth="1"/>
+    <col min="8956" max="8956" width="11.25" style="3" customWidth="1"/>
+    <col min="8957" max="8957" width="11.125" style="3" customWidth="1"/>
     <col min="8958" max="8958" width="9" style="3"/>
-    <col min="8959" max="8959" width="4.265625" style="3" customWidth="1"/>
+    <col min="8959" max="8959" width="4.25" style="3" customWidth="1"/>
     <col min="8960" max="8961" width="9" style="3"/>
-    <col min="8962" max="8962" width="17.3984375" style="3" customWidth="1"/>
-    <col min="8963" max="8963" width="12.46484375" style="3" customWidth="1"/>
-    <col min="8964" max="8964" width="11.265625" style="3" customWidth="1"/>
-    <col min="8965" max="8965" width="11.1328125" style="3" customWidth="1"/>
+    <col min="8962" max="8962" width="17.375" style="3" customWidth="1"/>
+    <col min="8963" max="8963" width="12.5" style="3" customWidth="1"/>
+    <col min="8964" max="8964" width="11.25" style="3" customWidth="1"/>
+    <col min="8965" max="8965" width="11.125" style="3" customWidth="1"/>
     <col min="8966" max="9209" width="9" style="3"/>
-    <col min="9210" max="9210" width="17.3984375" style="3" customWidth="1"/>
-    <col min="9211" max="9211" width="12.46484375" style="3" customWidth="1"/>
-    <col min="9212" max="9212" width="11.265625" style="3" customWidth="1"/>
-    <col min="9213" max="9213" width="11.1328125" style="3" customWidth="1"/>
+    <col min="9210" max="9210" width="17.375" style="3" customWidth="1"/>
+    <col min="9211" max="9211" width="12.5" style="3" customWidth="1"/>
+    <col min="9212" max="9212" width="11.25" style="3" customWidth="1"/>
+    <col min="9213" max="9213" width="11.125" style="3" customWidth="1"/>
     <col min="9214" max="9214" width="9" style="3"/>
-    <col min="9215" max="9215" width="4.265625" style="3" customWidth="1"/>
+    <col min="9215" max="9215" width="4.25" style="3" customWidth="1"/>
     <col min="9216" max="9217" width="9" style="3"/>
-    <col min="9218" max="9218" width="17.3984375" style="3" customWidth="1"/>
-    <col min="9219" max="9219" width="12.46484375" style="3" customWidth="1"/>
-    <col min="9220" max="9220" width="11.265625" style="3" customWidth="1"/>
-    <col min="9221" max="9221" width="11.1328125" style="3" customWidth="1"/>
+    <col min="9218" max="9218" width="17.375" style="3" customWidth="1"/>
+    <col min="9219" max="9219" width="12.5" style="3" customWidth="1"/>
+    <col min="9220" max="9220" width="11.25" style="3" customWidth="1"/>
+    <col min="9221" max="9221" width="11.125" style="3" customWidth="1"/>
     <col min="9222" max="9465" width="9" style="3"/>
-    <col min="9466" max="9466" width="17.3984375" style="3" customWidth="1"/>
-    <col min="9467" max="9467" width="12.46484375" style="3" customWidth="1"/>
-    <col min="9468" max="9468" width="11.265625" style="3" customWidth="1"/>
-    <col min="9469" max="9469" width="11.1328125" style="3" customWidth="1"/>
+    <col min="9466" max="9466" width="17.375" style="3" customWidth="1"/>
+    <col min="9467" max="9467" width="12.5" style="3" customWidth="1"/>
+    <col min="9468" max="9468" width="11.25" style="3" customWidth="1"/>
+    <col min="9469" max="9469" width="11.125" style="3" customWidth="1"/>
     <col min="9470" max="9470" width="9" style="3"/>
-    <col min="9471" max="9471" width="4.265625" style="3" customWidth="1"/>
+    <col min="9471" max="9471" width="4.25" style="3" customWidth="1"/>
     <col min="9472" max="9473" width="9" style="3"/>
-    <col min="9474" max="9474" width="17.3984375" style="3" customWidth="1"/>
-    <col min="9475" max="9475" width="12.46484375" style="3" customWidth="1"/>
-    <col min="9476" max="9476" width="11.265625" style="3" customWidth="1"/>
-    <col min="9477" max="9477" width="11.1328125" style="3" customWidth="1"/>
+    <col min="9474" max="9474" width="17.375" style="3" customWidth="1"/>
+    <col min="9475" max="9475" width="12.5" style="3" customWidth="1"/>
+    <col min="9476" max="9476" width="11.25" style="3" customWidth="1"/>
+    <col min="9477" max="9477" width="11.125" style="3" customWidth="1"/>
     <col min="9478" max="9721" width="9" style="3"/>
-    <col min="9722" max="9722" width="17.3984375" style="3" customWidth="1"/>
-    <col min="9723" max="9723" width="12.46484375" style="3" customWidth="1"/>
-    <col min="9724" max="9724" width="11.265625" style="3" customWidth="1"/>
-    <col min="9725" max="9725" width="11.1328125" style="3" customWidth="1"/>
+    <col min="9722" max="9722" width="17.375" style="3" customWidth="1"/>
+    <col min="9723" max="9723" width="12.5" style="3" customWidth="1"/>
+    <col min="9724" max="9724" width="11.25" style="3" customWidth="1"/>
+    <col min="9725" max="9725" width="11.125" style="3" customWidth="1"/>
     <col min="9726" max="9726" width="9" style="3"/>
-    <col min="9727" max="9727" width="4.265625" style="3" customWidth="1"/>
+    <col min="9727" max="9727" width="4.25" style="3" customWidth="1"/>
     <col min="9728" max="9729" width="9" style="3"/>
-    <col min="9730" max="9730" width="17.3984375" style="3" customWidth="1"/>
-    <col min="9731" max="9731" width="12.46484375" style="3" customWidth="1"/>
-    <col min="9732" max="9732" width="11.265625" style="3" customWidth="1"/>
-    <col min="9733" max="9733" width="11.1328125" style="3" customWidth="1"/>
+    <col min="9730" max="9730" width="17.375" style="3" customWidth="1"/>
+    <col min="9731" max="9731" width="12.5" style="3" customWidth="1"/>
+    <col min="9732" max="9732" width="11.25" style="3" customWidth="1"/>
+    <col min="9733" max="9733" width="11.125" style="3" customWidth="1"/>
     <col min="9734" max="9977" width="9" style="3"/>
-    <col min="9978" max="9978" width="17.3984375" style="3" customWidth="1"/>
-    <col min="9979" max="9979" width="12.46484375" style="3" customWidth="1"/>
-    <col min="9980" max="9980" width="11.265625" style="3" customWidth="1"/>
-    <col min="9981" max="9981" width="11.1328125" style="3" customWidth="1"/>
+    <col min="9978" max="9978" width="17.375" style="3" customWidth="1"/>
+    <col min="9979" max="9979" width="12.5" style="3" customWidth="1"/>
+    <col min="9980" max="9980" width="11.25" style="3" customWidth="1"/>
+    <col min="9981" max="9981" width="11.125" style="3" customWidth="1"/>
     <col min="9982" max="9982" width="9" style="3"/>
-    <col min="9983" max="9983" width="4.265625" style="3" customWidth="1"/>
+    <col min="9983" max="9983" width="4.25" style="3" customWidth="1"/>
     <col min="9984" max="9985" width="9" style="3"/>
-    <col min="9986" max="9986" width="17.3984375" style="3" customWidth="1"/>
-    <col min="9987" max="9987" width="12.46484375" style="3" customWidth="1"/>
-    <col min="9988" max="9988" width="11.265625" style="3" customWidth="1"/>
-    <col min="9989" max="9989" width="11.1328125" style="3" customWidth="1"/>
+    <col min="9986" max="9986" width="17.375" style="3" customWidth="1"/>
+    <col min="9987" max="9987" width="12.5" style="3" customWidth="1"/>
+    <col min="9988" max="9988" width="11.25" style="3" customWidth="1"/>
+    <col min="9989" max="9989" width="11.125" style="3" customWidth="1"/>
     <col min="9990" max="10233" width="9" style="3"/>
-    <col min="10234" max="10234" width="17.3984375" style="3" customWidth="1"/>
-    <col min="10235" max="10235" width="12.46484375" style="3" customWidth="1"/>
-    <col min="10236" max="10236" width="11.265625" style="3" customWidth="1"/>
-    <col min="10237" max="10237" width="11.1328125" style="3" customWidth="1"/>
+    <col min="10234" max="10234" width="17.375" style="3" customWidth="1"/>
+    <col min="10235" max="10235" width="12.5" style="3" customWidth="1"/>
+    <col min="10236" max="10236" width="11.25" style="3" customWidth="1"/>
+    <col min="10237" max="10237" width="11.125" style="3" customWidth="1"/>
     <col min="10238" max="10238" width="9" style="3"/>
-    <col min="10239" max="10239" width="4.265625" style="3" customWidth="1"/>
+    <col min="10239" max="10239" width="4.25" style="3" customWidth="1"/>
     <col min="10240" max="10241" width="9" style="3"/>
-    <col min="10242" max="10242" width="17.3984375" style="3" customWidth="1"/>
-    <col min="10243" max="10243" width="12.46484375" style="3" customWidth="1"/>
-    <col min="10244" max="10244" width="11.265625" style="3" customWidth="1"/>
-    <col min="10245" max="10245" width="11.1328125" style="3" customWidth="1"/>
+    <col min="10242" max="10242" width="17.375" style="3" customWidth="1"/>
+    <col min="10243" max="10243" width="12.5" style="3" customWidth="1"/>
+    <col min="10244" max="10244" width="11.25" style="3" customWidth="1"/>
+    <col min="10245" max="10245" width="11.125" style="3" customWidth="1"/>
     <col min="10246" max="10489" width="9" style="3"/>
-    <col min="10490" max="10490" width="17.3984375" style="3" customWidth="1"/>
-    <col min="10491" max="10491" width="12.46484375" style="3" customWidth="1"/>
-    <col min="10492" max="10492" width="11.265625" style="3" customWidth="1"/>
-    <col min="10493" max="10493" width="11.1328125" style="3" customWidth="1"/>
+    <col min="10490" max="10490" width="17.375" style="3" customWidth="1"/>
+    <col min="10491" max="10491" width="12.5" style="3" customWidth="1"/>
+    <col min="10492" max="10492" width="11.25" style="3" customWidth="1"/>
+    <col min="10493" max="10493" width="11.125" style="3" customWidth="1"/>
     <col min="10494" max="10494" width="9" style="3"/>
-    <col min="10495" max="10495" width="4.265625" style="3" customWidth="1"/>
+    <col min="10495" max="10495" width="4.25" style="3" customWidth="1"/>
     <col min="10496" max="10497" width="9" style="3"/>
-    <col min="10498" max="10498" width="17.3984375" style="3" customWidth="1"/>
-    <col min="10499" max="10499" width="12.46484375" style="3" customWidth="1"/>
-    <col min="10500" max="10500" width="11.265625" style="3" customWidth="1"/>
-    <col min="10501" max="10501" width="11.1328125" style="3" customWidth="1"/>
+    <col min="10498" max="10498" width="17.375" style="3" customWidth="1"/>
+    <col min="10499" max="10499" width="12.5" style="3" customWidth="1"/>
+    <col min="10500" max="10500" width="11.25" style="3" customWidth="1"/>
+    <col min="10501" max="10501" width="11.125" style="3" customWidth="1"/>
     <col min="10502" max="10745" width="9" style="3"/>
-    <col min="10746" max="10746" width="17.3984375" style="3" customWidth="1"/>
-    <col min="10747" max="10747" width="12.46484375" style="3" customWidth="1"/>
-    <col min="10748" max="10748" width="11.265625" style="3" customWidth="1"/>
-    <col min="10749" max="10749" width="11.1328125" style="3" customWidth="1"/>
+    <col min="10746" max="10746" width="17.375" style="3" customWidth="1"/>
+    <col min="10747" max="10747" width="12.5" style="3" customWidth="1"/>
+    <col min="10748" max="10748" width="11.25" style="3" customWidth="1"/>
+    <col min="10749" max="10749" width="11.125" style="3" customWidth="1"/>
     <col min="10750" max="10750" width="9" style="3"/>
-    <col min="10751" max="10751" width="4.265625" style="3" customWidth="1"/>
+    <col min="10751" max="10751" width="4.25" style="3" customWidth="1"/>
     <col min="10752" max="10753" width="9" style="3"/>
-    <col min="10754" max="10754" width="17.3984375" style="3" customWidth="1"/>
-    <col min="10755" max="10755" width="12.46484375" style="3" customWidth="1"/>
-    <col min="10756" max="10756" width="11.265625" style="3" customWidth="1"/>
-    <col min="10757" max="10757" width="11.1328125" style="3" customWidth="1"/>
+    <col min="10754" max="10754" width="17.375" style="3" customWidth="1"/>
+    <col min="10755" max="10755" width="12.5" style="3" customWidth="1"/>
+    <col min="10756" max="10756" width="11.25" style="3" customWidth="1"/>
+    <col min="10757" max="10757" width="11.125" style="3" customWidth="1"/>
     <col min="10758" max="11001" width="9" style="3"/>
-    <col min="11002" max="11002" width="17.3984375" style="3" customWidth="1"/>
-    <col min="11003" max="11003" width="12.46484375" style="3" customWidth="1"/>
-    <col min="11004" max="11004" width="11.265625" style="3" customWidth="1"/>
-    <col min="11005" max="11005" width="11.1328125" style="3" customWidth="1"/>
+    <col min="11002" max="11002" width="17.375" style="3" customWidth="1"/>
+    <col min="11003" max="11003" width="12.5" style="3" customWidth="1"/>
+    <col min="11004" max="11004" width="11.25" style="3" customWidth="1"/>
+    <col min="11005" max="11005" width="11.125" style="3" customWidth="1"/>
     <col min="11006" max="11006" width="9" style="3"/>
-    <col min="11007" max="11007" width="4.265625" style="3" customWidth="1"/>
+    <col min="11007" max="11007" width="4.25" style="3" customWidth="1"/>
     <col min="11008" max="11009" width="9" style="3"/>
-    <col min="11010" max="11010" width="17.3984375" style="3" customWidth="1"/>
-    <col min="11011" max="11011" width="12.46484375" style="3" customWidth="1"/>
-    <col min="11012" max="11012" width="11.265625" style="3" customWidth="1"/>
-    <col min="11013" max="11013" width="11.1328125" style="3" customWidth="1"/>
+    <col min="11010" max="11010" width="17.375" style="3" customWidth="1"/>
+    <col min="11011" max="11011" width="12.5" style="3" customWidth="1"/>
+    <col min="11012" max="11012" width="11.25" style="3" customWidth="1"/>
+    <col min="11013" max="11013" width="11.125" style="3" customWidth="1"/>
     <col min="11014" max="11257" width="9" style="3"/>
-    <col min="11258" max="11258" width="17.3984375" style="3" customWidth="1"/>
-    <col min="11259" max="11259" width="12.46484375" style="3" customWidth="1"/>
-    <col min="11260" max="11260" width="11.265625" style="3" customWidth="1"/>
-    <col min="11261" max="11261" width="11.1328125" style="3" customWidth="1"/>
+    <col min="11258" max="11258" width="17.375" style="3" customWidth="1"/>
+    <col min="11259" max="11259" width="12.5" style="3" customWidth="1"/>
+    <col min="11260" max="11260" width="11.25" style="3" customWidth="1"/>
+    <col min="11261" max="11261" width="11.125" style="3" customWidth="1"/>
     <col min="11262" max="11262" width="9" style="3"/>
-    <col min="11263" max="11263" width="4.265625" style="3" customWidth="1"/>
+    <col min="11263" max="11263" width="4.25" style="3" customWidth="1"/>
     <col min="11264" max="11265" width="9" style="3"/>
-    <col min="11266" max="11266" width="17.3984375" style="3" customWidth="1"/>
-    <col min="11267" max="11267" width="12.46484375" style="3" customWidth="1"/>
-    <col min="11268" max="11268" width="11.265625" style="3" customWidth="1"/>
-    <col min="11269" max="11269" width="11.1328125" style="3" customWidth="1"/>
+    <col min="11266" max="11266" width="17.375" style="3" customWidth="1"/>
+    <col min="11267" max="11267" width="12.5" style="3" customWidth="1"/>
+    <col min="11268" max="11268" width="11.25" style="3" customWidth="1"/>
+    <col min="11269" max="11269" width="11.125" style="3" customWidth="1"/>
     <col min="11270" max="11513" width="9" style="3"/>
-    <col min="11514" max="11514" width="17.3984375" style="3" customWidth="1"/>
-    <col min="11515" max="11515" width="12.46484375" style="3" customWidth="1"/>
-    <col min="11516" max="11516" width="11.265625" style="3" customWidth="1"/>
-    <col min="11517" max="11517" width="11.1328125" style="3" customWidth="1"/>
+    <col min="11514" max="11514" width="17.375" style="3" customWidth="1"/>
+    <col min="11515" max="11515" width="12.5" style="3" customWidth="1"/>
+    <col min="11516" max="11516" width="11.25" style="3" customWidth="1"/>
+    <col min="11517" max="11517" width="11.125" style="3" customWidth="1"/>
     <col min="11518" max="11518" width="9" style="3"/>
-    <col min="11519" max="11519" width="4.265625" style="3" customWidth="1"/>
+    <col min="11519" max="11519" width="4.25" style="3" customWidth="1"/>
     <col min="11520" max="11521" width="9" style="3"/>
-    <col min="11522" max="11522" width="17.3984375" style="3" customWidth="1"/>
-    <col min="11523" max="11523" width="12.46484375" style="3" customWidth="1"/>
-    <col min="11524" max="11524" width="11.265625" style="3" customWidth="1"/>
-    <col min="11525" max="11525" width="11.1328125" style="3" customWidth="1"/>
+    <col min="11522" max="11522" width="17.375" style="3" customWidth="1"/>
+    <col min="11523" max="11523" width="12.5" style="3" customWidth="1"/>
+    <col min="11524" max="11524" width="11.25" style="3" customWidth="1"/>
+    <col min="11525" max="11525" width="11.125" style="3" customWidth="1"/>
     <col min="11526" max="11769" width="9" style="3"/>
-    <col min="11770" max="11770" width="17.3984375" style="3" customWidth="1"/>
-    <col min="11771" max="11771" width="12.46484375" style="3" customWidth="1"/>
-    <col min="11772" max="11772" width="11.265625" style="3" customWidth="1"/>
-    <col min="11773" max="11773" width="11.1328125" style="3" customWidth="1"/>
+    <col min="11770" max="11770" width="17.375" style="3" customWidth="1"/>
+    <col min="11771" max="11771" width="12.5" style="3" customWidth="1"/>
+    <col min="11772" max="11772" width="11.25" style="3" customWidth="1"/>
+    <col min="11773" max="11773" width="11.125" style="3" customWidth="1"/>
     <col min="11774" max="11774" width="9" style="3"/>
-    <col min="11775" max="11775" width="4.265625" style="3" customWidth="1"/>
+    <col min="11775" max="11775" width="4.25" style="3" customWidth="1"/>
     <col min="11776" max="11777" width="9" style="3"/>
-    <col min="11778" max="11778" width="17.3984375" style="3" customWidth="1"/>
-    <col min="11779" max="11779" width="12.46484375" style="3" customWidth="1"/>
-    <col min="11780" max="11780" width="11.265625" style="3" customWidth="1"/>
-    <col min="11781" max="11781" width="11.1328125" style="3" customWidth="1"/>
+    <col min="11778" max="11778" width="17.375" style="3" customWidth="1"/>
+    <col min="11779" max="11779" width="12.5" style="3" customWidth="1"/>
+    <col min="11780" max="11780" width="11.25" style="3" customWidth="1"/>
+    <col min="11781" max="11781" width="11.125" style="3" customWidth="1"/>
     <col min="11782" max="12025" width="9" style="3"/>
-    <col min="12026" max="12026" width="17.3984375" style="3" customWidth="1"/>
-    <col min="12027" max="12027" width="12.46484375" style="3" customWidth="1"/>
-    <col min="12028" max="12028" width="11.265625" style="3" customWidth="1"/>
-    <col min="12029" max="12029" width="11.1328125" style="3" customWidth="1"/>
+    <col min="12026" max="12026" width="17.375" style="3" customWidth="1"/>
+    <col min="12027" max="12027" width="12.5" style="3" customWidth="1"/>
+    <col min="12028" max="12028" width="11.25" style="3" customWidth="1"/>
+    <col min="12029" max="12029" width="11.125" style="3" customWidth="1"/>
     <col min="12030" max="12030" width="9" style="3"/>
-    <col min="12031" max="12031" width="4.265625" style="3" customWidth="1"/>
+    <col min="12031" max="12031" width="4.25" style="3" customWidth="1"/>
     <col min="12032" max="12033" width="9" style="3"/>
-    <col min="12034" max="12034" width="17.3984375" style="3" customWidth="1"/>
-    <col min="12035" max="12035" width="12.46484375" style="3" customWidth="1"/>
-    <col min="12036" max="12036" width="11.265625" style="3" customWidth="1"/>
-    <col min="12037" max="12037" width="11.1328125" style="3" customWidth="1"/>
+    <col min="12034" max="12034" width="17.375" style="3" customWidth="1"/>
+    <col min="12035" max="12035" width="12.5" style="3" customWidth="1"/>
+    <col min="12036" max="12036" width="11.25" style="3" customWidth="1"/>
+    <col min="12037" max="12037" width="11.125" style="3" customWidth="1"/>
     <col min="12038" max="12281" width="9" style="3"/>
-    <col min="12282" max="12282" width="17.3984375" style="3" customWidth="1"/>
-    <col min="12283" max="12283" width="12.46484375" style="3" customWidth="1"/>
-    <col min="12284" max="12284" width="11.265625" style="3" customWidth="1"/>
-    <col min="12285" max="12285" width="11.1328125" style="3" customWidth="1"/>
+    <col min="12282" max="12282" width="17.375" style="3" customWidth="1"/>
+    <col min="12283" max="12283" width="12.5" style="3" customWidth="1"/>
+    <col min="12284" max="12284" width="11.25" style="3" customWidth="1"/>
+    <col min="12285" max="12285" width="11.125" style="3" customWidth="1"/>
     <col min="12286" max="12286" width="9" style="3"/>
-    <col min="12287" max="12287" width="4.265625" style="3" customWidth="1"/>
+    <col min="12287" max="12287" width="4.25" style="3" customWidth="1"/>
     <col min="12288" max="12289" width="9" style="3"/>
-    <col min="12290" max="12290" width="17.3984375" style="3" customWidth="1"/>
-    <col min="12291" max="12291" width="12.46484375" style="3" customWidth="1"/>
-    <col min="12292" max="12292" width="11.265625" style="3" customWidth="1"/>
-    <col min="12293" max="12293" width="11.1328125" style="3" customWidth="1"/>
+    <col min="12290" max="12290" width="17.375" style="3" customWidth="1"/>
+    <col min="12291" max="12291" width="12.5" style="3" customWidth="1"/>
+    <col min="12292" max="12292" width="11.25" style="3" customWidth="1"/>
+    <col min="12293" max="12293" width="11.125" style="3" customWidth="1"/>
     <col min="12294" max="12537" width="9" style="3"/>
-    <col min="12538" max="12538" width="17.3984375" style="3" customWidth="1"/>
-    <col min="12539" max="12539" width="12.46484375" style="3" customWidth="1"/>
-    <col min="12540" max="12540" width="11.265625" style="3" customWidth="1"/>
-    <col min="12541" max="12541" width="11.1328125" style="3" customWidth="1"/>
+    <col min="12538" max="12538" width="17.375" style="3" customWidth="1"/>
+    <col min="12539" max="12539" width="12.5" style="3" customWidth="1"/>
+    <col min="12540" max="12540" width="11.25" style="3" customWidth="1"/>
+    <col min="12541" max="12541" width="11.125" style="3" customWidth="1"/>
     <col min="12542" max="12542" width="9" style="3"/>
-    <col min="12543" max="12543" width="4.265625" style="3" customWidth="1"/>
+    <col min="12543" max="12543" width="4.25" style="3" customWidth="1"/>
     <col min="12544" max="12545" width="9" style="3"/>
-    <col min="12546" max="12546" width="17.3984375" style="3" customWidth="1"/>
-    <col min="12547" max="12547" width="12.46484375" style="3" customWidth="1"/>
-    <col min="12548" max="12548" width="11.265625" style="3" customWidth="1"/>
-    <col min="12549" max="12549" width="11.1328125" style="3" customWidth="1"/>
+    <col min="12546" max="12546" width="17.375" style="3" customWidth="1"/>
+    <col min="12547" max="12547" width="12.5" style="3" customWidth="1"/>
+    <col min="12548" max="12548" width="11.25" style="3" customWidth="1"/>
+    <col min="12549" max="12549" width="11.125" style="3" customWidth="1"/>
     <col min="12550" max="12793" width="9" style="3"/>
-    <col min="12794" max="12794" width="17.3984375" style="3" customWidth="1"/>
-    <col min="12795" max="12795" width="12.46484375" style="3" customWidth="1"/>
-    <col min="12796" max="12796" width="11.265625" style="3" customWidth="1"/>
-    <col min="12797" max="12797" width="11.1328125" style="3" customWidth="1"/>
+    <col min="12794" max="12794" width="17.375" style="3" customWidth="1"/>
+    <col min="12795" max="12795" width="12.5" style="3" customWidth="1"/>
+    <col min="12796" max="12796" width="11.25" style="3" customWidth="1"/>
+    <col min="12797" max="12797" width="11.125" style="3" customWidth="1"/>
     <col min="12798" max="12798" width="9" style="3"/>
-    <col min="12799" max="12799" width="4.265625" style="3" customWidth="1"/>
+    <col min="12799" max="12799" width="4.25" style="3" customWidth="1"/>
     <col min="12800" max="12801" width="9" style="3"/>
-    <col min="12802" max="12802" width="17.3984375" style="3" customWidth="1"/>
-    <col min="12803" max="12803" width="12.46484375" style="3" customWidth="1"/>
-    <col min="12804" max="12804" width="11.265625" style="3" customWidth="1"/>
-    <col min="12805" max="12805" width="11.1328125" style="3" customWidth="1"/>
+    <col min="12802" max="12802" width="17.375" style="3" customWidth="1"/>
+    <col min="12803" max="12803" width="12.5" style="3" customWidth="1"/>
+    <col min="12804" max="12804" width="11.25" style="3" customWidth="1"/>
+    <col min="12805" max="12805" width="11.125" style="3" customWidth="1"/>
     <col min="12806" max="13049" width="9" style="3"/>
-    <col min="13050" max="13050" width="17.3984375" style="3" customWidth="1"/>
-    <col min="13051" max="13051" width="12.46484375" style="3" customWidth="1"/>
-    <col min="13052" max="13052" width="11.265625" style="3" customWidth="1"/>
-    <col min="13053" max="13053" width="11.1328125" style="3" customWidth="1"/>
+    <col min="13050" max="13050" width="17.375" style="3" customWidth="1"/>
+    <col min="13051" max="13051" width="12.5" style="3" customWidth="1"/>
+    <col min="13052" max="13052" width="11.25" style="3" customWidth="1"/>
+    <col min="13053" max="13053" width="11.125" style="3" customWidth="1"/>
     <col min="13054" max="13054" width="9" style="3"/>
-    <col min="13055" max="13055" width="4.265625" style="3" customWidth="1"/>
+    <col min="13055" max="13055" width="4.25" style="3" customWidth="1"/>
     <col min="13056" max="13057" width="9" style="3"/>
-    <col min="13058" max="13058" width="17.3984375" style="3" customWidth="1"/>
-    <col min="13059" max="13059" width="12.46484375" style="3" customWidth="1"/>
-    <col min="13060" max="13060" width="11.265625" style="3" customWidth="1"/>
-    <col min="13061" max="13061" width="11.1328125" style="3" customWidth="1"/>
+    <col min="13058" max="13058" width="17.375" style="3" customWidth="1"/>
+    <col min="13059" max="13059" width="12.5" style="3" customWidth="1"/>
+    <col min="13060" max="13060" width="11.25" style="3" customWidth="1"/>
+    <col min="13061" max="13061" width="11.125" style="3" customWidth="1"/>
     <col min="13062" max="13305" width="9" style="3"/>
-    <col min="13306" max="13306" width="17.3984375" style="3" customWidth="1"/>
-    <col min="13307" max="13307" width="12.46484375" style="3" customWidth="1"/>
-    <col min="13308" max="13308" width="11.265625" style="3" customWidth="1"/>
-    <col min="13309" max="13309" width="11.1328125" style="3" customWidth="1"/>
+    <col min="13306" max="13306" width="17.375" style="3" customWidth="1"/>
+    <col min="13307" max="13307" width="12.5" style="3" customWidth="1"/>
+    <col min="13308" max="13308" width="11.25" style="3" customWidth="1"/>
+    <col min="13309" max="13309" width="11.125" style="3" customWidth="1"/>
     <col min="13310" max="13310" width="9" style="3"/>
-    <col min="13311" max="13311" width="4.265625" style="3" customWidth="1"/>
+    <col min="13311" max="13311" width="4.25" style="3" customWidth="1"/>
     <col min="13312" max="13313" width="9" style="3"/>
-    <col min="13314" max="13314" width="17.3984375" style="3" customWidth="1"/>
-    <col min="13315" max="13315" width="12.46484375" style="3" customWidth="1"/>
-    <col min="13316" max="13316" width="11.265625" style="3" customWidth="1"/>
-    <col min="13317" max="13317" width="11.1328125" style="3" customWidth="1"/>
+    <col min="13314" max="13314" width="17.375" style="3" customWidth="1"/>
+    <col min="13315" max="13315" width="12.5" style="3" customWidth="1"/>
+    <col min="13316" max="13316" width="11.25" style="3" customWidth="1"/>
+    <col min="13317" max="13317" width="11.125" style="3" customWidth="1"/>
     <col min="13318" max="13561" width="9" style="3"/>
-    <col min="13562" max="13562" width="17.3984375" style="3" customWidth="1"/>
-    <col min="13563" max="13563" width="12.46484375" style="3" customWidth="1"/>
-    <col min="13564" max="13564" width="11.265625" style="3" customWidth="1"/>
-    <col min="13565" max="13565" width="11.1328125" style="3" customWidth="1"/>
+    <col min="13562" max="13562" width="17.375" style="3" customWidth="1"/>
+    <col min="13563" max="13563" width="12.5" style="3" customWidth="1"/>
+    <col min="13564" max="13564" width="11.25" style="3" customWidth="1"/>
+    <col min="13565" max="13565" width="11.125" style="3" customWidth="1"/>
     <col min="13566" max="13566" width="9" style="3"/>
-    <col min="13567" max="13567" width="4.265625" style="3" customWidth="1"/>
+    <col min="13567" max="13567" width="4.25" style="3" customWidth="1"/>
     <col min="13568" max="13569" width="9" style="3"/>
-    <col min="13570" max="13570" width="17.3984375" style="3" customWidth="1"/>
-    <col min="13571" max="13571" width="12.46484375" style="3" customWidth="1"/>
-    <col min="13572" max="13572" width="11.265625" style="3" customWidth="1"/>
-    <col min="13573" max="13573" width="11.1328125" style="3" customWidth="1"/>
+    <col min="13570" max="13570" width="17.375" style="3" customWidth="1"/>
+    <col min="13571" max="13571" width="12.5" style="3" customWidth="1"/>
+    <col min="13572" max="13572" width="11.25" style="3" customWidth="1"/>
+    <col min="13573" max="13573" width="11.125" style="3" customWidth="1"/>
     <col min="13574" max="13817" width="9" style="3"/>
-    <col min="13818" max="13818" width="17.3984375" style="3" customWidth="1"/>
-    <col min="13819" max="13819" width="12.46484375" style="3" customWidth="1"/>
-    <col min="13820" max="13820" width="11.265625" style="3" customWidth="1"/>
-    <col min="13821" max="13821" width="11.1328125" style="3" customWidth="1"/>
+    <col min="13818" max="13818" width="17.375" style="3" customWidth="1"/>
+    <col min="13819" max="13819" width="12.5" style="3" customWidth="1"/>
+    <col min="13820" max="13820" width="11.25" style="3" customWidth="1"/>
+    <col min="13821" max="13821" width="11.125" style="3" customWidth="1"/>
     <col min="13822" max="13822" width="9" style="3"/>
-    <col min="13823" max="13823" width="4.265625" style="3" customWidth="1"/>
+    <col min="13823" max="13823" width="4.25" style="3" customWidth="1"/>
     <col min="13824" max="13825" width="9" style="3"/>
-    <col min="13826" max="13826" width="17.3984375" style="3" customWidth="1"/>
-    <col min="13827" max="13827" width="12.46484375" style="3" customWidth="1"/>
-    <col min="13828" max="13828" width="11.265625" style="3" customWidth="1"/>
-    <col min="13829" max="13829" width="11.1328125" style="3" customWidth="1"/>
+    <col min="13826" max="13826" width="17.375" style="3" customWidth="1"/>
+    <col min="13827" max="13827" width="12.5" style="3" customWidth="1"/>
+    <col min="13828" max="13828" width="11.25" style="3" customWidth="1"/>
+    <col min="13829" max="13829" width="11.125" style="3" customWidth="1"/>
     <col min="13830" max="14073" width="9" style="3"/>
-    <col min="14074" max="14074" width="17.3984375" style="3" customWidth="1"/>
-    <col min="14075" max="14075" width="12.46484375" style="3" customWidth="1"/>
-    <col min="14076" max="14076" width="11.265625" style="3" customWidth="1"/>
-    <col min="14077" max="14077" width="11.1328125" style="3" customWidth="1"/>
+    <col min="14074" max="14074" width="17.375" style="3" customWidth="1"/>
+    <col min="14075" max="14075" width="12.5" style="3" customWidth="1"/>
+    <col min="14076" max="14076" width="11.25" style="3" customWidth="1"/>
+    <col min="14077" max="14077" width="11.125" style="3" customWidth="1"/>
     <col min="14078" max="14078" width="9" style="3"/>
-    <col min="14079" max="14079" width="4.265625" style="3" customWidth="1"/>
+    <col min="14079" max="14079" width="4.25" style="3" customWidth="1"/>
     <col min="14080" max="14081" width="9" style="3"/>
-    <col min="14082" max="14082" width="17.3984375" style="3" customWidth="1"/>
-    <col min="14083" max="14083" width="12.46484375" style="3" customWidth="1"/>
-    <col min="14084" max="14084" width="11.265625" style="3" customWidth="1"/>
-    <col min="14085" max="14085" width="11.1328125" style="3" customWidth="1"/>
+    <col min="14082" max="14082" width="17.375" style="3" customWidth="1"/>
+    <col min="14083" max="14083" width="12.5" style="3" customWidth="1"/>
+    <col min="14084" max="14084" width="11.25" style="3" customWidth="1"/>
+    <col min="14085" max="14085" width="11.125" style="3" customWidth="1"/>
     <col min="14086" max="14329" width="9" style="3"/>
-    <col min="14330" max="14330" width="17.3984375" style="3" customWidth="1"/>
-    <col min="14331" max="14331" width="12.46484375" style="3" customWidth="1"/>
-    <col min="14332" max="14332" width="11.265625" style="3" customWidth="1"/>
-    <col min="14333" max="14333" width="11.1328125" style="3" customWidth="1"/>
+    <col min="14330" max="14330" width="17.375" style="3" customWidth="1"/>
+    <col min="14331" max="14331" width="12.5" style="3" customWidth="1"/>
+    <col min="14332" max="14332" width="11.25" style="3" customWidth="1"/>
+    <col min="14333" max="14333" width="11.125" style="3" customWidth="1"/>
     <col min="14334" max="14334" width="9" style="3"/>
-    <col min="14335" max="14335" width="4.265625" style="3" customWidth="1"/>
+    <col min="14335" max="14335" width="4.25" style="3" customWidth="1"/>
     <col min="14336" max="14337" width="9" style="3"/>
-    <col min="14338" max="14338" width="17.3984375" style="3" customWidth="1"/>
-    <col min="14339" max="14339" width="12.46484375" style="3" customWidth="1"/>
-    <col min="14340" max="14340" width="11.265625" style="3" customWidth="1"/>
-    <col min="14341" max="14341" width="11.1328125" style="3" customWidth="1"/>
+    <col min="14338" max="14338" width="17.375" style="3" customWidth="1"/>
+    <col min="14339" max="14339" width="12.5" style="3" customWidth="1"/>
+    <col min="14340" max="14340" width="11.25" style="3" customWidth="1"/>
+    <col min="14341" max="14341" width="11.125" style="3" customWidth="1"/>
     <col min="14342" max="14585" width="9" style="3"/>
-    <col min="14586" max="14586" width="17.3984375" style="3" customWidth="1"/>
-    <col min="14587" max="14587" width="12.46484375" style="3" customWidth="1"/>
-    <col min="14588" max="14588" width="11.265625" style="3" customWidth="1"/>
-    <col min="14589" max="14589" width="11.1328125" style="3" customWidth="1"/>
+    <col min="14586" max="14586" width="17.375" style="3" customWidth="1"/>
+    <col min="14587" max="14587" width="12.5" style="3" customWidth="1"/>
+    <col min="14588" max="14588" width="11.25" style="3" customWidth="1"/>
+    <col min="14589" max="14589" width="11.125" style="3" customWidth="1"/>
     <col min="14590" max="14590" width="9" style="3"/>
-    <col min="14591" max="14591" width="4.265625" style="3" customWidth="1"/>
+    <col min="14591" max="14591" width="4.25" style="3" customWidth="1"/>
     <col min="14592" max="14593" width="9" style="3"/>
-    <col min="14594" max="14594" width="17.3984375" style="3" customWidth="1"/>
-    <col min="14595" max="14595" width="12.46484375" style="3" customWidth="1"/>
-    <col min="14596" max="14596" width="11.265625" style="3" customWidth="1"/>
-    <col min="14597" max="14597" width="11.1328125" style="3" customWidth="1"/>
+    <col min="14594" max="14594" width="17.375" style="3" customWidth="1"/>
+    <col min="14595" max="14595" width="12.5" style="3" customWidth="1"/>
+    <col min="14596" max="14596" width="11.25" style="3" customWidth="1"/>
+    <col min="14597" max="14597" width="11.125" style="3" customWidth="1"/>
     <col min="14598" max="14841" width="9" style="3"/>
-    <col min="14842" max="14842" width="17.3984375" style="3" customWidth="1"/>
-    <col min="14843" max="14843" width="12.46484375" style="3" customWidth="1"/>
-    <col min="14844" max="14844" width="11.265625" style="3" customWidth="1"/>
-    <col min="14845" max="14845" width="11.1328125" style="3" customWidth="1"/>
+    <col min="14842" max="14842" width="17.375" style="3" customWidth="1"/>
+    <col min="14843" max="14843" width="12.5" style="3" customWidth="1"/>
+    <col min="14844" max="14844" width="11.25" style="3" customWidth="1"/>
+    <col min="14845" max="14845" width="11.125" style="3" customWidth="1"/>
     <col min="14846" max="14846" width="9" style="3"/>
-    <col min="14847" max="14847" width="4.265625" style="3" customWidth="1"/>
+    <col min="14847" max="14847" width="4.25" style="3" customWidth="1"/>
     <col min="14848" max="14849" width="9" style="3"/>
-    <col min="14850" max="14850" width="17.3984375" style="3" customWidth="1"/>
-    <col min="14851" max="14851" width="12.46484375" style="3" customWidth="1"/>
-    <col min="14852" max="14852" width="11.265625" style="3" customWidth="1"/>
-    <col min="14853" max="14853" width="11.1328125" style="3" customWidth="1"/>
+    <col min="14850" max="14850" width="17.375" style="3" customWidth="1"/>
+    <col min="14851" max="14851" width="12.5" style="3" customWidth="1"/>
+    <col min="14852" max="14852" width="11.25" style="3" customWidth="1"/>
+    <col min="14853" max="14853" width="11.125" style="3" customWidth="1"/>
     <col min="14854" max="15097" width="9" style="3"/>
-    <col min="15098" max="15098" width="17.3984375" style="3" customWidth="1"/>
-    <col min="15099" max="15099" width="12.46484375" style="3" customWidth="1"/>
-    <col min="15100" max="15100" width="11.265625" style="3" customWidth="1"/>
-    <col min="15101" max="15101" width="11.1328125" style="3" customWidth="1"/>
+    <col min="15098" max="15098" width="17.375" style="3" customWidth="1"/>
+    <col min="15099" max="15099" width="12.5" style="3" customWidth="1"/>
+    <col min="15100" max="15100" width="11.25" style="3" customWidth="1"/>
+    <col min="15101" max="15101" width="11.125" style="3" customWidth="1"/>
     <col min="15102" max="15102" width="9" style="3"/>
-    <col min="15103" max="15103" width="4.265625" style="3" customWidth="1"/>
+    <col min="15103" max="15103" width="4.25" style="3" customWidth="1"/>
     <col min="15104" max="15105" width="9" style="3"/>
-    <col min="15106" max="15106" width="17.3984375" style="3" customWidth="1"/>
-    <col min="15107" max="15107" width="12.46484375" style="3" customWidth="1"/>
-    <col min="15108" max="15108" width="11.265625" style="3" customWidth="1"/>
-    <col min="15109" max="15109" width="11.1328125" style="3" customWidth="1"/>
+    <col min="15106" max="15106" width="17.375" style="3" customWidth="1"/>
+    <col min="15107" max="15107" width="12.5" style="3" customWidth="1"/>
+    <col min="15108" max="15108" width="11.25" style="3" customWidth="1"/>
+    <col min="15109" max="15109" width="11.125" style="3" customWidth="1"/>
     <col min="15110" max="15353" width="9" style="3"/>
-    <col min="15354" max="15354" width="17.3984375" style="3" customWidth="1"/>
-    <col min="15355" max="15355" width="12.46484375" style="3" customWidth="1"/>
-    <col min="15356" max="15356" width="11.265625" style="3" customWidth="1"/>
-    <col min="15357" max="15357" width="11.1328125" style="3" customWidth="1"/>
+    <col min="15354" max="15354" width="17.375" style="3" customWidth="1"/>
+    <col min="15355" max="15355" width="12.5" style="3" customWidth="1"/>
+    <col min="15356" max="15356" width="11.25" style="3" customWidth="1"/>
+    <col min="15357" max="15357" width="11.125" style="3" customWidth="1"/>
     <col min="15358" max="15358" width="9" style="3"/>
-    <col min="15359" max="15359" width="4.265625" style="3" customWidth="1"/>
+    <col min="15359" max="15359" width="4.25" style="3" customWidth="1"/>
     <col min="15360" max="15361" width="9" style="3"/>
-    <col min="15362" max="15362" width="17.3984375" style="3" customWidth="1"/>
-    <col min="15363" max="15363" width="12.46484375" style="3" customWidth="1"/>
-    <col min="15364" max="15364" width="11.265625" style="3" customWidth="1"/>
-    <col min="15365" max="15365" width="11.1328125" style="3" customWidth="1"/>
+    <col min="15362" max="15362" width="17.375" style="3" customWidth="1"/>
+    <col min="15363" max="15363" width="12.5" style="3" customWidth="1"/>
+    <col min="15364" max="15364" width="11.25" style="3" customWidth="1"/>
+    <col min="15365" max="15365" width="11.125" style="3" customWidth="1"/>
     <col min="15366" max="15609" width="9" style="3"/>
-    <col min="15610" max="15610" width="17.3984375" style="3" customWidth="1"/>
-    <col min="15611" max="15611" width="12.46484375" style="3" customWidth="1"/>
-    <col min="15612" max="15612" width="11.265625" style="3" customWidth="1"/>
-    <col min="15613" max="15613" width="11.1328125" style="3" customWidth="1"/>
+    <col min="15610" max="15610" width="17.375" style="3" customWidth="1"/>
+    <col min="15611" max="15611" width="12.5" style="3" customWidth="1"/>
+    <col min="15612" max="15612" width="11.25" style="3" customWidth="1"/>
+    <col min="15613" max="15613" width="11.125" style="3" customWidth="1"/>
     <col min="15614" max="15614" width="9" style="3"/>
-    <col min="15615" max="15615" width="4.265625" style="3" customWidth="1"/>
+    <col min="15615" max="15615" width="4.25" style="3" customWidth="1"/>
     <col min="15616" max="15617" width="9" style="3"/>
-    <col min="15618" max="15618" width="17.3984375" style="3" customWidth="1"/>
-    <col min="15619" max="15619" width="12.46484375" style="3" customWidth="1"/>
-    <col min="15620" max="15620" width="11.265625" style="3" customWidth="1"/>
-    <col min="15621" max="15621" width="11.1328125" style="3" customWidth="1"/>
+    <col min="15618" max="15618" width="17.375" style="3" customWidth="1"/>
+    <col min="15619" max="15619" width="12.5" style="3" customWidth="1"/>
+    <col min="15620" max="15620" width="11.25" style="3" customWidth="1"/>
+    <col min="15621" max="15621" width="11.125" style="3" customWidth="1"/>
     <col min="15622" max="15865" width="9" style="3"/>
-    <col min="15866" max="15866" width="17.3984375" style="3" customWidth="1"/>
-    <col min="15867" max="15867" width="12.46484375" style="3" customWidth="1"/>
-    <col min="15868" max="15868" width="11.265625" style="3" customWidth="1"/>
-    <col min="15869" max="15869" width="11.1328125" style="3" customWidth="1"/>
+    <col min="15866" max="15866" width="17.375" style="3" customWidth="1"/>
+    <col min="15867" max="15867" width="12.5" style="3" customWidth="1"/>
+    <col min="15868" max="15868" width="11.25" style="3" customWidth="1"/>
+    <col min="15869" max="15869" width="11.125" style="3" customWidth="1"/>
     <col min="15870" max="15870" width="9" style="3"/>
-    <col min="15871" max="15871" width="4.265625" style="3" customWidth="1"/>
+    <col min="15871" max="15871" width="4.25" style="3" customWidth="1"/>
     <col min="15872" max="15873" width="9" style="3"/>
-    <col min="15874" max="15874" width="17.3984375" style="3" customWidth="1"/>
-    <col min="15875" max="15875" width="12.46484375" style="3" customWidth="1"/>
-    <col min="15876" max="15876" width="11.265625" style="3" customWidth="1"/>
-    <col min="15877" max="15877" width="11.1328125" style="3" customWidth="1"/>
+    <col min="15874" max="15874" width="17.375" style="3" customWidth="1"/>
+    <col min="15875" max="15875" width="12.5" style="3" customWidth="1"/>
+    <col min="15876" max="15876" width="11.25" style="3" customWidth="1"/>
+    <col min="15877" max="15877" width="11.125" style="3" customWidth="1"/>
     <col min="15878" max="16121" width="9" style="3"/>
-    <col min="16122" max="16122" width="17.3984375" style="3" customWidth="1"/>
-    <col min="16123" max="16123" width="12.46484375" style="3" customWidth="1"/>
-    <col min="16124" max="16124" width="11.265625" style="3" customWidth="1"/>
-    <col min="16125" max="16125" width="11.1328125" style="3" customWidth="1"/>
+    <col min="16122" max="16122" width="17.375" style="3" customWidth="1"/>
+    <col min="16123" max="16123" width="12.5" style="3" customWidth="1"/>
+    <col min="16124" max="16124" width="11.25" style="3" customWidth="1"/>
+    <col min="16125" max="16125" width="11.125" style="3" customWidth="1"/>
     <col min="16126" max="16126" width="9" style="3"/>
-    <col min="16127" max="16127" width="4.265625" style="3" customWidth="1"/>
+    <col min="16127" max="16127" width="4.25" style="3" customWidth="1"/>
     <col min="16128" max="16129" width="9" style="3"/>
-    <col min="16130" max="16130" width="17.3984375" style="3" customWidth="1"/>
-    <col min="16131" max="16131" width="12.46484375" style="3" customWidth="1"/>
-    <col min="16132" max="16132" width="11.265625" style="3" customWidth="1"/>
-    <col min="16133" max="16133" width="11.1328125" style="3" customWidth="1"/>
+    <col min="16130" max="16130" width="17.375" style="3" customWidth="1"/>
+    <col min="16131" max="16131" width="12.5" style="3" customWidth="1"/>
+    <col min="16132" max="16132" width="11.25" style="3" customWidth="1"/>
+    <col min="16133" max="16133" width="11.125" style="3" customWidth="1"/>
     <col min="16134" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="96" t="s">
         <v>45</v>
       </c>
@@ -6272,7 +6269,7 @@
       </c>
       <c r="H1" s="95"/>
     </row>
-    <row r="2" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="96"/>
       <c r="C2" s="94"/>
       <c r="D2" s="98"/>
@@ -6284,7 +6281,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -6294,7 +6291,7 @@
       <c r="G3" s="10"/>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
@@ -6304,39 +6301,39 @@
       <c r="G4" s="10"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="19" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="22" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="24" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="25" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="26" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="27" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="28" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="30" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="31" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="32" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="G1:G2"/>
@@ -6363,14 +6360,14 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="7.59765625" customWidth="1"/>
-    <col min="3" max="5" width="6.59765625" customWidth="1"/>
-    <col min="6" max="9" width="11.59765625" customWidth="1"/>
+    <col min="1" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="5" width="6.625" customWidth="1"/>
+    <col min="6" max="9" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="99" t="s">
         <v>59</v>
       </c>
